--- a/기능별 분류맵(안).xlsx
+++ b/기능별 분류맵(안).xlsx
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">철등록부2017!$A$4:$N$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">철등록부2018!$A$4:$N$44</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="427">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -965,14 +965,6 @@
   </si>
   <si>
     <t>시청각기록물등록번호*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리과기관코드-시청각자료번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시청각자료번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1596,19 +1588,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>m000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m+6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서번호</t>
+    <t>G-portal기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라키비움적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리과기관코드-(단위업무기호+기록물철등록연번 두자리수)+문서번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무기호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1616,49 +1616,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배부일련번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G-portal기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라키비움적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>처리과기관코드-(단위업무기호+기록물철등록연번 두자리수)+문서번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위업무기호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A: 브랜딩
-B: 도민참여
-C: 아카이빙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(001)은 권호수:G-portal기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라키비움적용</t>
+    <t>(001)는 권호수:G-portal기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라키비움추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-(단위업무기호+기록물철등록연번 두자리수)+시청각자료번호*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청각자료번호*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-A310001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-A310001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A: 아카이빙
+B: 브랜딩
+C: 도민참여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1927,7 +1923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2291,17 +2287,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2318,7 +2303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2704,9 +2689,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2716,15 +2698,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2749,41 +2722,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3134,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="108" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F1" s="108" t="s">
         <v>9</v>
@@ -3363,7 +3336,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="5" customFormat="1">
@@ -3380,7 +3353,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="5" customFormat="1">
@@ -3397,7 +3370,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="5" customFormat="1">
@@ -3414,7 +3387,7 @@
         <v>24</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -3465,7 +3438,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -3482,7 +3455,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1">
@@ -3519,7 +3492,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1">
@@ -3536,7 +3509,7 @@
         <v>36</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1">
@@ -3553,7 +3526,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1">
@@ -3598,7 +3571,7 @@
         <v>40</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1">
@@ -3704,7 +3677,7 @@
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -3721,7 +3694,7 @@
         <v>32</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3758,7 +3731,7 @@
         <v>43</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3789,7 +3762,7 @@
         <v>45</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3861,7 +3834,7 @@
         <v>49</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -3878,7 +3851,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3929,7 +3902,7 @@
         <v>52</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3946,7 +3919,7 @@
         <v>53</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -3963,7 +3936,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4000,7 +3973,7 @@
         <v>56</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4017,7 +3990,7 @@
         <v>57</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4034,7 +4007,7 @@
         <v>58</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4071,7 +4044,7 @@
         <v>60</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4123,7 +4096,7 @@
         <v>63</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4140,7 +4113,7 @@
         <v>64</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4177,7 +4150,7 @@
         <v>66</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4221,19 +4194,19 @@
         <v>72</v>
       </c>
       <c r="D1" s="109" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="110" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="G1" s="108" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="110" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="108" t="s">
-        <v>326</v>
-      </c>
       <c r="H1" s="108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="41.25" thickTop="1">
@@ -4247,13 +4220,13 @@
         <v>82</v>
       </c>
       <c r="D2" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F2" s="95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4269,13 +4242,13 @@
         <v>83</v>
       </c>
       <c r="D3" s="100" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4292,10 +4265,10 @@
       </c>
       <c r="D4" s="101"/>
       <c r="E4" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="F4" s="96" t="s">
         <v>327</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>329</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -4312,10 +4285,10 @@
       </c>
       <c r="D5" s="101"/>
       <c r="E5" s="14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F5" s="96" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -4332,10 +4305,10 @@
       </c>
       <c r="D6" s="102"/>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F6" s="97" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -4351,13 +4324,13 @@
         <v>82</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F7" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4373,7 +4346,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="96"/>
@@ -4391,7 +4364,7 @@
         <v>75</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="96"/>
@@ -4409,7 +4382,7 @@
         <v>76</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="98"/>
@@ -4427,13 +4400,13 @@
         <v>82</v>
       </c>
       <c r="D11" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F11" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -4446,10 +4419,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="96"/>
@@ -4464,10 +4437,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="96"/>
@@ -4482,10 +4455,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="96"/>
@@ -4500,10 +4473,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="96"/>
@@ -4535,13 +4508,13 @@
         <v>82</v>
       </c>
       <c r="D17" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -4554,7 +4527,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D18" s="101"/>
       <c r="E18" s="14"/>
@@ -4570,7 +4543,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="6"/>
@@ -4589,13 +4562,13 @@
         <v>82</v>
       </c>
       <c r="D20" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4608,7 +4581,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D21" s="101"/>
       <c r="E21" s="14"/>
@@ -4624,7 +4597,7 @@
         <v>33</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="14"/>
@@ -4640,7 +4613,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="14"/>
@@ -4682,7 +4655,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D26" s="103"/>
       <c r="E26" s="6"/>
@@ -4701,13 +4674,13 @@
         <v>82</v>
       </c>
       <c r="D27" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F27" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -4737,13 +4710,13 @@
         <v>82</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4773,13 +4746,13 @@
         <v>82</v>
       </c>
       <c r="D31" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F31" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4792,7 +4765,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="14"/>
@@ -4808,7 +4781,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D33" s="103"/>
       <c r="E33" s="6"/>
@@ -4827,13 +4800,13 @@
         <v>82</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F34" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -4846,7 +4819,7 @@
         <v>42</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D35" s="101"/>
       <c r="E35" s="14"/>
@@ -4875,7 +4848,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="6"/>
@@ -4894,13 +4867,13 @@
         <v>82</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F38" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -4930,13 +4903,13 @@
         <v>82</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F40" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -4949,7 +4922,7 @@
         <v>47</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D41" s="101"/>
       <c r="E41" s="14"/>
@@ -4965,7 +4938,7 @@
         <v>47</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D42" s="103"/>
       <c r="E42" s="6"/>
@@ -4984,13 +4957,13 @@
         <v>82</v>
       </c>
       <c r="D43" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F43" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -5016,7 +4989,7 @@
         <v>50</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D45" s="101"/>
       <c r="E45" s="14"/>
@@ -5032,7 +5005,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D46" s="101"/>
       <c r="E46" s="14"/>
@@ -5048,7 +5021,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D47" s="103"/>
       <c r="E47" s="6"/>
@@ -5067,13 +5040,13 @@
         <v>82</v>
       </c>
       <c r="D48" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -5086,7 +5059,7 @@
         <v>55</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D49" s="101"/>
       <c r="E49" s="14"/>
@@ -5102,7 +5075,7 @@
         <v>55</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D50" s="101"/>
       <c r="E50" s="14"/>
@@ -5118,7 +5091,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D51" s="103"/>
       <c r="E51" s="6"/>
@@ -5137,13 +5110,13 @@
         <v>82</v>
       </c>
       <c r="D52" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F52" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -5156,7 +5129,7 @@
         <v>59</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D53" s="101"/>
       <c r="E53" s="14"/>
@@ -5189,13 +5162,13 @@
         <v>82</v>
       </c>
       <c r="D55" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F55" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -5208,7 +5181,7 @@
         <v>62</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D56" s="101"/>
       <c r="E56" s="14"/>
@@ -5224,7 +5197,7 @@
         <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D57" s="103"/>
       <c r="E57" s="6"/>
@@ -5243,13 +5216,13 @@
         <v>82</v>
       </c>
       <c r="D58" s="106" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -5262,7 +5235,7 @@
         <v>65</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D59" s="103"/>
       <c r="E59" s="6"/>
@@ -5303,60 +5276,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
     </row>
     <row r="2" spans="1:14" s="60" customFormat="1" ht="20.25">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
     </row>
     <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="162" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -6515,10 +6488,10 @@
         <v>70</v>
       </c>
       <c r="D1" s="114" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E1" s="114" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>9</v>
@@ -6532,13 +6505,13 @@
         <v>191</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="116" t="s">
         <v>137</v>
       </c>
       <c r="D2" s="120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E2" s="117"/>
       <c r="F2" s="117"/>
@@ -6549,13 +6522,13 @@
         <v>191</v>
       </c>
       <c r="B3" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C3" s="116" t="s">
         <v>137</v>
       </c>
       <c r="D3" s="120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E3" s="117"/>
       <c r="F3" s="117"/>
@@ -6566,7 +6539,7 @@
         <v>191</v>
       </c>
       <c r="B4" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" s="116" t="s">
         <v>137</v>
@@ -6581,13 +6554,13 @@
         <v>191</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C5" s="119" t="s">
         <v>137</v>
       </c>
       <c r="D5" s="128" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E5" s="129"/>
       <c r="F5" s="129"/>
@@ -6598,13 +6571,13 @@
         <v>191</v>
       </c>
       <c r="B6" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C6" s="122" t="s">
         <v>148</v>
       </c>
       <c r="D6" s="123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E6" s="117"/>
       <c r="F6" s="117"/>
@@ -6615,13 +6588,13 @@
         <v>191</v>
       </c>
       <c r="B7" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C7" s="122" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="123" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E7" s="117"/>
       <c r="F7" s="117"/>
@@ -6632,13 +6605,13 @@
         <v>191</v>
       </c>
       <c r="B8" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C8" s="122" t="s">
         <v>148</v>
       </c>
       <c r="D8" s="123" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E8" s="117"/>
       <c r="F8" s="117"/>
@@ -6649,13 +6622,13 @@
         <v>191</v>
       </c>
       <c r="B9" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C9" s="122" t="s">
         <v>148</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E9" s="117"/>
       <c r="F9" s="117"/>
@@ -6666,13 +6639,13 @@
         <v>191</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" s="131" t="s">
         <v>148</v>
       </c>
       <c r="D10" s="132" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E10" s="129"/>
       <c r="F10" s="129"/>
@@ -6683,13 +6656,13 @@
         <v>191</v>
       </c>
       <c r="B11" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C11" s="116" t="s">
         <v>151</v>
       </c>
       <c r="D11" s="120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E11" s="117"/>
       <c r="F11" s="117"/>
@@ -6700,13 +6673,13 @@
         <v>191</v>
       </c>
       <c r="B12" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C12" s="116" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E12" s="117"/>
       <c r="F12" s="117"/>
@@ -6717,13 +6690,13 @@
         <v>191</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C13" s="119" t="s">
         <v>151</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E13" s="129"/>
       <c r="F13" s="129"/>
@@ -6734,10 +6707,10 @@
         <v>191</v>
       </c>
       <c r="B14" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C14" s="125" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D14" s="126"/>
       <c r="E14" s="117"/>
@@ -6749,10 +6722,10 @@
         <v>191</v>
       </c>
       <c r="B15" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C15" s="125" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D15" s="126"/>
       <c r="E15" s="117"/>
@@ -6764,7 +6737,7 @@
         <v>191</v>
       </c>
       <c r="B16" s="133" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C16" s="134"/>
       <c r="D16" s="135"/>
@@ -6777,13 +6750,13 @@
         <v>191</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C17" s="116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D17" s="120" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E17" s="117"/>
       <c r="F17" s="117"/>
@@ -6794,13 +6767,13 @@
         <v>191</v>
       </c>
       <c r="B18" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C18" s="116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D18" s="120" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E18" s="117"/>
       <c r="F18" s="117"/>
@@ -6811,13 +6784,13 @@
         <v>191</v>
       </c>
       <c r="B19" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D19" s="128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E19" s="129"/>
       <c r="F19" s="129"/>
@@ -6828,10 +6801,10 @@
         <v>191</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D20" s="127"/>
       <c r="E20" s="117"/>
@@ -6843,10 +6816,10 @@
         <v>191</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C21" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D21" s="127"/>
       <c r="E21" s="117"/>
@@ -6858,10 +6831,10 @@
         <v>191</v>
       </c>
       <c r="B22" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D22" s="127"/>
       <c r="E22" s="117"/>
@@ -6873,10 +6846,10 @@
         <v>191</v>
       </c>
       <c r="B23" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C23" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D23" s="127"/>
       <c r="E23" s="117"/>
@@ -6888,10 +6861,10 @@
         <v>191</v>
       </c>
       <c r="B24" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D24" s="127"/>
       <c r="E24" s="117"/>
@@ -6903,10 +6876,10 @@
         <v>191</v>
       </c>
       <c r="B25" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D25" s="136"/>
       <c r="E25" s="129"/>
@@ -6918,7 +6891,7 @@
         <v>191</v>
       </c>
       <c r="B26" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C26" s="116" t="s">
         <v>143</v>
@@ -6933,10 +6906,10 @@
         <v>191</v>
       </c>
       <c r="B27" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C27" s="116" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D27" s="127"/>
       <c r="E27" s="117"/>
@@ -6948,10 +6921,10 @@
         <v>191</v>
       </c>
       <c r="B28" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C28" s="119" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D28" s="136"/>
       <c r="E28" s="129"/>
@@ -6963,13 +6936,13 @@
         <v>191</v>
       </c>
       <c r="B29" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C29" s="116" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D29" s="120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E29" s="117"/>
       <c r="F29" s="117"/>
@@ -6980,10 +6953,10 @@
         <v>191</v>
       </c>
       <c r="B30" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C30" s="116" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D30" s="120"/>
       <c r="E30" s="117"/>
@@ -6995,13 +6968,13 @@
         <v>191</v>
       </c>
       <c r="B31" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D31" s="120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E31" s="117"/>
       <c r="F31" s="117"/>
@@ -7012,13 +6985,13 @@
         <v>191</v>
       </c>
       <c r="B32" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C32" s="116" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D32" s="120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E32" s="117"/>
       <c r="F32" s="117"/>
@@ -7029,10 +7002,10 @@
         <v>191</v>
       </c>
       <c r="B33" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C33" s="119" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D33" s="128"/>
       <c r="E33" s="129"/>
@@ -7044,13 +7017,13 @@
         <v>191</v>
       </c>
       <c r="B34" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D34" s="120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E34" s="117"/>
       <c r="F34" s="117"/>
@@ -7061,13 +7034,13 @@
         <v>191</v>
       </c>
       <c r="B35" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C35" s="116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D35" s="120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E35" s="117"/>
       <c r="F35" s="117"/>
@@ -7078,10 +7051,10 @@
         <v>191</v>
       </c>
       <c r="B36" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" s="119" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D36" s="136"/>
       <c r="E36" s="129"/>
@@ -7093,13 +7066,13 @@
         <v>191</v>
       </c>
       <c r="B37" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C37" s="116" t="s">
         <v>127</v>
       </c>
       <c r="D37" s="120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E37" s="117"/>
       <c r="F37" s="117"/>
@@ -7110,13 +7083,13 @@
         <v>191</v>
       </c>
       <c r="B38" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C38" s="116" t="s">
         <v>127</v>
       </c>
       <c r="D38" s="120" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E38" s="117"/>
       <c r="F38" s="117"/>
@@ -7127,7 +7100,7 @@
         <v>191</v>
       </c>
       <c r="B39" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="119" t="s">
         <v>127</v>
@@ -7142,13 +7115,13 @@
         <v>191</v>
       </c>
       <c r="B40" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C40" s="116" t="s">
         <v>129</v>
       </c>
       <c r="D40" s="120" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E40" s="117"/>
       <c r="F40" s="117"/>
@@ -7159,7 +7132,7 @@
         <v>191</v>
       </c>
       <c r="B41" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C41" s="116" t="s">
         <v>129</v>
@@ -7174,7 +7147,7 @@
         <v>191</v>
       </c>
       <c r="B42" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C42" s="116" t="s">
         <v>129</v>
@@ -7189,7 +7162,7 @@
         <v>191</v>
       </c>
       <c r="B43" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C43" s="119" t="s">
         <v>129</v>
@@ -7204,13 +7177,13 @@
         <v>191</v>
       </c>
       <c r="B44" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D44" s="120" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E44" s="117"/>
       <c r="F44" s="117"/>
@@ -7221,13 +7194,13 @@
         <v>191</v>
       </c>
       <c r="B45" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C45" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D45" s="120" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E45" s="117"/>
       <c r="F45" s="117"/>
@@ -7238,10 +7211,10 @@
         <v>191</v>
       </c>
       <c r="B46" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C46" s="119" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D46" s="128"/>
       <c r="E46" s="129"/>
@@ -7253,13 +7226,13 @@
         <v>191</v>
       </c>
       <c r="B47" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C47" s="116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D47" s="120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E47" s="117"/>
       <c r="F47" s="117"/>
@@ -7270,10 +7243,10 @@
         <v>191</v>
       </c>
       <c r="B48" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C48" s="119" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D48" s="128"/>
       <c r="E48" s="129"/>
@@ -7285,13 +7258,13 @@
         <v>191</v>
       </c>
       <c r="B49" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C49" s="116" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="120" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E49" s="117"/>
       <c r="F49" s="117"/>
@@ -7302,13 +7275,13 @@
         <v>191</v>
       </c>
       <c r="B50" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C50" s="116" t="s">
         <v>111</v>
       </c>
       <c r="D50" s="120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="117"/>
@@ -7319,7 +7292,7 @@
         <v>191</v>
       </c>
       <c r="B51" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C51" s="119" t="s">
         <v>111</v>
@@ -7334,13 +7307,13 @@
         <v>191</v>
       </c>
       <c r="B52" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C52" s="116" t="s">
         <v>119</v>
       </c>
       <c r="D52" s="120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E52" s="117"/>
       <c r="F52" s="117"/>
@@ -7351,7 +7324,7 @@
         <v>191</v>
       </c>
       <c r="B53" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C53" s="116" t="s">
         <v>119</v>
@@ -7366,13 +7339,13 @@
         <v>191</v>
       </c>
       <c r="B54" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C54" s="119" t="s">
         <v>119</v>
       </c>
       <c r="D54" s="128" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E54" s="129"/>
       <c r="F54" s="129"/>
@@ -7383,13 +7356,13 @@
         <v>191</v>
       </c>
       <c r="B55" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C55" s="116" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="120" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E55" s="117"/>
       <c r="F55" s="117"/>
@@ -7400,13 +7373,13 @@
         <v>191</v>
       </c>
       <c r="B56" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C56" s="119" t="s">
         <v>131</v>
       </c>
       <c r="D56" s="128" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E56" s="129"/>
       <c r="F56" s="129"/>
@@ -7417,13 +7390,13 @@
         <v>191</v>
       </c>
       <c r="B57" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C57" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D57" s="120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E57" s="117"/>
       <c r="F57" s="117"/>
@@ -7434,13 +7407,13 @@
         <v>191</v>
       </c>
       <c r="B58" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C58" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D58" s="120" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E58" s="117"/>
       <c r="F58" s="117"/>
@@ -7451,13 +7424,13 @@
         <v>191</v>
       </c>
       <c r="B59" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C59" s="119" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D59" s="128" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E59" s="129"/>
       <c r="F59" s="129"/>
@@ -7468,13 +7441,13 @@
         <v>191</v>
       </c>
       <c r="B60" s="137" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C60" s="138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D60" s="139" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E60" s="129"/>
       <c r="F60" s="129"/>
@@ -7485,13 +7458,13 @@
         <v>191</v>
       </c>
       <c r="B61" s="137" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C61" s="138" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D61" s="139" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E61" s="129"/>
       <c r="F61" s="129"/>
@@ -7502,7 +7475,7 @@
         <v>191</v>
       </c>
       <c r="B62" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C62" s="116" t="s">
         <v>161</v>
@@ -7517,7 +7490,7 @@
         <v>191</v>
       </c>
       <c r="B63" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C63" s="116" t="s">
         <v>161</v>
@@ -7532,7 +7505,7 @@
         <v>191</v>
       </c>
       <c r="B64" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C64" s="116" t="s">
         <v>161</v>
@@ -7547,7 +7520,7 @@
         <v>191</v>
       </c>
       <c r="B65" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C65" s="116" t="s">
         <v>161</v>
@@ -7562,7 +7535,7 @@
         <v>191</v>
       </c>
       <c r="B66" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C66" s="119" t="s">
         <v>161</v>
@@ -7577,10 +7550,10 @@
         <v>191</v>
       </c>
       <c r="B67" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C67" s="116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D67" s="127"/>
       <c r="E67" s="117"/>
@@ -7592,10 +7565,10 @@
         <v>191</v>
       </c>
       <c r="B68" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C68" s="116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D68" s="127"/>
       <c r="E68" s="117"/>
@@ -7607,10 +7580,10 @@
         <v>191</v>
       </c>
       <c r="B69" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C69" s="119" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D69" s="136"/>
       <c r="E69" s="129"/>
@@ -7622,13 +7595,13 @@
         <v>191</v>
       </c>
       <c r="B70" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C70" s="116" t="s">
         <v>163</v>
       </c>
       <c r="D70" s="120" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E70" s="117"/>
       <c r="F70" s="117"/>
@@ -7639,13 +7612,13 @@
         <v>191</v>
       </c>
       <c r="B71" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C71" s="116" t="s">
         <v>163</v>
       </c>
       <c r="D71" s="120" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E71" s="117"/>
       <c r="F71" s="117"/>
@@ -7656,13 +7629,13 @@
         <v>191</v>
       </c>
       <c r="B72" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C72" s="116" t="s">
         <v>163</v>
       </c>
       <c r="D72" s="120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E72" s="117"/>
       <c r="F72" s="117"/>
@@ -7673,7 +7646,7 @@
         <v>191</v>
       </c>
       <c r="B73" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C73" s="116" t="s">
         <v>163</v>
@@ -7688,13 +7661,13 @@
         <v>191</v>
       </c>
       <c r="B74" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C74" s="116" t="s">
         <v>163</v>
       </c>
       <c r="D74" s="120" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E74" s="117"/>
       <c r="F74" s="117"/>
@@ -7705,13 +7678,13 @@
         <v>191</v>
       </c>
       <c r="B75" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C75" s="119" t="s">
         <v>163</v>
       </c>
       <c r="D75" s="128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E75" s="129"/>
       <c r="F75" s="129"/>
@@ -7722,13 +7695,13 @@
         <v>191</v>
       </c>
       <c r="B76" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C76" s="116" t="s">
         <v>159</v>
       </c>
       <c r="D76" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E76" s="117"/>
       <c r="F76" s="117"/>
@@ -7739,13 +7712,13 @@
         <v>191</v>
       </c>
       <c r="B77" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C77" s="116" t="s">
         <v>159</v>
       </c>
       <c r="D77" s="120" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E77" s="117"/>
       <c r="F77" s="117"/>
@@ -7756,7 +7729,7 @@
         <v>191</v>
       </c>
       <c r="B78" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C78" s="116" t="s">
         <v>159</v>
@@ -7771,7 +7744,7 @@
         <v>191</v>
       </c>
       <c r="B79" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C79" s="119" t="s">
         <v>159</v>
@@ -7786,7 +7759,7 @@
         <v>191</v>
       </c>
       <c r="B80" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C80" s="116" t="s">
         <v>229</v>
@@ -7801,7 +7774,7 @@
         <v>191</v>
       </c>
       <c r="B81" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C81" s="116" t="s">
         <v>229</v>
@@ -7816,7 +7789,7 @@
         <v>191</v>
       </c>
       <c r="B82" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C82" s="116" t="s">
         <v>229</v>
@@ -7831,7 +7804,7 @@
         <v>191</v>
       </c>
       <c r="B83" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C83" s="116" t="s">
         <v>229</v>
@@ -7846,7 +7819,7 @@
         <v>191</v>
       </c>
       <c r="B84" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C84" s="119" t="s">
         <v>229</v>
@@ -7861,7 +7834,7 @@
         <v>191</v>
       </c>
       <c r="B85" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C85" s="116" t="s">
         <v>227</v>
@@ -7876,7 +7849,7 @@
         <v>191</v>
       </c>
       <c r="B86" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C86" s="116" t="s">
         <v>227</v>
@@ -7891,7 +7864,7 @@
         <v>191</v>
       </c>
       <c r="B87" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C87" s="119" t="s">
         <v>227</v>
@@ -7945,30 +7918,30 @@
         <v>72</v>
       </c>
       <c r="D1" s="114" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>322</v>
+      </c>
+      <c r="F1" s="114" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="G1" s="114" t="s">
         <v>324</v>
       </c>
-      <c r="F1" s="114" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="114" t="s">
-        <v>326</v>
-      </c>
       <c r="H1" s="114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1">
       <c r="A2" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B2" s="116" t="s">
         <v>137</v>
       </c>
       <c r="C2" s="120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D2" s="120"/>
       <c r="E2" s="120"/>
@@ -7978,13 +7951,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B3" s="116" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="120" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D3" s="120"/>
       <c r="E3" s="120"/>
@@ -7994,7 +7967,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B4" s="116" t="s">
         <v>137</v>
@@ -8008,13 +7981,13 @@
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B5" s="119" t="s">
         <v>137</v>
       </c>
       <c r="C5" s="128" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D5" s="128"/>
       <c r="E5" s="128"/>
@@ -8024,13 +7997,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B6" s="122" t="s">
         <v>148</v>
       </c>
       <c r="C6" s="123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D6" s="123"/>
       <c r="E6" s="123"/>
@@ -8040,13 +8013,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B7" s="122" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="123" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D7" s="123"/>
       <c r="E7" s="123"/>
@@ -8056,13 +8029,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B8" s="122" t="s">
         <v>148</v>
       </c>
       <c r="C8" s="123" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D8" s="123"/>
       <c r="E8" s="123"/>
@@ -8072,13 +8045,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="121" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B9" s="122" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D9" s="123"/>
       <c r="E9" s="123"/>
@@ -8088,13 +8061,13 @@
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="130" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B10" s="131" t="s">
         <v>148</v>
       </c>
       <c r="C10" s="132" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132"/>
@@ -8104,13 +8077,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B11" s="116" t="s">
         <v>151</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D11" s="120"/>
       <c r="E11" s="120"/>
@@ -8120,13 +8093,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="116" t="s">
         <v>151</v>
       </c>
       <c r="C12" s="120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D12" s="120"/>
       <c r="E12" s="120"/>
@@ -8136,13 +8109,13 @@
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B13" s="119" t="s">
         <v>151</v>
       </c>
       <c r="C13" s="128" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D13" s="128"/>
       <c r="E13" s="128"/>
@@ -8152,10 +8125,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="125" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -8166,10 +8139,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="124" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -8180,7 +8153,7 @@
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="133" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B16" s="134"/>
       <c r="C16" s="135"/>
@@ -8192,13 +8165,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B17" s="116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C17" s="120" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D17" s="120"/>
       <c r="E17" s="120"/>
@@ -8208,13 +8181,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B18" s="116" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C18" s="120" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D18" s="120"/>
       <c r="E18" s="120"/>
@@ -8224,13 +8197,13 @@
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B19" s="119" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C19" s="128" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D19" s="128"/>
       <c r="E19" s="128"/>
@@ -8240,10 +8213,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B20" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C20" s="127"/>
       <c r="D20" s="127"/>
@@ -8254,10 +8227,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B21" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C21" s="127"/>
       <c r="D21" s="127"/>
@@ -8268,10 +8241,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B22" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C22" s="127"/>
       <c r="D22" s="127"/>
@@ -8282,10 +8255,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B23" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C23" s="127"/>
       <c r="D23" s="127"/>
@@ -8296,10 +8269,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B24" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C24" s="127"/>
       <c r="D24" s="127"/>
@@ -8310,10 +8283,10 @@
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1">
       <c r="A25" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B25" s="119" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C25" s="136"/>
       <c r="D25" s="136"/>
@@ -8324,7 +8297,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B26" s="116" t="s">
         <v>143</v>
@@ -8338,10 +8311,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="115" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C27" s="127"/>
       <c r="D27" s="127"/>
@@ -8352,10 +8325,10 @@
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="118" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B28" s="119" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C28" s="136"/>
       <c r="D28" s="136"/>
@@ -8366,13 +8339,13 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B29" s="116" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C29" s="120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D29" s="120"/>
       <c r="E29" s="120"/>
@@ -8382,10 +8355,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B30" s="116" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C30" s="120"/>
       <c r="D30" s="120"/>
@@ -8396,13 +8369,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B31" s="116" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C31" s="120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D31" s="120"/>
       <c r="E31" s="120"/>
@@ -8412,13 +8385,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" s="116" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C32" s="120" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D32" s="120"/>
       <c r="E32" s="120"/>
@@ -8428,10 +8401,10 @@
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B33" s="119" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C33" s="128"/>
       <c r="D33" s="128"/>
@@ -8442,13 +8415,13 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B34" s="116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C34" s="120" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D34" s="120"/>
       <c r="E34" s="120"/>
@@ -8458,13 +8431,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B35" s="116" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C35" s="120" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D35" s="120"/>
       <c r="E35" s="120"/>
@@ -8474,10 +8447,10 @@
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B36" s="119" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C36" s="136"/>
       <c r="D36" s="136"/>
@@ -8488,13 +8461,13 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B37" s="116" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="120" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D37" s="120"/>
       <c r="E37" s="120"/>
@@ -8504,13 +8477,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B38" s="116" t="s">
         <v>127</v>
       </c>
       <c r="C38" s="120" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D38" s="120"/>
       <c r="E38" s="120"/>
@@ -8520,7 +8493,7 @@
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
       <c r="A39" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="119" t="s">
         <v>127</v>
@@ -8534,13 +8507,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B40" s="116" t="s">
         <v>129</v>
       </c>
       <c r="C40" s="120" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D40" s="120"/>
       <c r="E40" s="120"/>
@@ -8550,7 +8523,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B41" s="116" t="s">
         <v>129</v>
@@ -8564,7 +8537,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B42" s="116" t="s">
         <v>129</v>
@@ -8578,7 +8551,7 @@
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B43" s="119" t="s">
         <v>129</v>
@@ -8592,13 +8565,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B44" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C44" s="120" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D44" s="120"/>
       <c r="E44" s="120"/>
@@ -8608,13 +8581,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B45" s="116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C45" s="120" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D45" s="120"/>
       <c r="E45" s="120"/>
@@ -8624,10 +8597,10 @@
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1">
       <c r="A46" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B46" s="119" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C46" s="128"/>
       <c r="D46" s="128"/>
@@ -8638,13 +8611,13 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B47" s="116" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C47" s="120" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D47" s="120"/>
       <c r="E47" s="120"/>
@@ -8654,10 +8627,10 @@
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B48" s="119" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C48" s="128"/>
       <c r="D48" s="128"/>
@@ -8668,13 +8641,13 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B49" s="116" t="s">
         <v>111</v>
       </c>
       <c r="C49" s="120" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D49" s="120"/>
       <c r="E49" s="120"/>
@@ -8684,13 +8657,13 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B50" s="116" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="120" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D50" s="120"/>
       <c r="E50" s="120"/>
@@ -8700,7 +8673,7 @@
     </row>
     <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B51" s="119" t="s">
         <v>111</v>
@@ -8714,13 +8687,13 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B52" s="116" t="s">
         <v>119</v>
       </c>
       <c r="C52" s="120" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D52" s="120"/>
       <c r="E52" s="120"/>
@@ -8730,7 +8703,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B53" s="116" t="s">
         <v>119</v>
@@ -8744,13 +8717,13 @@
     </row>
     <row r="54" spans="1:8" ht="17.25" thickBot="1">
       <c r="A54" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B54" s="119" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="128" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D54" s="128"/>
       <c r="E54" s="128"/>
@@ -8760,13 +8733,13 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B55" s="116" t="s">
         <v>131</v>
       </c>
       <c r="C55" s="120" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D55" s="120"/>
       <c r="E55" s="120"/>
@@ -8776,13 +8749,13 @@
     </row>
     <row r="56" spans="1:8" ht="17.25" thickBot="1">
       <c r="A56" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B56" s="119" t="s">
         <v>131</v>
       </c>
       <c r="C56" s="128" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D56" s="128"/>
       <c r="E56" s="128"/>
@@ -8792,13 +8765,13 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B57" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C57" s="120" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D57" s="120"/>
       <c r="E57" s="120"/>
@@ -8808,13 +8781,13 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="115" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B58" s="116" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C58" s="120" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D58" s="120"/>
       <c r="E58" s="120"/>
@@ -8824,13 +8797,13 @@
     </row>
     <row r="59" spans="1:8" ht="17.25" thickBot="1">
       <c r="A59" s="118" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B59" s="119" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C59" s="128" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D59" s="128"/>
       <c r="E59" s="128"/>
@@ -8840,13 +8813,13 @@
     </row>
     <row r="60" spans="1:8" ht="17.25" thickBot="1">
       <c r="A60" s="137" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B60" s="138" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C60" s="139" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D60" s="139"/>
       <c r="E60" s="139"/>
@@ -8856,13 +8829,13 @@
     </row>
     <row r="61" spans="1:8" ht="17.25" thickBot="1">
       <c r="A61" s="137" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B61" s="138" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C61" s="139" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D61" s="139"/>
       <c r="E61" s="139"/>
@@ -8872,7 +8845,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B62" s="116" t="s">
         <v>161</v>
@@ -8886,7 +8859,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B63" s="116" t="s">
         <v>161</v>
@@ -8900,7 +8873,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B64" s="116" t="s">
         <v>161</v>
@@ -8914,7 +8887,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B65" s="116" t="s">
         <v>161</v>
@@ -8928,7 +8901,7 @@
     </row>
     <row r="66" spans="1:8" ht="17.25" thickBot="1">
       <c r="A66" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B66" s="119" t="s">
         <v>161</v>
@@ -8942,10 +8915,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B67" s="116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C67" s="127"/>
       <c r="D67" s="127"/>
@@ -8956,10 +8929,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B68" s="116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C68" s="127"/>
       <c r="D68" s="127"/>
@@ -8970,10 +8943,10 @@
     </row>
     <row r="69" spans="1:8" ht="17.25" thickBot="1">
       <c r="A69" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B69" s="119" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C69" s="136"/>
       <c r="D69" s="136"/>
@@ -8984,13 +8957,13 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B70" s="116" t="s">
         <v>163</v>
       </c>
       <c r="C70" s="120" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
@@ -9000,13 +8973,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B71" s="116" t="s">
         <v>163</v>
       </c>
       <c r="C71" s="120" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
@@ -9016,13 +8989,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B72" s="116" t="s">
         <v>163</v>
       </c>
       <c r="C72" s="120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
@@ -9032,7 +9005,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B73" s="116" t="s">
         <v>163</v>
@@ -9046,13 +9019,13 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B74" s="116" t="s">
         <v>163</v>
       </c>
       <c r="C74" s="120" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D74" s="120"/>
       <c r="E74" s="120"/>
@@ -9062,13 +9035,13 @@
     </row>
     <row r="75" spans="1:8" ht="17.25" thickBot="1">
       <c r="A75" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B75" s="119" t="s">
         <v>163</v>
       </c>
       <c r="C75" s="128" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D75" s="128"/>
       <c r="E75" s="128"/>
@@ -9078,13 +9051,13 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B76" s="116" t="s">
         <v>159</v>
       </c>
       <c r="C76" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
@@ -9094,13 +9067,13 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B77" s="116" t="s">
         <v>159</v>
       </c>
       <c r="C77" s="120" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
@@ -9110,7 +9083,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B78" s="116" t="s">
         <v>159</v>
@@ -9124,7 +9097,7 @@
     </row>
     <row r="79" spans="1:8" ht="17.25" thickBot="1">
       <c r="A79" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B79" s="119" t="s">
         <v>159</v>
@@ -9138,7 +9111,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B80" s="116" t="s">
         <v>229</v>
@@ -9152,7 +9125,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B81" s="116" t="s">
         <v>229</v>
@@ -9166,7 +9139,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B82" s="116" t="s">
         <v>229</v>
@@ -9180,7 +9153,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B83" s="116" t="s">
         <v>229</v>
@@ -9194,7 +9167,7 @@
     </row>
     <row r="84" spans="1:8" ht="17.25" thickBot="1">
       <c r="A84" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B84" s="119" t="s">
         <v>229</v>
@@ -9208,7 +9181,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B85" s="116" t="s">
         <v>227</v>
@@ -9222,7 +9195,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B86" s="116" t="s">
         <v>227</v>
@@ -9236,7 +9209,7 @@
     </row>
     <row r="87" spans="1:8" ht="17.25" thickBot="1">
       <c r="A87" s="118" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B87" s="119" t="s">
         <v>227</v>
@@ -9288,60 +9261,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="20.25">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="160" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="162" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="163"/>
+      <c r="H3" s="161" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -10949,10 +10922,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10962,39 +10935,39 @@
     <col min="3" max="3" width="35" style="80" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="81" customWidth="1"/>
     <col min="5" max="5" width="9" style="81"/>
-    <col min="6" max="6" width="24.125" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="51.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="164" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="164" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="166" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="167"/>
-      <c r="F1" s="165" t="s">
+      <c r="E1" s="166"/>
+      <c r="F1" s="164" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="67" t="s">
         <v>235</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="166"/>
+      <c r="F2" s="165"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="140" t="s">
@@ -11009,217 +10982,211 @@
       <c r="D3" s="141"/>
       <c r="E3" s="141"/>
       <c r="F3" s="142" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="158"/>
-      <c r="B4" s="147" t="s">
+      <c r="A4" s="167"/>
+      <c r="B4" s="143" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="146" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="147" t="s">
         <v>420</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149" t="s">
+      <c r="C5" s="147" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A5" s="71" t="s">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A6" s="71" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="71" t="s">
+      <c r="B6" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C6" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68" t="s">
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68" t="s">
         <v>243</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69" t="s">
+      <c r="C7" s="68"/>
+      <c r="D7" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E7" s="69" t="s">
         <v>245</v>
       </c>
-      <c r="F6" s="70"/>
-    </row>
-    <row r="7" spans="1:6" ht="79.5" customHeight="1">
-      <c r="A7" s="68"/>
-      <c r="B7" s="140" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141" t="s">
-        <v>422</v>
-      </c>
-      <c r="F7" s="157" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="74"/>
-      <c r="B8" s="144" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="144"/>
-      <c r="D8" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="E8" s="145" t="s">
-        <v>248</v>
-      </c>
-      <c r="F8" s="146" t="s">
-        <v>424</v>
+      <c r="F7" s="70"/>
+    </row>
+    <row r="8" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="140" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141" t="s">
+        <v>414</v>
+      </c>
+      <c r="F8" s="153" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="74"/>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" s="145" t="s">
-        <v>426</v>
-      </c>
-      <c r="F9" s="146" t="s">
-        <v>427</v>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="145" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="74"/>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="143" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="F10" s="145" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="75" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E11" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F11" s="16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="143"/>
-      <c r="B11" s="144" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145" t="s">
-        <v>416</v>
-      </c>
-      <c r="F11" s="146" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="154"/>
+      <c r="B12" s="150" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="150"/>
+      <c r="D12" s="151" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="152" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E12" s="72" t="s">
+      <c r="E13" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F13" s="73" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="68" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B14" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C14" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D14" s="69" t="s">
         <v>260</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E14" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F14" s="68" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickBot="1">
-      <c r="A14" s="71" t="s">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A15" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B15" s="71" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C15" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D15" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E15" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F15" s="71" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="150" t="s">
-        <v>264</v>
-      </c>
-      <c r="B15" s="151" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="79" t="s">
         <v>265</v>
-      </c>
-      <c r="C15" s="151" t="s">
-        <v>413</v>
-      </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="159"/>
-      <c r="B16" s="154" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155" t="s">
-        <v>412</v>
-      </c>
-      <c r="E16" s="155" t="s">
-        <v>414</v>
-      </c>
-      <c r="F16" s="156"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="79" t="s">
-        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -11262,76 +11229,76 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
       <c r="A1" s="90" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D1" s="91" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E1" s="91" t="s">
         <v>96</v>
       </c>
       <c r="F1" s="91" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:7" thickTop="1">
       <c r="A2" s="89" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="89" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2" s="89"/>
       <c r="F2" s="89" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:7" thickBot="1">
-      <c r="A3" s="168" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="168" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" s="168" t="s">
+      <c r="A3" s="155" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="B3" s="155" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168" t="s">
+      <c r="C3" s="155" t="s">
         <v>290</v>
       </c>
-      <c r="G3" s="168"/>
+      <c r="D3" s="155" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="155"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D4" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E4" s="86" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F4" s="86" t="s">
         <v>78</v>
@@ -11342,13 +11309,13 @@
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D5" s="83" t="s">
         <v>155</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" s="83" t="s">
         <v>78</v>
@@ -11359,13 +11326,13 @@
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="88" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D6" s="88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E6" s="88" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F6" s="88" t="s">
         <v>78</v>
@@ -11375,13 +11342,13 @@
     <row r="7" spans="1:7" ht="13.5" thickTop="1">
       <c r="A7" s="86"/>
       <c r="B7" s="87" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>197</v>
@@ -11394,10 +11361,10 @@
     <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="83"/>
       <c r="B8" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D8" s="83" t="s">
         <v>194</v>
@@ -11413,14 +11380,14 @@
     <row r="9" spans="1:7" ht="12.75">
       <c r="A9" s="83"/>
       <c r="B9" s="85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F9" s="83" t="s">
         <v>78</v>
@@ -11431,11 +11398,11 @@
       <c r="A10" s="83"/>
       <c r="B10" s="84"/>
       <c r="C10" s="83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="83" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F10" s="83" t="s">
         <v>78</v>
@@ -11445,16 +11412,16 @@
     <row r="11" spans="1:7" ht="12.75">
       <c r="A11" s="83"/>
       <c r="B11" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E11" s="83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F11" s="83" t="s">
         <v>78</v>
@@ -11464,16 +11431,16 @@
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="83"/>
       <c r="B12" s="84" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E12" s="83" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F12" s="83" t="s">
         <v>78</v>
@@ -11484,11 +11451,11 @@
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="83"/>
@@ -11521,50 +11488,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="171" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="171" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="171" t="s">
+      <c r="A1" s="158" t="s">
         <v>312</v>
       </c>
+      <c r="B1" s="158" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="169" t="s">
-        <v>311</v>
-      </c>
-      <c r="B2" s="170"/>
-      <c r="C2" s="169" t="s">
+      <c r="A2" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="156" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="92" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="92" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3" s="93"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="92" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C4" s="93"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="92" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="93"/>
       <c r="C5" s="92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/기능별 분류맵(안).xlsx
+++ b/기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27975" windowHeight="13170" tabRatio="811" activeTab="6"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="24570" windowHeight="10815" tabRatio="811" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="관리기준2018" sheetId="5" r:id="rId5"/>
     <sheet name="철등록부2018" sheetId="6" r:id="rId6"/>
     <sheet name="식별번호" sheetId="8" r:id="rId7"/>
-    <sheet name="분류기준 및 보존기간" sheetId="9" r:id="rId8"/>
-    <sheet name="용어비교" sheetId="10" r:id="rId9"/>
+    <sheet name="식별번호_이상민" sheetId="12" r:id="rId8"/>
+    <sheet name="분류기준 및 보존기간" sheetId="9" r:id="rId9"/>
+    <sheet name="용어비교" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">철등록부2017!$A$4:$N$4</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="465">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1657,12 +1659,167 @@
 C: 도민참여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A320026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무기호(1)+기록물철번호(2)+일려번호(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록물번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권호수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝 두자리 수를 기록물철번호로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자문서결재시스템에 등록된 기록물철의 일련번호(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록물철등록연번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기록물철이 생성된 연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생산연도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무기호
+char e0001435 = 'A'
+char e0001436 = 'B'
+char e0001437 = 'C'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e0001436</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자문서결재시스템에 등록된 단위업무의 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위업무코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자문서결재시스템에 등록된 처리과의 고유번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리과기관코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data 항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-A320026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시청각기록물기호−기록물번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-A320026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리과기관코드−기록물번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1431052-e0001436-2018-000021(001)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리과기관코드−단위업무코드−생산연도−기록물철등록연번(권호수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data 항목 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="30">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,8 +2042,24 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1922,8 +2095,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2287,6 +2466,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2303,7 +2526,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2731,6 +2954,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,8 +2981,77 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4160,6 +4455,92 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="21.125" style="82" customWidth="1"/>
+    <col min="2" max="2" width="17" style="82" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="82" customWidth="1"/>
+    <col min="4" max="16384" width="12.625" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A1" s="158" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="158" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" s="158" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A2" s="156" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="157"/>
+      <c r="C2" s="156" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A3" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="93"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="93"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="92" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="92" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -5276,60 +5657,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
     </row>
     <row r="2" spans="1:14" s="60" customFormat="1" ht="20.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="161" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
     </row>
     <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="161" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -9261,60 +9642,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="17" customFormat="1" ht="20.25">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="160" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="159"/>
-      <c r="M1" s="159"/>
-      <c r="N1" s="159"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="161" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="160"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="161" t="s">
+      <c r="A3" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="161" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="163"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="162"/>
-      <c r="J3" s="162"/>
-      <c r="K3" s="162"/>
-      <c r="L3" s="162"/>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
+      <c r="I3" s="163"/>
+      <c r="J3" s="163"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="163"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="164"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -10925,7 +11306,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10940,34 +11321,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="165" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="165" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="165" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="166" t="s">
+      <c r="D1" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="166"/>
-      <c r="F1" s="164" t="s">
+      <c r="E1" s="167"/>
+      <c r="F1" s="165" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="165"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
+      <c r="A2" s="166"/>
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
       <c r="D2" s="67" t="s">
         <v>235</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="165"/>
+      <c r="F2" s="166"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="140" t="s">
@@ -10986,7 +11367,7 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="167"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="143" t="s">
         <v>412</v>
       </c>
@@ -11203,6 +11584,259 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="11" style="170" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="170" customWidth="1"/>
+    <col min="4" max="4" width="59" customWidth="1"/>
+    <col min="5" max="5" width="35.5" style="169" customWidth="1"/>
+    <col min="7" max="7" width="9" style="168"/>
+    <col min="8" max="8" width="36.5" style="168" customWidth="1"/>
+    <col min="15" max="20" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="D3" s="191"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="182" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" s="182"/>
+      <c r="D4" s="180" t="s">
+        <v>463</v>
+      </c>
+      <c r="E4" s="181" t="s">
+        <v>450</v>
+      </c>
+      <c r="F4" s="180" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" s="180" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="180" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="190" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="189"/>
+      <c r="D5" s="186" t="s">
+        <v>462</v>
+      </c>
+      <c r="E5" s="172" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="172" t="s">
+        <v>453</v>
+      </c>
+      <c r="G5" s="172" t="s">
+        <v>460</v>
+      </c>
+      <c r="H5" s="174"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="188" t="s">
+        <v>459</v>
+      </c>
+      <c r="C6" s="187"/>
+      <c r="D6" s="186" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="172" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" s="172" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="172" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6" s="174"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="185"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="183" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" s="177" t="s">
+        <v>454</v>
+      </c>
+      <c r="F7" s="172" t="s">
+        <v>453</v>
+      </c>
+      <c r="G7" s="174">
+        <v>7</v>
+      </c>
+      <c r="H7" s="174"/>
+    </row>
+    <row r="11" spans="2:8" outlineLevel="1">
+      <c r="B11" s="182" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="182"/>
+      <c r="D11" s="180" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="181" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="180" t="s">
+        <v>449</v>
+      </c>
+      <c r="G11" s="180" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="180" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" outlineLevel="1">
+      <c r="B12" s="173" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="173"/>
+      <c r="D12" s="159" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" s="176">
+        <v>1431052</v>
+      </c>
+      <c r="F12" s="176" t="s">
+        <v>432</v>
+      </c>
+      <c r="G12" s="177" t="s">
+        <v>251</v>
+      </c>
+      <c r="H12" s="174"/>
+    </row>
+    <row r="13" spans="2:8" ht="66" outlineLevel="1">
+      <c r="B13" s="173" t="s">
+        <v>444</v>
+      </c>
+      <c r="C13" s="173"/>
+      <c r="D13" s="159" t="s">
+        <v>443</v>
+      </c>
+      <c r="E13" s="177" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="176" t="s">
+        <v>428</v>
+      </c>
+      <c r="G13" s="174">
+        <v>8</v>
+      </c>
+      <c r="H13" s="179" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" outlineLevel="1">
+      <c r="B14" s="173" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="173"/>
+      <c r="D14" s="159" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="177">
+        <v>2018</v>
+      </c>
+      <c r="F14" s="176" t="s">
+        <v>428</v>
+      </c>
+      <c r="G14" s="174">
+        <v>4</v>
+      </c>
+      <c r="H14" s="174"/>
+    </row>
+    <row r="15" spans="2:8" outlineLevel="1">
+      <c r="B15" s="173" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="173"/>
+      <c r="D15" s="159" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="177" t="s">
+        <v>436</v>
+      </c>
+      <c r="F15" s="176" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" s="174">
+        <v>6</v>
+      </c>
+      <c r="H15" s="74" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" outlineLevel="1">
+      <c r="B16" s="173" t="s">
+        <v>434</v>
+      </c>
+      <c r="C16" s="173"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="177" t="s">
+        <v>433</v>
+      </c>
+      <c r="F16" s="176" t="s">
+        <v>428</v>
+      </c>
+      <c r="G16" s="175">
+        <v>3</v>
+      </c>
+      <c r="H16" s="174"/>
+    </row>
+    <row r="17" spans="2:8" outlineLevel="1">
+      <c r="B17" s="173" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="173"/>
+      <c r="D17" s="159" t="s">
+        <v>430</v>
+      </c>
+      <c r="E17" s="172" t="s">
+        <v>429</v>
+      </c>
+      <c r="F17" s="172" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="172" t="s">
+        <v>427</v>
+      </c>
+      <c r="H17" s="171"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B6:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -11465,77 +12099,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="21.125" style="82" customWidth="1"/>
-    <col min="2" max="2" width="17" style="82" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="82" customWidth="1"/>
-    <col min="4" max="16384" width="12.625" style="82"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="158" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="158" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="158" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A2" s="156" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="156" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A3" s="92" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="93"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A4" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="92" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="93"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A5" s="92" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="92" t="s">
-        <v>304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/기능별 분류맵(안).xlsx
+++ b/기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="24570" windowHeight="10815" tabRatio="811" activeTab="6"/>
+    <workbookView xWindow="540" yWindow="312" windowWidth="23256" windowHeight="10812" tabRatio="811" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="466">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,23 +1814,26 @@
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>사업 운영 및 관리</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1844,7 +1847,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1852,7 +1855,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -1860,7 +1863,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1869,7 +1872,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1894,7 +1897,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1903,7 +1906,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1911,7 +1914,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1920,7 +1923,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1928,7 +1931,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1937,7 +1940,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1945,7 +1948,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1953,7 +1956,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1961,7 +1964,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2005,14 +2008,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -2020,7 +2023,7 @@
     <font>
       <strike/>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -2028,7 +2031,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -2037,7 +2040,7 @@
       <strike/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Cambria"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -2046,7 +2049,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -2957,6 +2960,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2981,77 +3032,29 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3155,6 +3158,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3189,6 +3193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3364,7 +3369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3376,15 +3381,15 @@
       <selection pane="bottomLeft" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="17.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="5" customWidth="1"/>
     <col min="6" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="27.375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3411,7 +3416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" thickTop="1">
+    <row r="2" spans="1:13" ht="14.4" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3499,7 +3504,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -3580,7 +3585,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3685,7 +3690,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="14.4" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -3736,7 +3741,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="14.4" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -3852,7 +3857,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="14.4" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -3889,7 +3894,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="28" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>11</v>
       </c>
@@ -3924,7 +3929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="14.4" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>11</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -4043,7 +4048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="37" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4085,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A39" s="7" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4137,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="42" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +4222,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -4288,7 +4293,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="51" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A51" s="7" t="s">
         <v>0</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="54" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="57" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A57" s="7" t="s">
         <v>0</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
+    <row r="59" spans="1:6" s="7" customFormat="1" ht="14.4" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>0</v>
       </c>
@@ -4456,7 +4461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4467,12 +4472,12 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="82" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="82" customWidth="1"/>
     <col min="2" max="2" width="17" style="82" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="82" customWidth="1"/>
-    <col min="4" max="16384" width="12.625" style="82"/>
+    <col min="3" max="3" width="16.33203125" style="82" customWidth="1"/>
+    <col min="4" max="16384" width="12.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.75" customHeight="1" thickBot="1">
@@ -4529,12 +4534,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4542,26 +4547,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="38.25" style="94" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" style="94" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="28.75" style="99" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" style="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="111" customFormat="1" ht="36" customHeight="1" thickBot="1">
@@ -4590,7 +4595,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.25" thickTop="1">
+    <row r="2" spans="1:8" ht="55.8" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -4598,7 +4603,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D2" s="106" t="s">
         <v>341</v>
@@ -4612,7 +4617,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="54">
+    <row r="3" spans="1:8" ht="52.8">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4634,7 +4639,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="37.5">
+    <row r="4" spans="1:8" ht="54">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4654,7 +4659,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5">
+    <row r="5" spans="1:8" ht="55.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +4679,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="41.25" thickBot="1">
+    <row r="6" spans="1:8" ht="55.8" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -4694,7 +4699,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5">
+    <row r="7" spans="1:8" ht="55.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -4702,7 +4707,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D7" s="106" t="s">
         <v>341</v>
@@ -4752,7 +4757,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="27.75" thickBot="1">
+    <row r="10" spans="1:8" ht="28.2" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -4770,7 +4775,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="40.5">
+    <row r="11" spans="1:8" ht="55.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -4778,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D11" s="106" t="s">
         <v>341</v>
@@ -4810,7 +4815,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="40.5">
+    <row r="13" spans="1:8" ht="41.4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -4864,7 +4869,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+    <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -4878,7 +4883,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="40.5">
+    <row r="17" spans="1:8" ht="55.2">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -4886,7 +4891,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D17" s="106" t="s">
         <v>341</v>
@@ -4916,7 +4921,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -4932,7 +4937,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="40.5">
+    <row r="20" spans="1:8" ht="55.2">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -4940,7 +4945,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D20" s="106" t="s">
         <v>341</v>
@@ -5028,7 +5033,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1">
+    <row r="26" spans="1:8" ht="15" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -5044,7 +5049,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="40.5">
+    <row r="27" spans="1:8" ht="55.2">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -5052,7 +5057,7 @@
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D27" s="106" t="s">
         <v>341</v>
@@ -5066,7 +5071,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>1</v>
       </c>
@@ -5080,7 +5085,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="40.5">
+    <row r="29" spans="1:8" ht="55.2">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -5088,7 +5093,7 @@
         <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D29" s="106" t="s">
         <v>341</v>
@@ -5102,7 +5107,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1">
+    <row r="30" spans="1:8" ht="15" thickBot="1">
       <c r="A30" s="7" t="s">
         <v>1</v>
       </c>
@@ -5116,7 +5121,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="40.5">
+    <row r="31" spans="1:8" ht="55.2">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -5124,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D31" s="106" t="s">
         <v>341</v>
@@ -5154,7 +5159,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+    <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
@@ -5170,7 +5175,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="40.5">
+    <row r="34" spans="1:8" ht="55.2">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>42</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D34" s="106" t="s">
         <v>341</v>
@@ -5221,7 +5226,7 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1">
+    <row r="37" spans="1:8" ht="15" thickBot="1">
       <c r="A37" s="7" t="s">
         <v>26</v>
       </c>
@@ -5237,7 +5242,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="40.5">
+    <row r="38" spans="1:8" ht="55.2">
       <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
@@ -5245,7 +5250,7 @@
         <v>46</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D38" s="106" t="s">
         <v>341</v>
@@ -5259,7 +5264,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" thickBot="1">
+    <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="7" t="s">
         <v>26</v>
       </c>
@@ -5273,7 +5278,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="40.5">
+    <row r="40" spans="1:8" ht="55.2">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -5281,7 +5286,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D40" s="106" t="s">
         <v>341</v>
@@ -5311,7 +5316,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1">
+    <row r="42" spans="1:8" ht="15" thickBot="1">
       <c r="A42" s="7" t="s">
         <v>26</v>
       </c>
@@ -5327,7 +5332,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="40.5">
+    <row r="43" spans="1:8" ht="55.2">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D43" s="106" t="s">
         <v>341</v>
@@ -5394,7 +5399,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" ht="17.25" thickBot="1">
+    <row r="47" spans="1:8" ht="15" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>26</v>
       </c>
@@ -5410,7 +5415,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="40.5">
+    <row r="48" spans="1:8" ht="55.2">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D48" s="106" t="s">
         <v>341</v>
@@ -5464,7 +5469,7 @@
       <c r="G50" s="14"/>
       <c r="H50" s="14"/>
     </row>
-    <row r="51" spans="1:8" ht="17.25" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1">
       <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
@@ -5480,7 +5485,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="40.5">
+    <row r="52" spans="1:8" ht="55.2">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
@@ -5488,7 +5493,7 @@
         <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D52" s="106" t="s">
         <v>341</v>
@@ -5518,7 +5523,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
     </row>
-    <row r="54" spans="1:8" ht="17.25" thickBot="1">
+    <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="7" t="s">
         <v>26</v>
       </c>
@@ -5532,7 +5537,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="40.5">
+    <row r="55" spans="1:8" ht="55.2">
       <c r="A55" s="2" t="s">
         <v>26</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>62</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D55" s="106" t="s">
         <v>341</v>
@@ -5570,7 +5575,7 @@
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
     </row>
-    <row r="57" spans="1:8" ht="17.25" thickBot="1">
+    <row r="57" spans="1:8" ht="15" thickBot="1">
       <c r="A57" s="7" t="s">
         <v>26</v>
       </c>
@@ -5586,7 +5591,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="40.5">
+    <row r="58" spans="1:8" ht="55.2">
       <c r="A58" s="2" t="s">
         <v>26</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="D58" s="106" t="s">
         <v>341</v>
@@ -5608,7 +5613,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="17.25" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>26</v>
       </c>
@@ -5632,87 +5637,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="59" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" style="59" customWidth="1"/>
     <col min="2" max="2" width="18" style="59" customWidth="1"/>
     <col min="3" max="3" width="9" style="59"/>
-    <col min="4" max="4" width="16.125" style="59" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="59" customWidth="1"/>
+    <col min="5" max="5" width="35.21875" style="59" customWidth="1"/>
     <col min="6" max="9" width="9" style="59"/>
-    <col min="10" max="10" width="14.5" style="59" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="59" customWidth="1"/>
     <col min="11" max="11" width="9" style="59"/>
-    <col min="12" max="12" width="11.375" style="59" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="59" customWidth="1"/>
     <col min="13" max="16384" width="9" style="59"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="176" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
-    </row>
-    <row r="2" spans="1:14" s="60" customFormat="1" ht="20.25">
-      <c r="A2" s="161" t="s">
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+    </row>
+    <row r="2" spans="1:14" s="60" customFormat="1" ht="18">
+      <c r="A2" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="162" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.6">
+      <c r="A3" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="162" t="s">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="180"/>
+    </row>
+    <row r="4" spans="1:14" ht="24.6" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>88</v>
       </c>
@@ -5756,7 +5761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickTop="1">
+    <row r="5" spans="1:14" ht="15" thickTop="1">
       <c r="A5" s="22" t="s">
         <v>102</v>
       </c>
@@ -6060,7 +6065,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" ht="24">
       <c r="A13" s="25" t="s">
         <v>102</v>
       </c>
@@ -6364,7 +6369,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="62" customFormat="1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:14" s="62" customFormat="1" ht="15" thickBot="1">
       <c r="A21" s="31" t="s">
         <v>152</v>
       </c>
@@ -6838,7 +6843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -6848,14 +6853,14 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="108" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
@@ -6881,7 +6886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1">
+    <row r="2" spans="1:7" ht="15" thickTop="1">
       <c r="A2" s="115" t="s">
         <v>191</v>
       </c>
@@ -6930,7 +6935,7 @@
       <c r="F4" s="117"/>
       <c r="G4" s="117"/>
     </row>
-    <row r="5" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="5" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A5" s="118" t="s">
         <v>191</v>
       </c>
@@ -7015,7 +7020,7 @@
       <c r="F9" s="117"/>
       <c r="G9" s="117"/>
     </row>
-    <row r="10" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="10" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A10" s="130" t="s">
         <v>191</v>
       </c>
@@ -7066,7 +7071,7 @@
       <c r="F12" s="117"/>
       <c r="G12" s="117"/>
     </row>
-    <row r="13" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="13" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A13" s="118" t="s">
         <v>191</v>
       </c>
@@ -7113,7 +7118,7 @@
       <c r="F15" s="117"/>
       <c r="G15" s="117"/>
     </row>
-    <row r="16" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="16" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A16" s="133" t="s">
         <v>191</v>
       </c>
@@ -7160,7 +7165,7 @@
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="19" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A19" s="118" t="s">
         <v>191</v>
       </c>
@@ -7252,7 +7257,7 @@
       <c r="F24" s="117"/>
       <c r="G24" s="117"/>
     </row>
-    <row r="25" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="25" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A25" s="118" t="s">
         <v>191</v>
       </c>
@@ -7297,7 +7302,7 @@
       <c r="F27" s="117"/>
       <c r="G27" s="117"/>
     </row>
-    <row r="28" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="28" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A28" s="118" t="s">
         <v>191</v>
       </c>
@@ -7378,7 +7383,7 @@
       <c r="F32" s="117"/>
       <c r="G32" s="117"/>
     </row>
-    <row r="33" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="33" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A33" s="118" t="s">
         <v>191</v>
       </c>
@@ -7427,7 +7432,7 @@
       <c r="F35" s="117"/>
       <c r="G35" s="117"/>
     </row>
-    <row r="36" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="36" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A36" s="118" t="s">
         <v>191</v>
       </c>
@@ -7476,7 +7481,7 @@
       <c r="F38" s="117"/>
       <c r="G38" s="117"/>
     </row>
-    <row r="39" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="39" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A39" s="118" t="s">
         <v>191</v>
       </c>
@@ -7538,7 +7543,7 @@
       <c r="F42" s="117"/>
       <c r="G42" s="117"/>
     </row>
-    <row r="43" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="43" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A43" s="118" t="s">
         <v>191</v>
       </c>
@@ -7587,7 +7592,7 @@
       <c r="F45" s="117"/>
       <c r="G45" s="117"/>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="46" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="118" t="s">
         <v>191</v>
       </c>
@@ -7619,7 +7624,7 @@
       <c r="F47" s="117"/>
       <c r="G47" s="117"/>
     </row>
-    <row r="48" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="48" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A48" s="118" t="s">
         <v>191</v>
       </c>
@@ -7668,7 +7673,7 @@
       <c r="F50" s="117"/>
       <c r="G50" s="117"/>
     </row>
-    <row r="51" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="51" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A51" s="118" t="s">
         <v>191</v>
       </c>
@@ -7715,7 +7720,7 @@
       <c r="F53" s="117"/>
       <c r="G53" s="117"/>
     </row>
-    <row r="54" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="54" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A54" s="118" t="s">
         <v>191</v>
       </c>
@@ -7749,7 +7754,7 @@
       <c r="F55" s="117"/>
       <c r="G55" s="117"/>
     </row>
-    <row r="56" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="56" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A56" s="118" t="s">
         <v>191</v>
       </c>
@@ -7800,7 +7805,7 @@
       <c r="F58" s="117"/>
       <c r="G58" s="117"/>
     </row>
-    <row r="59" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="59" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A59" s="118" t="s">
         <v>191</v>
       </c>
@@ -7817,7 +7822,7 @@
       <c r="F59" s="129"/>
       <c r="G59" s="129"/>
     </row>
-    <row r="60" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="60" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A60" s="137" t="s">
         <v>191</v>
       </c>
@@ -7834,7 +7839,7 @@
       <c r="F60" s="129"/>
       <c r="G60" s="129"/>
     </row>
-    <row r="61" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="61" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A61" s="137" t="s">
         <v>191</v>
       </c>
@@ -7911,7 +7916,7 @@
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
     </row>
-    <row r="66" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="66" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A66" s="118" t="s">
         <v>191</v>
       </c>
@@ -7956,7 +7961,7 @@
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
     </row>
-    <row r="69" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="69" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A69" s="118" t="s">
         <v>191</v>
       </c>
@@ -8054,7 +8059,7 @@
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
     </row>
-    <row r="75" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="75" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A75" s="118" t="s">
         <v>191</v>
       </c>
@@ -8120,7 +8125,7 @@
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
     </row>
-    <row r="79" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="79" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A79" s="118" t="s">
         <v>191</v>
       </c>
@@ -8195,7 +8200,7 @@
       <c r="F83" s="117"/>
       <c r="G83" s="117"/>
     </row>
-    <row r="84" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="84" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A84" s="118" t="s">
         <v>191</v>
       </c>
@@ -8240,7 +8245,7 @@
       <c r="F86" s="117"/>
       <c r="G86" s="117"/>
     </row>
-    <row r="87" spans="1:7" s="107" customFormat="1" ht="17.25" thickBot="1">
+    <row r="87" spans="1:7" s="107" customFormat="1" ht="15" thickBot="1">
       <c r="A87" s="118" t="s">
         <v>191</v>
       </c>
@@ -8268,7 +8273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -8280,15 +8285,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="48.25" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="48.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="1:8" s="15" customFormat="1" ht="15.6" thickBot="1">
       <c r="A1" s="114" t="s">
         <v>7</v>
       </c>
@@ -8314,7 +8319,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1">
+    <row r="2" spans="1:8" ht="15" thickTop="1">
       <c r="A2" s="115" t="s">
         <v>287</v>
       </c>
@@ -8360,7 +8365,7 @@
       <c r="G4" s="120"/>
       <c r="H4" s="120"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1">
+    <row r="5" spans="1:8" ht="15" thickBot="1">
       <c r="A5" s="118" t="s">
         <v>287</v>
       </c>
@@ -8440,7 +8445,7 @@
       <c r="G9" s="123"/>
       <c r="H9" s="123"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="130" t="s">
         <v>287</v>
       </c>
@@ -8488,7 +8493,7 @@
       <c r="G12" s="120"/>
       <c r="H12" s="120"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1">
+    <row r="13" spans="1:8" ht="15" thickBot="1">
       <c r="A13" s="118" t="s">
         <v>287</v>
       </c>
@@ -8532,7 +8537,7 @@
       <c r="G15" s="126"/>
       <c r="H15" s="126"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1">
+    <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" s="133" t="s">
         <v>287</v>
       </c>
@@ -8576,7 +8581,7 @@
       <c r="G18" s="120"/>
       <c r="H18" s="120"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1">
+    <row r="19" spans="1:8" ht="15" thickBot="1">
       <c r="A19" s="118" t="s">
         <v>287</v>
       </c>
@@ -8662,7 +8667,7 @@
       <c r="G24" s="127"/>
       <c r="H24" s="127"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1">
+    <row r="25" spans="1:8" ht="15" thickBot="1">
       <c r="A25" s="118" t="s">
         <v>287</v>
       </c>
@@ -8704,7 +8709,7 @@
       <c r="G27" s="127"/>
       <c r="H27" s="127"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1">
+    <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="118" t="s">
         <v>287</v>
       </c>
@@ -8780,7 +8785,7 @@
       <c r="G32" s="120"/>
       <c r="H32" s="120"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1">
+    <row r="33" spans="1:8" ht="15" thickBot="1">
       <c r="A33" s="118" t="s">
         <v>284</v>
       </c>
@@ -8826,7 +8831,7 @@
       <c r="G35" s="120"/>
       <c r="H35" s="120"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+    <row r="36" spans="1:8" ht="15" thickBot="1">
       <c r="A36" s="118" t="s">
         <v>284</v>
       </c>
@@ -8872,7 +8877,7 @@
       <c r="G38" s="120"/>
       <c r="H38" s="120"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" thickBot="1">
+    <row r="39" spans="1:8" ht="15" thickBot="1">
       <c r="A39" s="118" t="s">
         <v>284</v>
       </c>
@@ -8930,7 +8935,7 @@
       <c r="G42" s="120"/>
       <c r="H42" s="120"/>
     </row>
-    <row r="43" spans="1:8" ht="17.25" thickBot="1">
+    <row r="43" spans="1:8" ht="15" thickBot="1">
       <c r="A43" s="118" t="s">
         <v>284</v>
       </c>
@@ -8976,7 +8981,7 @@
       <c r="G45" s="120"/>
       <c r="H45" s="120"/>
     </row>
-    <row r="46" spans="1:8" ht="17.25" thickBot="1">
+    <row r="46" spans="1:8" ht="15" thickBot="1">
       <c r="A46" s="118" t="s">
         <v>284</v>
       </c>
@@ -9006,7 +9011,7 @@
       <c r="G47" s="120"/>
       <c r="H47" s="120"/>
     </row>
-    <row r="48" spans="1:8" ht="17.25" thickBot="1">
+    <row r="48" spans="1:8" ht="15" thickBot="1">
       <c r="A48" s="118" t="s">
         <v>284</v>
       </c>
@@ -9052,7 +9057,7 @@
       <c r="G50" s="120"/>
       <c r="H50" s="120"/>
     </row>
-    <row r="51" spans="1:8" ht="17.25" thickBot="1">
+    <row r="51" spans="1:8" ht="15" thickBot="1">
       <c r="A51" s="118" t="s">
         <v>284</v>
       </c>
@@ -9096,7 +9101,7 @@
       <c r="G53" s="120"/>
       <c r="H53" s="120"/>
     </row>
-    <row r="54" spans="1:8" ht="17.25" thickBot="1">
+    <row r="54" spans="1:8" ht="15" thickBot="1">
       <c r="A54" s="118" t="s">
         <v>284</v>
       </c>
@@ -9128,7 +9133,7 @@
       <c r="G55" s="120"/>
       <c r="H55" s="120"/>
     </row>
-    <row r="56" spans="1:8" ht="17.25" thickBot="1">
+    <row r="56" spans="1:8" ht="15" thickBot="1">
       <c r="A56" s="118" t="s">
         <v>284</v>
       </c>
@@ -9176,7 +9181,7 @@
       <c r="G58" s="120"/>
       <c r="H58" s="120"/>
     </row>
-    <row r="59" spans="1:8" ht="17.25" thickBot="1">
+    <row r="59" spans="1:8" ht="15" thickBot="1">
       <c r="A59" s="118" t="s">
         <v>284</v>
       </c>
@@ -9192,7 +9197,7 @@
       <c r="G59" s="128"/>
       <c r="H59" s="128"/>
     </row>
-    <row r="60" spans="1:8" ht="17.25" thickBot="1">
+    <row r="60" spans="1:8" ht="15" thickBot="1">
       <c r="A60" s="137" t="s">
         <v>284</v>
       </c>
@@ -9208,7 +9213,7 @@
       <c r="G60" s="139"/>
       <c r="H60" s="139"/>
     </row>
-    <row r="61" spans="1:8" ht="17.25" thickBot="1">
+    <row r="61" spans="1:8" ht="15" thickBot="1">
       <c r="A61" s="137" t="s">
         <v>284</v>
       </c>
@@ -9280,7 +9285,7 @@
       <c r="G65" s="127"/>
       <c r="H65" s="127"/>
     </row>
-    <row r="66" spans="1:8" ht="17.25" thickBot="1">
+    <row r="66" spans="1:8" ht="15" thickBot="1">
       <c r="A66" s="118" t="s">
         <v>364</v>
       </c>
@@ -9322,7 +9327,7 @@
       <c r="G68" s="127"/>
       <c r="H68" s="127"/>
     </row>
-    <row r="69" spans="1:8" ht="17.25" thickBot="1">
+    <row r="69" spans="1:8" ht="15" thickBot="1">
       <c r="A69" s="118" t="s">
         <v>364</v>
       </c>
@@ -9414,7 +9419,7 @@
       <c r="G74" s="120"/>
       <c r="H74" s="120"/>
     </row>
-    <row r="75" spans="1:8" ht="17.25" thickBot="1">
+    <row r="75" spans="1:8" ht="15" thickBot="1">
       <c r="A75" s="118" t="s">
         <v>364</v>
       </c>
@@ -9476,7 +9481,7 @@
       <c r="G78" s="120"/>
       <c r="H78" s="120"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" thickBot="1">
+    <row r="79" spans="1:8" ht="15" thickBot="1">
       <c r="A79" s="118" t="s">
         <v>364</v>
       </c>
@@ -9546,7 +9551,7 @@
       <c r="G83" s="127"/>
       <c r="H83" s="127"/>
     </row>
-    <row r="84" spans="1:8" ht="17.25" thickBot="1">
+    <row r="84" spans="1:8" ht="15" thickBot="1">
       <c r="A84" s="118" t="s">
         <v>364</v>
       </c>
@@ -9588,7 +9593,7 @@
       <c r="G86" s="127"/>
       <c r="H86" s="127"/>
     </row>
-    <row r="87" spans="1:8" ht="17.25" thickBot="1">
+    <row r="87" spans="1:8" ht="15" thickBot="1">
       <c r="A87" s="118" t="s">
         <v>364</v>
       </c>
@@ -9614,7 +9619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -9624,80 +9629,80 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="19" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="19" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="19" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="19" customWidth="1"/>
     <col min="7" max="7" width="9" style="19"/>
-    <col min="8" max="9" width="7.5" style="19" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="19" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="19" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="19" customWidth="1"/>
+    <col min="8" max="9" width="7.44140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" style="19" customWidth="1"/>
     <col min="14" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="20.25">
-      <c r="A1" s="160" t="s">
+    <row r="1" spans="1:14" s="17" customFormat="1" ht="18">
+      <c r="A1" s="176" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="160"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="176"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="177" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="178" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="162" t="s">
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="178" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="164"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1">
+      <c r="I3" s="179"/>
+      <c r="J3" s="179"/>
+      <c r="K3" s="179"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="179"/>
+      <c r="N3" s="180"/>
+    </row>
+    <row r="4" spans="1:14" ht="24.6" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>88</v>
       </c>
@@ -9741,7 +9746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickTop="1">
+    <row r="5" spans="1:14" ht="15" thickTop="1">
       <c r="A5" s="22" t="s">
         <v>102</v>
       </c>
@@ -10159,7 +10164,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1">
+    <row r="16" spans="1:14" ht="15" thickBot="1">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1">
+    <row r="22" spans="1:14" ht="15" thickBot="1">
       <c r="A22" s="28" t="s">
         <v>134</v>
       </c>
@@ -10623,7 +10628,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1">
+    <row r="28" spans="1:14" ht="15" thickBot="1">
       <c r="A28" s="31" t="s">
         <v>152</v>
       </c>
@@ -10663,7 +10668,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" ht="24">
       <c r="A29" s="33" t="s">
         <v>167</v>
       </c>
@@ -10703,7 +10708,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" ht="24">
       <c r="A30" s="38" t="s">
         <v>167</v>
       </c>
@@ -10743,7 +10748,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" ht="24">
       <c r="A31" s="38" t="s">
         <v>167</v>
       </c>
@@ -10783,7 +10788,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" ht="24">
       <c r="A32" s="38" t="s">
         <v>167</v>
       </c>
@@ -10823,7 +10828,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17.25" thickBot="1">
+    <row r="33" spans="1:14" ht="15" thickBot="1">
       <c r="A33" s="44" t="s">
         <v>179</v>
       </c>
@@ -11299,58 +11304,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="80" customWidth="1"/>
-    <col min="2" max="2" width="65.125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="65.109375" style="80" customWidth="1"/>
     <col min="3" max="3" width="35" style="80" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="81" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="81" customWidth="1"/>
     <col min="5" max="5" width="9" style="81"/>
-    <col min="6" max="6" width="25.5" customWidth="1"/>
-    <col min="12" max="12" width="51.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="165" t="s">
+    <row r="1" spans="1:6" ht="15.6">
+      <c r="A1" s="181" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="165" t="s">
+      <c r="B1" s="181" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="181" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="183" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="167"/>
-      <c r="F1" s="165" t="s">
+      <c r="E1" s="183"/>
+      <c r="F1" s="181" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1">
+      <c r="A2" s="182"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
       <c r="D2" s="67" t="s">
         <v>235</v>
       </c>
       <c r="E2" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="166"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickTop="1">
+      <c r="F2" s="182"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickTop="1">
       <c r="A3" s="140" t="s">
         <v>237</v>
       </c>
@@ -11396,7 +11401,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+    <row r="6" spans="1:6" ht="15" thickBot="1">
       <c r="A6" s="71" t="s">
         <v>240</v>
       </c>
@@ -11504,7 +11509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="71"/>
       <c r="B13" s="71" t="s">
         <v>253</v>
@@ -11540,7 +11545,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1">
+    <row r="15" spans="1:6" ht="15" thickBot="1">
       <c r="A15" s="71" t="s">
         <v>263</v>
       </c>
@@ -11584,198 +11589,198 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="11" style="170" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="170" customWidth="1"/>
+    <col min="2" max="2" width="11" style="162" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="162" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="35.5" style="169" customWidth="1"/>
-    <col min="7" max="7" width="9" style="168"/>
-    <col min="8" max="8" width="36.5" style="168" customWidth="1"/>
-    <col min="15" max="20" width="26.25" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="161" customWidth="1"/>
+    <col min="7" max="7" width="9" style="160"/>
+    <col min="8" max="8" width="36.44140625" style="160" customWidth="1"/>
+    <col min="15" max="20" width="26.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="D3" s="191"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="182" t="s">
+      <c r="B4" s="185" t="s">
         <v>464</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="180" t="s">
+      <c r="C4" s="185"/>
+      <c r="D4" s="171" t="s">
         <v>463</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="172" t="s">
         <v>450</v>
       </c>
-      <c r="F4" s="180" t="s">
+      <c r="F4" s="171" t="s">
         <v>449</v>
       </c>
-      <c r="G4" s="180" t="s">
+      <c r="G4" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="H4" s="180" t="s">
+      <c r="H4" s="171" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="186" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="186" t="s">
+      <c r="C5" s="187"/>
+      <c r="D5" s="174" t="s">
         <v>462</v>
       </c>
-      <c r="E5" s="172" t="s">
+      <c r="E5" s="164" t="s">
         <v>461</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="164" t="s">
         <v>453</v>
       </c>
-      <c r="G5" s="172" t="s">
+      <c r="G5" s="164" t="s">
         <v>460</v>
       </c>
-      <c r="H5" s="174"/>
+      <c r="H5" s="165"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="188" t="s">
         <v>459</v>
       </c>
-      <c r="C6" s="187"/>
-      <c r="D6" s="186" t="s">
+      <c r="C6" s="189"/>
+      <c r="D6" s="174" t="s">
         <v>458</v>
       </c>
-      <c r="E6" s="172" t="s">
+      <c r="E6" s="164" t="s">
         <v>457</v>
       </c>
-      <c r="F6" s="172" t="s">
+      <c r="F6" s="164" t="s">
         <v>453</v>
       </c>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="164" t="s">
         <v>456</v>
       </c>
-      <c r="H6" s="174"/>
+      <c r="H6" s="165"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="185"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="183" t="s">
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="173" t="s">
         <v>455</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="168" t="s">
         <v>454</v>
       </c>
-      <c r="F7" s="172" t="s">
+      <c r="F7" s="164" t="s">
         <v>453</v>
       </c>
-      <c r="G7" s="174">
+      <c r="G7" s="165">
         <v>7</v>
       </c>
-      <c r="H7" s="174"/>
+      <c r="H7" s="165"/>
     </row>
     <row r="11" spans="2:8" outlineLevel="1">
-      <c r="B11" s="182" t="s">
+      <c r="B11" s="185" t="s">
         <v>452</v>
       </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="180" t="s">
+      <c r="C11" s="185"/>
+      <c r="D11" s="171" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="181" t="s">
+      <c r="E11" s="172" t="s">
         <v>450</v>
       </c>
-      <c r="F11" s="180" t="s">
+      <c r="F11" s="171" t="s">
         <v>449</v>
       </c>
-      <c r="G11" s="180" t="s">
+      <c r="G11" s="171" t="s">
         <v>448</v>
       </c>
-      <c r="H11" s="180" t="s">
+      <c r="H11" s="171" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="12" spans="2:8" outlineLevel="1">
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="184" t="s">
         <v>446</v>
       </c>
-      <c r="C12" s="173"/>
+      <c r="C12" s="184"/>
       <c r="D12" s="159" t="s">
         <v>445</v>
       </c>
-      <c r="E12" s="176">
+      <c r="E12" s="167">
         <v>1431052</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="167" t="s">
         <v>432</v>
       </c>
-      <c r="G12" s="177" t="s">
+      <c r="G12" s="168" t="s">
         <v>251</v>
       </c>
-      <c r="H12" s="174"/>
-    </row>
-    <row r="13" spans="2:8" ht="66" outlineLevel="1">
-      <c r="B13" s="173" t="s">
+      <c r="H12" s="165"/>
+    </row>
+    <row r="13" spans="2:8" ht="57.6" outlineLevel="1">
+      <c r="B13" s="184" t="s">
         <v>444</v>
       </c>
-      <c r="C13" s="173"/>
+      <c r="C13" s="184"/>
       <c r="D13" s="159" t="s">
         <v>443</v>
       </c>
-      <c r="E13" s="177" t="s">
+      <c r="E13" s="168" t="s">
         <v>442</v>
       </c>
-      <c r="F13" s="176" t="s">
+      <c r="F13" s="167" t="s">
         <v>428</v>
       </c>
-      <c r="G13" s="174">
+      <c r="G13" s="165">
         <v>8</v>
       </c>
-      <c r="H13" s="179" t="s">
+      <c r="H13" s="170" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="14" spans="2:8" outlineLevel="1">
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="184" t="s">
         <v>440</v>
       </c>
-      <c r="C14" s="173"/>
+      <c r="C14" s="184"/>
       <c r="D14" s="159" t="s">
         <v>439</v>
       </c>
-      <c r="E14" s="177">
+      <c r="E14" s="168">
         <v>2018</v>
       </c>
-      <c r="F14" s="176" t="s">
+      <c r="F14" s="167" t="s">
         <v>428</v>
       </c>
-      <c r="G14" s="174">
+      <c r="G14" s="165">
         <v>4</v>
       </c>
-      <c r="H14" s="174"/>
+      <c r="H14" s="165"/>
     </row>
     <row r="15" spans="2:8" outlineLevel="1">
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="184" t="s">
         <v>438</v>
       </c>
-      <c r="C15" s="173"/>
+      <c r="C15" s="184"/>
       <c r="D15" s="159" t="s">
         <v>437</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="168" t="s">
         <v>436</v>
       </c>
-      <c r="F15" s="176" t="s">
+      <c r="F15" s="167" t="s">
         <v>428</v>
       </c>
-      <c r="G15" s="174">
+      <c r="G15" s="165">
         <v>6</v>
       </c>
       <c r="H15" s="74" t="s">
@@ -11783,40 +11788,40 @@
       </c>
     </row>
     <row r="16" spans="2:8" outlineLevel="1">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="184" t="s">
         <v>434</v>
       </c>
-      <c r="C16" s="173"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="177" t="s">
+      <c r="C16" s="184"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="168" t="s">
         <v>433</v>
       </c>
-      <c r="F16" s="176" t="s">
+      <c r="F16" s="167" t="s">
         <v>428</v>
       </c>
-      <c r="G16" s="175">
+      <c r="G16" s="166">
         <v>3</v>
       </c>
-      <c r="H16" s="174"/>
+      <c r="H16" s="165"/>
     </row>
     <row r="17" spans="2:8" outlineLevel="1">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="184" t="s">
         <v>431</v>
       </c>
-      <c r="C17" s="173"/>
+      <c r="C17" s="184"/>
       <c r="D17" s="159" t="s">
         <v>430</v>
       </c>
-      <c r="E17" s="172" t="s">
+      <c r="E17" s="164" t="s">
         <v>429</v>
       </c>
-      <c r="F17" s="172" t="s">
+      <c r="F17" s="164" t="s">
         <v>428</v>
       </c>
-      <c r="G17" s="172" t="s">
+      <c r="G17" s="164" t="s">
         <v>427</v>
       </c>
-      <c r="H17" s="171"/>
+      <c r="H17" s="163"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -11837,7 +11842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11850,15 +11855,15 @@
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="82" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="82" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="82" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="82" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="82"/>
-    <col min="6" max="6" width="63.125" style="82" customWidth="1"/>
-    <col min="7" max="16384" width="12.625" style="82"/>
+    <col min="1" max="1" width="30.44140625" style="82" customWidth="1"/>
+    <col min="2" max="2" width="49.109375" style="82" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" style="82" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" style="82" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="82"/>
+    <col min="6" max="6" width="63.109375" style="82" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
@@ -11884,7 +11889,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:7" thickTop="1">
+    <row r="2" spans="1:7" ht="15.6" thickTop="1">
       <c r="A2" s="89" t="s">
         <v>297</v>
       </c>
@@ -11903,7 +11908,7 @@
       </c>
       <c r="G2" s="89"/>
     </row>
-    <row r="3" spans="1:7" thickBot="1">
+    <row r="3" spans="1:7" ht="15.6" thickBot="1">
       <c r="A3" s="155" t="s">
         <v>292</v>
       </c>
@@ -11922,7 +11927,7 @@
       </c>
       <c r="G3" s="155"/>
     </row>
-    <row r="4" spans="1:7" ht="12.75">
+    <row r="4" spans="1:7" ht="13.2">
       <c r="A4" s="86"/>
       <c r="B4" s="86"/>
       <c r="C4" s="86" t="s">
@@ -11939,7 +11944,7 @@
       </c>
       <c r="G4" s="86"/>
     </row>
-    <row r="5" spans="1:7" ht="12.75">
+    <row r="5" spans="1:7" ht="13.2">
       <c r="A5" s="83"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83" t="s">
@@ -11956,7 +11961,7 @@
       </c>
       <c r="G5" s="83"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5" thickBot="1">
+    <row r="6" spans="1:7" ht="13.8" thickBot="1">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="88" t="s">
@@ -11973,7 +11978,7 @@
       </c>
       <c r="G6" s="88"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickTop="1">
+    <row r="7" spans="1:7" ht="13.8" thickTop="1">
       <c r="A7" s="86"/>
       <c r="B7" s="87" t="s">
         <v>282</v>
@@ -11992,7 +11997,7 @@
       </c>
       <c r="G7" s="86"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="13.2">
       <c r="A8" s="83"/>
       <c r="B8" s="85" t="s">
         <v>274</v>
@@ -12011,7 +12016,7 @@
       </c>
       <c r="G8" s="83"/>
     </row>
-    <row r="9" spans="1:7" ht="12.75">
+    <row r="9" spans="1:7" ht="13.2">
       <c r="A9" s="83"/>
       <c r="B9" s="85" t="s">
         <v>278</v>
@@ -12028,7 +12033,7 @@
       </c>
       <c r="G9" s="83"/>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
+    <row r="10" spans="1:7" ht="13.2">
       <c r="A10" s="83"/>
       <c r="B10" s="84"/>
       <c r="C10" s="83" t="s">
@@ -12043,7 +12048,7 @@
       </c>
       <c r="G10" s="83"/>
     </row>
-    <row r="11" spans="1:7" ht="12.75">
+    <row r="11" spans="1:7" ht="13.2">
       <c r="A11" s="83"/>
       <c r="B11" s="85" t="s">
         <v>274</v>
@@ -12062,7 +12067,7 @@
       </c>
       <c r="G11" s="83"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="13.2">
       <c r="A12" s="83"/>
       <c r="B12" s="84" t="s">
         <v>271</v>
@@ -12081,7 +12086,7 @@
       </c>
       <c r="G12" s="83"/>
     </row>
-    <row r="13" spans="1:7" ht="12.75">
+    <row r="13" spans="1:7" ht="13.2">
       <c r="A13" s="83"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83" t="s">

--- a/기능별 분류맵(안).xlsx
+++ b/기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="1"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -2139,8 +2139,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3262,48 +3262,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3396,6 +3354,48 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="메모 2" xfId="8"/>
@@ -3498,7 +3498,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3533,7 +3532,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3709,19 +3707,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" style="2" customWidth="1"/>
@@ -3733,7 +3731,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="96" customFormat="1" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="96" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>6</v>
       </c>
@@ -3756,7 +3754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.25" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3778,7 +3776,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -3800,7 +3798,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3822,7 +3820,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -3844,7 +3842,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
@@ -3866,7 +3864,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -3888,7 +3886,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -3907,7 +3905,7 @@
       <c r="F8" s="1"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3925,7 +3923,7 @@
       </c>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -3942,7 +3940,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="4" customFormat="1">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +3960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="5" customFormat="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -3979,7 +3977,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="5" customFormat="1">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -3996,7 +3994,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="5" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4011,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="5" customFormat="1">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4030,7 +4028,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>11</v>
       </c>
@@ -4044,7 +4042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -4064,7 +4062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="5" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -4081,7 +4079,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4096,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="14" customFormat="1">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="5" customFormat="1">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4133,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="8" customFormat="1">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -4152,7 +4150,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="8" customFormat="1">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -4169,7 +4167,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="8" customFormat="1">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
@@ -4183,7 +4181,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="8" customFormat="1">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -4197,7 +4195,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>11</v>
       </c>
@@ -4214,7 +4212,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="14" customFormat="1">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
@@ -4251,7 +4249,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
@@ -4268,7 +4266,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -4288,7 +4286,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
@@ -4305,7 +4303,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
@@ -4319,7 +4317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>0</v>
       </c>
@@ -4336,7 +4334,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4354,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -4371,7 +4369,7 @@
       </c>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -4408,7 +4406,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>0</v>
       </c>
@@ -4425,7 +4423,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -4445,7 +4443,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -4459,7 +4457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -4476,7 +4474,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4493,7 +4491,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>0</v>
       </c>
@@ -4510,7 +4508,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>0</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -4547,7 +4545,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
@@ -4581,7 +4579,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>0</v>
       </c>
@@ -4601,7 +4599,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>0</v>
       </c>
@@ -4618,7 +4616,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4631,7 @@
       </c>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -4653,7 +4651,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>0</v>
       </c>
@@ -4670,7 +4668,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A53" s="7" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +4685,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>0</v>
       </c>
@@ -4707,7 +4705,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A55" s="7" t="s">
         <v>0</v>
       </c>
@@ -4724,7 +4722,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="14" customFormat="1">
       <c r="A56" s="2" t="s">
         <v>11</v>
       </c>
@@ -4744,7 +4742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
       <c r="A57" s="7" t="s">
         <v>11</v>
       </c>
@@ -4759,7 +4757,7 @@
       </c>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>11</v>
       </c>
@@ -4779,7 +4777,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>11</v>
       </c>
@@ -4793,7 +4791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="1" customFormat="1">
       <c r="A60" s="4" t="s">
         <v>0</v>
       </c>
@@ -4813,7 +4811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="1" customFormat="1">
       <c r="A61" s="4" t="s">
         <v>0</v>
       </c>
@@ -4823,14 +4821,14 @@
       <c r="C61" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D61" s="187" t="s">
+      <c r="D61" s="173" t="s">
         <v>470</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="1" customFormat="1">
       <c r="A62" s="4" t="s">
         <v>0</v>
       </c>
@@ -4840,14 +4838,14 @@
       <c r="C62" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D62" s="187" t="s">
+      <c r="D62" s="173" t="s">
         <v>471</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A63" s="7" t="s">
         <v>0</v>
       </c>
@@ -4872,7 +4870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4881,7 +4879,7 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.125" style="73" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="73" bestFit="1" customWidth="1"/>
@@ -4893,31 +4891,31 @@
     <col min="8" max="16384" width="12.625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="186" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A1" s="172" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="172" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="172" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="186" t="s">
+      <c r="D1" s="172" t="s">
         <v>466</v>
       </c>
-      <c r="E1" s="186" t="s">
+      <c r="E1" s="172" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="172" t="s">
         <v>465</v>
       </c>
-      <c r="G1" s="186" t="s">
+      <c r="G1" s="172" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A2" s="175" t="s">
         <v>303</v>
       </c>
       <c r="B2" s="129"/>
@@ -4929,8 +4927,8 @@
       </c>
       <c r="G2" s="129"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A3" s="176" t="s">
         <v>297</v>
       </c>
       <c r="B3" s="81" t="s">
@@ -4950,8 +4948,8 @@
         <v>482</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="190" t="s">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A4" s="176" t="s">
         <v>301</v>
       </c>
       <c r="B4" s="81" t="s">
@@ -4967,12 +4965,12 @@
       <c r="F4" s="81" t="s">
         <v>464</v>
       </c>
-      <c r="G4" s="195" t="s">
+      <c r="G4" s="181" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="190" t="s">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A5" s="176" t="s">
         <v>299</v>
       </c>
       <c r="B5" s="81"/>
@@ -4993,29 +4991,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="40.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="14" customWidth="1"/>
     <col min="4" max="4" width="38.25" style="82" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="41.625" style="87" customWidth="1"/>
+    <col min="6" max="6" width="66.75" style="87" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="99" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="99" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="96" t="s">
         <v>7</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="41.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="41.25" thickTop="1">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -5065,7 +5064,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="54">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -5087,7 +5086,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -5107,7 +5106,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:8" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -5147,7 +5146,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="40.5">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5171,7 +5170,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -5189,7 +5188,7 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -5207,7 +5206,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="27.75" thickBot="1">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -5225,7 +5224,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="40.5">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
@@ -5249,7 +5248,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -5267,7 +5266,7 @@
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="40.5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5285,7 +5284,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -5303,7 +5302,7 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -5321,7 +5320,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -5335,7 +5334,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="40.5">
       <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
@@ -5359,7 +5358,7 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -5375,7 +5374,7 @@
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>12</v>
       </c>
@@ -5391,7 +5390,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -5415,7 +5414,7 @@
       </c>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
@@ -5431,7 +5430,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>12</v>
       </c>
@@ -5447,7 +5446,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -5463,7 +5462,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -5476,7 +5475,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
@@ -5489,7 +5488,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="17.25" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -5505,7 +5504,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="40.5">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -5529,7 +5528,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -5545,7 +5544,7 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="17.25" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>26</v>
       </c>
@@ -5561,7 +5560,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="40.5">
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
@@ -5585,7 +5584,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -5601,7 +5600,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -5614,7 +5613,7 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="7" t="s">
         <v>26</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="40.5">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -5654,7 +5653,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="17.25" thickBot="1">
       <c r="A35" s="7" t="s">
         <v>26</v>
       </c>
@@ -5668,7 +5667,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="40.5">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -5692,7 +5691,7 @@
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
@@ -5708,7 +5707,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
     </row>
-    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="7" t="s">
         <v>26</v>
       </c>
@@ -5724,7 +5723,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="40.5">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -5748,7 +5747,7 @@
       </c>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -5761,7 +5760,7 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
@@ -5777,7 +5776,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -5793,7 +5792,7 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
     </row>
-    <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="7" t="s">
         <v>26</v>
       </c>
@@ -5809,7 +5808,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="40.5">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
@@ -5833,7 +5832,7 @@
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
@@ -5849,7 +5848,7 @@
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
@@ -5865,7 +5864,7 @@
       <c r="G46" s="14"/>
       <c r="H46" s="14"/>
     </row>
-    <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" ht="17.25" thickBot="1">
       <c r="A47" s="7" t="s">
         <v>26</v>
       </c>
@@ -5881,7 +5880,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="40.5">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
@@ -5905,7 +5904,7 @@
       </c>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -5921,7 +5920,7 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
     </row>
-    <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="17.25" thickBot="1">
       <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
@@ -5935,7 +5934,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="40.5">
       <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
@@ -5959,7 +5958,7 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
@@ -5975,7 +5974,7 @@
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
     </row>
-    <row r="53" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="17.25" thickBot="1">
       <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
@@ -5991,7 +5990,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="40.5">
       <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
@@ -6015,7 +6014,7 @@
       </c>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="17.25" thickBot="1">
       <c r="A55" s="7" t="s">
         <v>26</v>
       </c>
@@ -6031,7 +6030,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="40.5">
       <c r="A56" s="2" t="s">
         <v>1</v>
       </c>
@@ -6055,7 +6054,7 @@
       </c>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="17.25" thickBot="1">
       <c r="A57" s="7" t="s">
         <v>1</v>
       </c>
@@ -6069,7 +6068,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="40.5">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
@@ -6093,7 +6092,7 @@
       </c>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="17.25" thickBot="1">
       <c r="A59" s="7" t="s">
         <v>1</v>
       </c>
@@ -6107,7 +6106,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="40.5">
       <c r="A60" s="1" t="s">
         <v>357</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="13.5">
       <c r="A61" s="1" t="s">
         <v>357</v>
       </c>
@@ -6141,7 +6140,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="13.5">
       <c r="A62" s="1" t="s">
         <v>357</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
       <c r="A63" s="6" t="s">
         <v>357</v>
       </c>
@@ -6171,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6181,7 +6180,7 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14.25" style="57" customWidth="1"/>
     <col min="2" max="2" width="18" style="57" customWidth="1"/>
@@ -6195,63 +6194,63 @@
     <col min="13" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:14" ht="20.25">
+      <c r="A1" s="182" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-    </row>
-    <row r="2" spans="1:14" s="58" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="147" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+    </row>
+    <row r="2" spans="1:14" s="58" customFormat="1" ht="20.25">
+      <c r="A2" s="183" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="148" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25">
+      <c r="A3" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="148" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>88</v>
       </c>
@@ -6295,7 +6294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="17.25" thickTop="1">
       <c r="A5" s="20" t="s">
         <v>102</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
         <v>102</v>
       </c>
@@ -6371,7 +6370,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="23" t="s">
         <v>102</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="23" t="s">
         <v>102</v>
       </c>
@@ -6447,7 +6446,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="23" t="s">
         <v>102</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="23" t="s">
         <v>102</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="s">
         <v>102</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="23" t="s">
         <v>102</v>
       </c>
@@ -6599,7 +6598,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="23" t="s">
         <v>102</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="23" t="s">
         <v>134</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="23" t="s">
         <v>134</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="23" t="s">
         <v>134</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="23" t="s">
         <v>134</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="23" t="s">
         <v>134</v>
       </c>
@@ -6827,7 +6826,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="23" t="s">
         <v>152</v>
       </c>
@@ -6865,7 +6864,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="23" t="s">
         <v>152</v>
       </c>
@@ -6903,7 +6902,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="60" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="60" customFormat="1" ht="17.25" thickBot="1">
       <c r="A21" s="29" t="s">
         <v>152</v>
       </c>
@@ -6941,7 +6940,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="31" t="s">
         <v>182</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="36" t="s">
         <v>182</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="36" t="s">
         <v>182</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="36" t="s">
         <v>182</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="36" t="s">
         <v>182</v>
       </c>
@@ -7131,7 +7130,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="36" t="s">
         <v>182</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="36" t="s">
         <v>182</v>
       </c>
@@ -7207,7 +7206,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="36" t="s">
         <v>201</v>
       </c>
@@ -7245,7 +7244,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="36" t="s">
         <v>201</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="36" t="s">
         <v>205</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="61" t="s">
         <v>205</v>
       </c>
@@ -7377,18 +7376,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.125" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -7398,7 +7397,7 @@
     <col min="6" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="96" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="96" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
       <c r="A1" s="102" t="s">
         <v>6</v>
       </c>
@@ -7421,7 +7420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="17.25" thickTop="1">
       <c r="A2" s="103" t="s">
         <v>191</v>
       </c>
@@ -7438,7 +7437,7 @@
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="103" t="s">
         <v>191</v>
       </c>
@@ -7455,7 +7454,7 @@
       <c r="F3" s="105"/>
       <c r="G3" s="105"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="103" t="s">
         <v>191</v>
       </c>
@@ -7470,7 +7469,7 @@
       <c r="F4" s="105"/>
       <c r="G4" s="105"/>
     </row>
-    <row r="5" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A5" s="106" t="s">
         <v>191</v>
       </c>
@@ -7487,7 +7486,7 @@
       <c r="F5" s="117"/>
       <c r="G5" s="117"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="109" t="s">
         <v>191</v>
       </c>
@@ -7504,7 +7503,7 @@
       <c r="F6" s="105"/>
       <c r="G6" s="105"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="109" t="s">
         <v>191</v>
       </c>
@@ -7521,7 +7520,7 @@
       <c r="F7" s="105"/>
       <c r="G7" s="105"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="109" t="s">
         <v>191</v>
       </c>
@@ -7538,7 +7537,7 @@
       <c r="F8" s="105"/>
       <c r="G8" s="105"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="109" t="s">
         <v>191</v>
       </c>
@@ -7555,7 +7554,7 @@
       <c r="F9" s="105"/>
       <c r="G9" s="105"/>
     </row>
-    <row r="10" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A10" s="118" t="s">
         <v>191</v>
       </c>
@@ -7572,7 +7571,7 @@
       <c r="F10" s="117"/>
       <c r="G10" s="117"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="103" t="s">
         <v>191</v>
       </c>
@@ -7589,7 +7588,7 @@
       <c r="F11" s="105"/>
       <c r="G11" s="105"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="103" t="s">
         <v>191</v>
       </c>
@@ -7606,7 +7605,7 @@
       <c r="F12" s="105"/>
       <c r="G12" s="105"/>
     </row>
-    <row r="13" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A13" s="106" t="s">
         <v>191</v>
       </c>
@@ -7623,7 +7622,7 @@
       <c r="F13" s="117"/>
       <c r="G13" s="117"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="112" t="s">
         <v>191</v>
       </c>
@@ -7638,7 +7637,7 @@
       <c r="F14" s="105"/>
       <c r="G14" s="105"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="112" t="s">
         <v>191</v>
       </c>
@@ -7653,7 +7652,7 @@
       <c r="F15" s="105"/>
       <c r="G15" s="105"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="103" t="s">
         <v>191</v>
       </c>
@@ -7670,7 +7669,7 @@
       <c r="F16" s="105"/>
       <c r="G16" s="105"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="103" t="s">
         <v>191</v>
       </c>
@@ -7687,7 +7686,7 @@
       <c r="F17" s="105"/>
       <c r="G17" s="105"/>
     </row>
-    <row r="18" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A18" s="106" t="s">
         <v>191</v>
       </c>
@@ -7704,7 +7703,7 @@
       <c r="F18" s="117"/>
       <c r="G18" s="117"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="103" t="s">
         <v>191</v>
       </c>
@@ -7719,7 +7718,7 @@
       <c r="F19" s="105"/>
       <c r="G19" s="105"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="103" t="s">
         <v>191</v>
       </c>
@@ -7734,7 +7733,7 @@
       <c r="F20" s="105"/>
       <c r="G20" s="105"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="103" t="s">
         <v>191</v>
       </c>
@@ -7749,7 +7748,7 @@
       <c r="F21" s="105"/>
       <c r="G21" s="105"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="103" t="s">
         <v>191</v>
       </c>
@@ -7764,7 +7763,7 @@
       <c r="F22" s="105"/>
       <c r="G22" s="105"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="103" t="s">
         <v>191</v>
       </c>
@@ -7779,7 +7778,7 @@
       <c r="F23" s="105"/>
       <c r="G23" s="105"/>
     </row>
-    <row r="24" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A24" s="106" t="s">
         <v>191</v>
       </c>
@@ -7794,7 +7793,7 @@
       <c r="F24" s="117"/>
       <c r="G24" s="117"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="103" t="s">
         <v>191</v>
       </c>
@@ -7809,7 +7808,7 @@
       <c r="F25" s="105"/>
       <c r="G25" s="105"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="103" t="s">
         <v>191</v>
       </c>
@@ -7824,7 +7823,7 @@
       <c r="F26" s="105"/>
       <c r="G26" s="105"/>
     </row>
-    <row r="27" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A27" s="106" t="s">
         <v>191</v>
       </c>
@@ -7839,7 +7838,7 @@
       <c r="F27" s="117"/>
       <c r="G27" s="117"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="103" t="s">
         <v>191</v>
       </c>
@@ -7856,7 +7855,7 @@
       <c r="F28" s="105"/>
       <c r="G28" s="105"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="103" t="s">
         <v>191</v>
       </c>
@@ -7871,7 +7870,7 @@
       <c r="F29" s="105"/>
       <c r="G29" s="105"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="103" t="s">
         <v>191</v>
       </c>
@@ -7888,7 +7887,7 @@
       <c r="F30" s="105"/>
       <c r="G30" s="105"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="103" t="s">
         <v>191</v>
       </c>
@@ -7905,7 +7904,7 @@
       <c r="F31" s="105"/>
       <c r="G31" s="105"/>
     </row>
-    <row r="32" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A32" s="106" t="s">
         <v>191</v>
       </c>
@@ -7920,7 +7919,7 @@
       <c r="F32" s="117"/>
       <c r="G32" s="117"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="103" t="s">
         <v>191</v>
       </c>
@@ -7937,7 +7936,7 @@
       <c r="F33" s="105"/>
       <c r="G33" s="105"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="103" t="s">
         <v>191</v>
       </c>
@@ -7954,7 +7953,7 @@
       <c r="F34" s="105"/>
       <c r="G34" s="105"/>
     </row>
-    <row r="35" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A35" s="106" t="s">
         <v>191</v>
       </c>
@@ -7969,7 +7968,7 @@
       <c r="F35" s="117"/>
       <c r="G35" s="117"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="103" t="s">
         <v>191</v>
       </c>
@@ -7986,7 +7985,7 @@
       <c r="F36" s="105"/>
       <c r="G36" s="105"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="103" t="s">
         <v>191</v>
       </c>
@@ -8003,7 +8002,7 @@
       <c r="F37" s="105"/>
       <c r="G37" s="105"/>
     </row>
-    <row r="38" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A38" s="106" t="s">
         <v>191</v>
       </c>
@@ -8018,7 +8017,7 @@
       <c r="F38" s="117"/>
       <c r="G38" s="117"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="103" t="s">
         <v>191</v>
       </c>
@@ -8035,7 +8034,7 @@
       <c r="F39" s="105"/>
       <c r="G39" s="105"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="103" t="s">
         <v>191</v>
       </c>
@@ -8050,7 +8049,7 @@
       <c r="F40" s="105"/>
       <c r="G40" s="105"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="103" t="s">
         <v>191</v>
       </c>
@@ -8065,7 +8064,7 @@
       <c r="F41" s="105"/>
       <c r="G41" s="105"/>
     </row>
-    <row r="42" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A42" s="106" t="s">
         <v>191</v>
       </c>
@@ -8080,7 +8079,7 @@
       <c r="F42" s="117"/>
       <c r="G42" s="117"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="103" t="s">
         <v>191</v>
       </c>
@@ -8097,7 +8096,7 @@
       <c r="F43" s="105"/>
       <c r="G43" s="105"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="103" t="s">
         <v>191</v>
       </c>
@@ -8114,7 +8113,7 @@
       <c r="F44" s="105"/>
       <c r="G44" s="105"/>
     </row>
-    <row r="45" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A45" s="106" t="s">
         <v>191</v>
       </c>
@@ -8129,7 +8128,7 @@
       <c r="F45" s="117"/>
       <c r="G45" s="117"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="103" t="s">
         <v>191</v>
       </c>
@@ -8146,7 +8145,7 @@
       <c r="F46" s="105"/>
       <c r="G46" s="105"/>
     </row>
-    <row r="47" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A47" s="106" t="s">
         <v>191</v>
       </c>
@@ -8161,7 +8160,7 @@
       <c r="F47" s="117"/>
       <c r="G47" s="117"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="103" t="s">
         <v>191</v>
       </c>
@@ -8178,7 +8177,7 @@
       <c r="F48" s="105"/>
       <c r="G48" s="105"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="103" t="s">
         <v>191</v>
       </c>
@@ -8195,7 +8194,7 @@
       <c r="F49" s="105"/>
       <c r="G49" s="105"/>
     </row>
-    <row r="50" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A50" s="106" t="s">
         <v>191</v>
       </c>
@@ -8210,7 +8209,7 @@
       <c r="F50" s="117"/>
       <c r="G50" s="117"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="103" t="s">
         <v>191</v>
       </c>
@@ -8227,7 +8226,7 @@
       <c r="F51" s="105"/>
       <c r="G51" s="105"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="103" t="s">
         <v>191</v>
       </c>
@@ -8242,7 +8241,7 @@
       <c r="F52" s="105"/>
       <c r="G52" s="105"/>
     </row>
-    <row r="53" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A53" s="106" t="s">
         <v>191</v>
       </c>
@@ -8259,7 +8258,7 @@
       <c r="F53" s="117"/>
       <c r="G53" s="117"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="103" t="s">
         <v>191</v>
       </c>
@@ -8276,7 +8275,7 @@
       <c r="F54" s="105"/>
       <c r="G54" s="105"/>
     </row>
-    <row r="55" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A55" s="106" t="s">
         <v>191</v>
       </c>
@@ -8293,7 +8292,7 @@
       <c r="F55" s="117"/>
       <c r="G55" s="117"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="103" t="s">
         <v>191</v>
       </c>
@@ -8310,7 +8309,7 @@
       <c r="F56" s="105"/>
       <c r="G56" s="105"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="103" t="s">
         <v>191</v>
       </c>
@@ -8327,7 +8326,7 @@
       <c r="F57" s="105"/>
       <c r="G57" s="105"/>
     </row>
-    <row r="58" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A58" s="106" t="s">
         <v>191</v>
       </c>
@@ -8344,7 +8343,7 @@
       <c r="F58" s="117"/>
       <c r="G58" s="117"/>
     </row>
-    <row r="59" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A59" s="125" t="s">
         <v>191</v>
       </c>
@@ -8361,7 +8360,7 @@
       <c r="F59" s="117"/>
       <c r="G59" s="117"/>
     </row>
-    <row r="60" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A60" s="125" t="s">
         <v>191</v>
       </c>
@@ -8378,7 +8377,7 @@
       <c r="F60" s="117"/>
       <c r="G60" s="117"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="103" t="s">
         <v>191</v>
       </c>
@@ -8393,7 +8392,7 @@
       <c r="F61" s="105"/>
       <c r="G61" s="105"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="103" t="s">
         <v>191</v>
       </c>
@@ -8408,7 +8407,7 @@
       <c r="F62" s="105"/>
       <c r="G62" s="105"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="103" t="s">
         <v>191</v>
       </c>
@@ -8423,7 +8422,7 @@
       <c r="F63" s="105"/>
       <c r="G63" s="105"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="103" t="s">
         <v>191</v>
       </c>
@@ -8438,7 +8437,7 @@
       <c r="F64" s="105"/>
       <c r="G64" s="105"/>
     </row>
-    <row r="65" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A65" s="106" t="s">
         <v>191</v>
       </c>
@@ -8453,7 +8452,7 @@
       <c r="F65" s="117"/>
       <c r="G65" s="117"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="103" t="s">
         <v>191</v>
       </c>
@@ -8468,7 +8467,7 @@
       <c r="F66" s="105"/>
       <c r="G66" s="105"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="103" t="s">
         <v>191</v>
       </c>
@@ -8483,7 +8482,7 @@
       <c r="F67" s="105"/>
       <c r="G67" s="105"/>
     </row>
-    <row r="68" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A68" s="106" t="s">
         <v>191</v>
       </c>
@@ -8498,7 +8497,7 @@
       <c r="F68" s="117"/>
       <c r="G68" s="117"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="103" t="s">
         <v>191</v>
       </c>
@@ -8515,7 +8514,7 @@
       <c r="F69" s="105"/>
       <c r="G69" s="105"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="103" t="s">
         <v>191</v>
       </c>
@@ -8532,7 +8531,7 @@
       <c r="F70" s="105"/>
       <c r="G70" s="105"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="103" t="s">
         <v>191</v>
       </c>
@@ -8549,7 +8548,7 @@
       <c r="F71" s="105"/>
       <c r="G71" s="105"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="103" t="s">
         <v>191</v>
       </c>
@@ -8564,7 +8563,7 @@
       <c r="F72" s="105"/>
       <c r="G72" s="105"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="103" t="s">
         <v>191</v>
       </c>
@@ -8581,7 +8580,7 @@
       <c r="F73" s="105"/>
       <c r="G73" s="105"/>
     </row>
-    <row r="74" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A74" s="106" t="s">
         <v>191</v>
       </c>
@@ -8598,7 +8597,7 @@
       <c r="F74" s="117"/>
       <c r="G74" s="117"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="103" t="s">
         <v>191</v>
       </c>
@@ -8615,7 +8614,7 @@
       <c r="F75" s="105"/>
       <c r="G75" s="105"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="103" t="s">
         <v>191</v>
       </c>
@@ -8632,7 +8631,7 @@
       <c r="F76" s="105"/>
       <c r="G76" s="105"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="103" t="s">
         <v>191</v>
       </c>
@@ -8647,7 +8646,7 @@
       <c r="F77" s="105"/>
       <c r="G77" s="105"/>
     </row>
-    <row r="78" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A78" s="106" t="s">
         <v>191</v>
       </c>
@@ -8662,7 +8661,7 @@
       <c r="F78" s="117"/>
       <c r="G78" s="117"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="103" t="s">
         <v>191</v>
       </c>
@@ -8677,7 +8676,7 @@
       <c r="F79" s="105"/>
       <c r="G79" s="105"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="103" t="s">
         <v>191</v>
       </c>
@@ -8692,7 +8691,7 @@
       <c r="F80" s="105"/>
       <c r="G80" s="105"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="103" t="s">
         <v>191</v>
       </c>
@@ -8707,7 +8706,7 @@
       <c r="F81" s="105"/>
       <c r="G81" s="105"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="103" t="s">
         <v>191</v>
       </c>
@@ -8722,7 +8721,7 @@
       <c r="F82" s="105"/>
       <c r="G82" s="105"/>
     </row>
-    <row r="83" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" s="95" customFormat="1" ht="17.25" thickBot="1">
       <c r="A83" s="106" t="s">
         <v>191</v>
       </c>
@@ -8737,7 +8736,7 @@
       <c r="F83" s="117"/>
       <c r="G83" s="117"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="100"/>
       <c r="B84" s="100"/>
       <c r="C84" s="100"/>
@@ -8750,7 +8749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -8761,7 +8760,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="2" max="2" width="48.25" customWidth="1"/>
@@ -8769,7 +8768,7 @@
     <col min="4" max="4" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="185" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="171" customFormat="1" ht="33" customHeight="1" thickBot="1">
       <c r="A1" s="102" t="s">
         <v>7</v>
       </c>
@@ -8795,7 +8794,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="17.25" thickTop="1">
       <c r="A2" s="103" t="s">
         <v>287</v>
       </c>
@@ -8811,7 +8810,7 @@
       <c r="G2" s="108"/>
       <c r="H2" s="108"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="103" t="s">
         <v>287</v>
       </c>
@@ -8827,7 +8826,7 @@
       <c r="G3" s="108"/>
       <c r="H3" s="108"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="103" t="s">
         <v>287</v>
       </c>
@@ -8841,7 +8840,7 @@
       <c r="G4" s="108"/>
       <c r="H4" s="108"/>
     </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="106" t="s">
         <v>287</v>
       </c>
@@ -8857,7 +8856,7 @@
       <c r="G5" s="116"/>
       <c r="H5" s="116"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="109" t="s">
         <v>287</v>
       </c>
@@ -8873,7 +8872,7 @@
       <c r="G6" s="111"/>
       <c r="H6" s="111"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="109" t="s">
         <v>287</v>
       </c>
@@ -8889,7 +8888,7 @@
       <c r="G7" s="111"/>
       <c r="H7" s="111"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="109" t="s">
         <v>287</v>
       </c>
@@ -8905,7 +8904,7 @@
       <c r="G8" s="111"/>
       <c r="H8" s="111"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="109" t="s">
         <v>287</v>
       </c>
@@ -8921,7 +8920,7 @@
       <c r="G9" s="111"/>
       <c r="H9" s="111"/>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="118" t="s">
         <v>287</v>
       </c>
@@ -8937,7 +8936,7 @@
       <c r="G10" s="120"/>
       <c r="H10" s="120"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="103" t="s">
         <v>287</v>
       </c>
@@ -8953,7 +8952,7 @@
       <c r="G11" s="108"/>
       <c r="H11" s="108"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="103" t="s">
         <v>287</v>
       </c>
@@ -8969,7 +8968,7 @@
       <c r="G12" s="108"/>
       <c r="H12" s="108"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="106" t="s">
         <v>287</v>
       </c>
@@ -8985,7 +8984,7 @@
       <c r="G13" s="116"/>
       <c r="H13" s="116"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="112" t="s">
         <v>287</v>
       </c>
@@ -8999,7 +8998,7 @@
       <c r="G14" s="114"/>
       <c r="H14" s="114"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="112" t="s">
         <v>287</v>
       </c>
@@ -9013,7 +9012,7 @@
       <c r="G15" s="114"/>
       <c r="H15" s="114"/>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="121" t="s">
         <v>287</v>
       </c>
@@ -9025,7 +9024,7 @@
       <c r="G16" s="123"/>
       <c r="H16" s="123"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="103" t="s">
         <v>287</v>
       </c>
@@ -9041,7 +9040,7 @@
       <c r="G17" s="108"/>
       <c r="H17" s="108"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="103" t="s">
         <v>287</v>
       </c>
@@ -9057,7 +9056,7 @@
       <c r="G18" s="108"/>
       <c r="H18" s="108"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="106" t="s">
         <v>287</v>
       </c>
@@ -9073,7 +9072,7 @@
       <c r="G19" s="116"/>
       <c r="H19" s="116"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="103" t="s">
         <v>287</v>
       </c>
@@ -9087,7 +9086,7 @@
       <c r="G20" s="115"/>
       <c r="H20" s="115"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="103" t="s">
         <v>287</v>
       </c>
@@ -9101,7 +9100,7 @@
       <c r="G21" s="115"/>
       <c r="H21" s="115"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="103" t="s">
         <v>287</v>
       </c>
@@ -9115,7 +9114,7 @@
       <c r="G22" s="115"/>
       <c r="H22" s="115"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="103" t="s">
         <v>287</v>
       </c>
@@ -9129,7 +9128,7 @@
       <c r="G23" s="115"/>
       <c r="H23" s="115"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="103" t="s">
         <v>287</v>
       </c>
@@ -9143,7 +9142,7 @@
       <c r="G24" s="115"/>
       <c r="H24" s="115"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.25" thickBot="1">
       <c r="A25" s="106" t="s">
         <v>287</v>
       </c>
@@ -9157,7 +9156,7 @@
       <c r="G25" s="124"/>
       <c r="H25" s="124"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="103" t="s">
         <v>287</v>
       </c>
@@ -9171,7 +9170,7 @@
       <c r="G26" s="115"/>
       <c r="H26" s="115"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="103" t="s">
         <v>287</v>
       </c>
@@ -9185,7 +9184,7 @@
       <c r="G27" s="115"/>
       <c r="H27" s="115"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="106" t="s">
         <v>287</v>
       </c>
@@ -9199,7 +9198,7 @@
       <c r="G28" s="124"/>
       <c r="H28" s="124"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="103" t="s">
         <v>284</v>
       </c>
@@ -9215,7 +9214,7 @@
       <c r="G29" s="108"/>
       <c r="H29" s="108"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="103" t="s">
         <v>284</v>
       </c>
@@ -9229,7 +9228,7 @@
       <c r="G30" s="108"/>
       <c r="H30" s="108"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="103" t="s">
         <v>284</v>
       </c>
@@ -9245,7 +9244,7 @@
       <c r="G31" s="108"/>
       <c r="H31" s="108"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="103" t="s">
         <v>284</v>
       </c>
@@ -9261,7 +9260,7 @@
       <c r="G32" s="108"/>
       <c r="H32" s="108"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="106" t="s">
         <v>284</v>
       </c>
@@ -9275,7 +9274,7 @@
       <c r="G33" s="116"/>
       <c r="H33" s="116"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="103" t="s">
         <v>284</v>
       </c>
@@ -9291,7 +9290,7 @@
       <c r="G34" s="108"/>
       <c r="H34" s="108"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="103" t="s">
         <v>284</v>
       </c>
@@ -9307,7 +9306,7 @@
       <c r="G35" s="108"/>
       <c r="H35" s="108"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="106" t="s">
         <v>284</v>
       </c>
@@ -9321,7 +9320,7 @@
       <c r="G36" s="124"/>
       <c r="H36" s="124"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="103" t="s">
         <v>284</v>
       </c>
@@ -9337,7 +9336,7 @@
       <c r="G37" s="108"/>
       <c r="H37" s="108"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="103" t="s">
         <v>284</v>
       </c>
@@ -9353,7 +9352,7 @@
       <c r="G38" s="108"/>
       <c r="H38" s="108"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17.25" thickBot="1">
       <c r="A39" s="106" t="s">
         <v>284</v>
       </c>
@@ -9367,7 +9366,7 @@
       <c r="G39" s="116"/>
       <c r="H39" s="116"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="103" t="s">
         <v>284</v>
       </c>
@@ -9383,7 +9382,7 @@
       <c r="G40" s="108"/>
       <c r="H40" s="108"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="103" t="s">
         <v>284</v>
       </c>
@@ -9397,7 +9396,7 @@
       <c r="G41" s="108"/>
       <c r="H41" s="108"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="103" t="s">
         <v>284</v>
       </c>
@@ -9411,7 +9410,7 @@
       <c r="G42" s="108"/>
       <c r="H42" s="108"/>
     </row>
-    <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="106" t="s">
         <v>284</v>
       </c>
@@ -9425,7 +9424,7 @@
       <c r="G43" s="116"/>
       <c r="H43" s="116"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="103" t="s">
         <v>284</v>
       </c>
@@ -9441,7 +9440,7 @@
       <c r="G44" s="108"/>
       <c r="H44" s="108"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="103" t="s">
         <v>284</v>
       </c>
@@ -9457,7 +9456,7 @@
       <c r="G45" s="108"/>
       <c r="H45" s="108"/>
     </row>
-    <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="17.25" thickBot="1">
       <c r="A46" s="106" t="s">
         <v>284</v>
       </c>
@@ -9471,7 +9470,7 @@
       <c r="G46" s="116"/>
       <c r="H46" s="116"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="103" t="s">
         <v>284</v>
       </c>
@@ -9487,7 +9486,7 @@
       <c r="G47" s="108"/>
       <c r="H47" s="108"/>
     </row>
-    <row r="48" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="106" t="s">
         <v>284</v>
       </c>
@@ -9501,7 +9500,7 @@
       <c r="G48" s="116"/>
       <c r="H48" s="116"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="103" t="s">
         <v>284</v>
       </c>
@@ -9517,7 +9516,7 @@
       <c r="G49" s="108"/>
       <c r="H49" s="108"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="103" t="s">
         <v>284</v>
       </c>
@@ -9533,7 +9532,7 @@
       <c r="G50" s="108"/>
       <c r="H50" s="108"/>
     </row>
-    <row r="51" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="106" t="s">
         <v>284</v>
       </c>
@@ -9547,7 +9546,7 @@
       <c r="G51" s="116"/>
       <c r="H51" s="116"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="103" t="s">
         <v>284</v>
       </c>
@@ -9563,7 +9562,7 @@
       <c r="G52" s="108"/>
       <c r="H52" s="108"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
       <c r="A53" s="103" t="s">
         <v>284</v>
       </c>
@@ -9577,7 +9576,7 @@
       <c r="G53" s="108"/>
       <c r="H53" s="108"/>
     </row>
-    <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="17.25" thickBot="1">
       <c r="A54" s="106" t="s">
         <v>284</v>
       </c>
@@ -9593,7 +9592,7 @@
       <c r="G54" s="116"/>
       <c r="H54" s="116"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="103" t="s">
         <v>284</v>
       </c>
@@ -9609,7 +9608,7 @@
       <c r="G55" s="108"/>
       <c r="H55" s="108"/>
     </row>
-    <row r="56" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="17.25" thickBot="1">
       <c r="A56" s="106" t="s">
         <v>284</v>
       </c>
@@ -9625,7 +9624,7 @@
       <c r="G56" s="116"/>
       <c r="H56" s="116"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="103" t="s">
         <v>284</v>
       </c>
@@ -9641,7 +9640,7 @@
       <c r="G57" s="108"/>
       <c r="H57" s="108"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="103" t="s">
         <v>284</v>
       </c>
@@ -9657,7 +9656,7 @@
       <c r="G58" s="108"/>
       <c r="H58" s="108"/>
     </row>
-    <row r="59" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="17.25" thickBot="1">
       <c r="A59" s="106" t="s">
         <v>284</v>
       </c>
@@ -9673,7 +9672,7 @@
       <c r="G59" s="116"/>
       <c r="H59" s="116"/>
     </row>
-    <row r="60" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="17.25" thickBot="1">
       <c r="A60" s="125" t="s">
         <v>284</v>
       </c>
@@ -9689,7 +9688,7 @@
       <c r="G60" s="127"/>
       <c r="H60" s="127"/>
     </row>
-    <row r="61" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="17.25" thickBot="1">
       <c r="A61" s="125" t="s">
         <v>284</v>
       </c>
@@ -9705,7 +9704,7 @@
       <c r="G61" s="127"/>
       <c r="H61" s="127"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="103" t="s">
         <v>357</v>
       </c>
@@ -9719,7 +9718,7 @@
       <c r="G62" s="115"/>
       <c r="H62" s="115"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="103" t="s">
         <v>357</v>
       </c>
@@ -9733,7 +9732,7 @@
       <c r="G63" s="115"/>
       <c r="H63" s="115"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="103" t="s">
         <v>357</v>
       </c>
@@ -9747,7 +9746,7 @@
       <c r="G64" s="115"/>
       <c r="H64" s="115"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="A65" s="103" t="s">
         <v>357</v>
       </c>
@@ -9761,7 +9760,7 @@
       <c r="G65" s="115"/>
       <c r="H65" s="115"/>
     </row>
-    <row r="66" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="17.25" thickBot="1">
       <c r="A66" s="106" t="s">
         <v>357</v>
       </c>
@@ -9775,7 +9774,7 @@
       <c r="G66" s="124"/>
       <c r="H66" s="124"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="A67" s="103" t="s">
         <v>357</v>
       </c>
@@ -9789,7 +9788,7 @@
       <c r="G67" s="115"/>
       <c r="H67" s="115"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8">
       <c r="A68" s="103" t="s">
         <v>357</v>
       </c>
@@ -9803,7 +9802,7 @@
       <c r="G68" s="115"/>
       <c r="H68" s="115"/>
     </row>
-    <row r="69" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="17.25" thickBot="1">
       <c r="A69" s="106" t="s">
         <v>357</v>
       </c>
@@ -9817,7 +9816,7 @@
       <c r="G69" s="124"/>
       <c r="H69" s="124"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="A70" s="103" t="s">
         <v>357</v>
       </c>
@@ -9833,7 +9832,7 @@
       <c r="G70" s="108"/>
       <c r="H70" s="108"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="103" t="s">
         <v>357</v>
       </c>
@@ -9849,7 +9848,7 @@
       <c r="G71" s="108"/>
       <c r="H71" s="108"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="103" t="s">
         <v>357</v>
       </c>
@@ -9865,7 +9864,7 @@
       <c r="G72" s="108"/>
       <c r="H72" s="108"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="103" t="s">
         <v>357</v>
       </c>
@@ -9879,7 +9878,7 @@
       <c r="G73" s="108"/>
       <c r="H73" s="108"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8">
       <c r="A74" s="103" t="s">
         <v>357</v>
       </c>
@@ -9895,7 +9894,7 @@
       <c r="G74" s="108"/>
       <c r="H74" s="108"/>
     </row>
-    <row r="75" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="17.25" thickBot="1">
       <c r="A75" s="106" t="s">
         <v>357</v>
       </c>
@@ -9911,7 +9910,7 @@
       <c r="G75" s="116"/>
       <c r="H75" s="116"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="A76" s="103" t="s">
         <v>357</v>
       </c>
@@ -9927,7 +9926,7 @@
       <c r="G76" s="108"/>
       <c r="H76" s="108"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8">
       <c r="A77" s="103" t="s">
         <v>357</v>
       </c>
@@ -9943,7 +9942,7 @@
       <c r="G77" s="108"/>
       <c r="H77" s="108"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="A78" s="103" t="s">
         <v>357</v>
       </c>
@@ -9957,7 +9956,7 @@
       <c r="G78" s="108"/>
       <c r="H78" s="108"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="17.25" thickBot="1">
       <c r="A79" s="106" t="s">
         <v>357</v>
       </c>
@@ -9971,7 +9970,7 @@
       <c r="G79" s="116"/>
       <c r="H79" s="116"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="A80" s="103" t="s">
         <v>357</v>
       </c>
@@ -9985,7 +9984,7 @@
       <c r="G80" s="115"/>
       <c r="H80" s="115"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
       <c r="A81" s="103" t="s">
         <v>357</v>
       </c>
@@ -9999,7 +9998,7 @@
       <c r="G81" s="115"/>
       <c r="H81" s="115"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="103" t="s">
         <v>357</v>
       </c>
@@ -10013,7 +10012,7 @@
       <c r="G82" s="115"/>
       <c r="H82" s="115"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
       <c r="A83" s="103" t="s">
         <v>357</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="G83" s="115"/>
       <c r="H83" s="115"/>
     </row>
-    <row r="84" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="17.25" thickBot="1">
       <c r="A84" s="106" t="s">
         <v>357</v>
       </c>
@@ -10048,7 +10047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -10058,7 +10057,7 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="20.375" style="17" customWidth="1"/>
@@ -10075,63 +10074,63 @@
     <col min="14" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="15" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="20.25">
+      <c r="A1" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-    </row>
-    <row r="2" spans="1:14" s="16" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
+      <c r="H1" s="182"/>
+      <c r="I1" s="182"/>
+      <c r="J1" s="182"/>
+      <c r="K1" s="182"/>
+      <c r="L1" s="182"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+    </row>
+    <row r="2" spans="1:14" s="16" customFormat="1" ht="24" customHeight="1">
+      <c r="A2" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="148" t="s">
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.25" customHeight="1">
+      <c r="A3" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="148" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="149"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="149"/>
-      <c r="M3" s="149"/>
-      <c r="N3" s="150"/>
-    </row>
-    <row r="4" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>88</v>
       </c>
@@ -10175,7 +10174,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="17.25" thickTop="1">
       <c r="A5" s="20" t="s">
         <v>102</v>
       </c>
@@ -10213,7 +10212,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="23" t="s">
         <v>102</v>
       </c>
@@ -10251,7 +10250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="23" t="s">
         <v>102</v>
       </c>
@@ -10289,7 +10288,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="23" t="s">
         <v>102</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="23" t="s">
         <v>102</v>
       </c>
@@ -10365,7 +10364,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="23" t="s">
         <v>102</v>
       </c>
@@ -10403,7 +10402,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="23" t="s">
         <v>102</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="23" t="s">
         <v>102</v>
       </c>
@@ -10479,7 +10478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="23" t="s">
         <v>102</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="23" t="s">
         <v>102</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="23" t="s">
         <v>102</v>
       </c>
@@ -10593,7 +10592,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="17.25" thickBot="1">
       <c r="A16" s="26" t="s">
         <v>102</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="20" t="s">
         <v>134</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="23" t="s">
         <v>134</v>
       </c>
@@ -10707,7 +10706,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="23" t="s">
         <v>134</v>
       </c>
@@ -10745,7 +10744,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="23" t="s">
         <v>134</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="23" t="s">
         <v>134</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="17.25" thickBot="1">
       <c r="A22" s="26" t="s">
         <v>134</v>
       </c>
@@ -10863,7 +10862,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="20" t="s">
         <v>152</v>
       </c>
@@ -10901,7 +10900,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="23" t="s">
         <v>152</v>
       </c>
@@ -10939,7 +10938,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="23" t="s">
         <v>152</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="23" t="s">
         <v>152</v>
       </c>
@@ -11017,7 +11016,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="23" t="s">
         <v>152</v>
       </c>
@@ -11057,7 +11056,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="17.25" thickBot="1">
       <c r="A28" s="29" t="s">
         <v>152</v>
       </c>
@@ -11097,7 +11096,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="31" t="s">
         <v>167</v>
       </c>
@@ -11137,7 +11136,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="36" t="s">
         <v>167</v>
       </c>
@@ -11177,7 +11176,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="36" t="s">
         <v>167</v>
       </c>
@@ -11217,7 +11216,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="36" t="s">
         <v>167</v>
       </c>
@@ -11257,7 +11256,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="17.25" thickBot="1">
       <c r="A33" s="42" t="s">
         <v>179</v>
       </c>
@@ -11297,7 +11296,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="44" t="s">
         <v>182</v>
       </c>
@@ -11335,7 +11334,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="46" t="s">
         <v>182</v>
       </c>
@@ -11373,7 +11372,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14">
       <c r="A36" s="49" t="s">
         <v>182</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14">
       <c r="A37" s="49" t="s">
         <v>182</v>
       </c>
@@ -11449,7 +11448,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14">
       <c r="A38" s="49" t="s">
         <v>182</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14">
       <c r="A39" s="49" t="s">
         <v>182</v>
       </c>
@@ -11525,7 +11524,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14">
       <c r="A40" s="49" t="s">
         <v>182</v>
       </c>
@@ -11563,7 +11562,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="49" t="s">
         <v>201</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="49" t="s">
         <v>201</v>
       </c>
@@ -11639,7 +11638,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="49" t="s">
         <v>205</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14">
       <c r="A44" s="52" t="s">
         <v>205</v>
       </c>
@@ -11733,7 +11732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -11743,7 +11742,7 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="20.375" style="71" customWidth="1"/>
     <col min="2" max="2" width="65.125" style="71" customWidth="1"/>
@@ -11754,53 +11753,53 @@
     <col min="12" max="12" width="51.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:6" ht="17.25">
+      <c r="A1" s="187" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="187" t="s">
         <v>231</v>
       </c>
-      <c r="C1" s="157" t="s">
+      <c r="C1" s="187" t="s">
         <v>232</v>
       </c>
-      <c r="D1" s="158" t="s">
+      <c r="D1" s="189" t="s">
         <v>233</v>
       </c>
-      <c r="E1" s="158"/>
-      <c r="F1" s="157" t="s">
+      <c r="E1" s="189"/>
+      <c r="F1" s="187" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="159"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="160" t="s">
+    <row r="2" spans="1:6" ht="18" thickBot="1">
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="146" t="s">
         <v>235</v>
       </c>
-      <c r="E2" s="160" t="s">
+      <c r="E2" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="F2" s="159"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="161" t="s">
+      <c r="F2" s="188"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickTop="1">
+      <c r="A3" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="147" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="147" t="s">
         <v>239</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="163" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="149" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="130"/>
       <c r="B4" s="130" t="s">
         <v>405</v>
@@ -11808,173 +11807,173 @@
       <c r="C4" s="130" t="s">
         <v>416</v>
       </c>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
       <c r="F4" s="143" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="165" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="166" t="s">
+      <c r="B5" s="152" t="s">
         <v>413</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="168" t="s">
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="154" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="169" t="s">
+    <row r="6" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A6" s="155" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="155" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="155" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171" t="s">
+      <c r="D6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="161"/>
-      <c r="B7" s="161" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="147"/>
+      <c r="B7" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="161"/>
-      <c r="D7" s="162" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="148" t="s">
         <v>245</v>
       </c>
-      <c r="F7" s="163"/>
-    </row>
-    <row r="8" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="161"/>
-      <c r="B8" s="161" t="s">
+      <c r="F7" s="149"/>
+    </row>
+    <row r="8" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A8" s="147"/>
+      <c r="B8" s="147" t="s">
         <v>406</v>
       </c>
-      <c r="C8" s="161"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162" t="s">
+      <c r="C8" s="147"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148" t="s">
         <v>407</v>
       </c>
-      <c r="F8" s="172" t="s">
+      <c r="F8" s="158" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="130"/>
       <c r="B9" s="130" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="130"/>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="150" t="s">
         <v>248</v>
       </c>
       <c r="F9" s="143" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="130"/>
       <c r="B10" s="130" t="s">
         <v>246</v>
       </c>
       <c r="C10" s="130"/>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="150" t="s">
         <v>408</v>
       </c>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="150" t="s">
         <v>409</v>
       </c>
       <c r="F10" s="143" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="130"/>
       <c r="B11" s="130" t="s">
         <v>249</v>
       </c>
       <c r="C11" s="130"/>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="E11" s="164" t="s">
+      <c r="E11" s="150" t="s">
         <v>251</v>
       </c>
       <c r="F11" s="143" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" s="128"/>
       <c r="B12" s="128" t="s">
         <v>414</v>
       </c>
       <c r="C12" s="128"/>
-      <c r="D12" s="173" t="s">
+      <c r="D12" s="159" t="s">
         <v>417</v>
       </c>
-      <c r="E12" s="173" t="s">
+      <c r="E12" s="159" t="s">
         <v>418</v>
       </c>
-      <c r="F12" s="174" t="s">
+      <c r="F12" s="160" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169" t="s">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A13" s="155"/>
+      <c r="B13" s="155" t="s">
         <v>253</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170" t="s">
+      <c r="C13" s="155"/>
+      <c r="D13" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="E13" s="170" t="s">
+      <c r="E13" s="156" t="s">
         <v>255</v>
       </c>
-      <c r="F13" s="171" t="s">
+      <c r="F13" s="157" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="161" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="147" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="147" t="s">
         <v>258</v>
       </c>
-      <c r="C14" s="161" t="s">
+      <c r="C14" s="147" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="162" t="s">
+      <c r="D14" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="148" t="s">
         <v>261</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="147" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.25" thickBot="1">
       <c r="A15" s="65" t="s">
         <v>263</v>
       </c>
@@ -11994,7 +11993,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="67"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -12018,17 +12017,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12" style="133" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="133" customWidth="1"/>
@@ -12039,14 +12036,14 @@
     <col min="15" max="20" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8">
       <c r="D2" s="145"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="152" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="191" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="191"/>
       <c r="D3" s="141" t="s">
         <v>454</v>
       </c>
@@ -12063,11 +12060,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="153" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="193"/>
       <c r="D4" s="144" t="s">
         <v>453</v>
       </c>
@@ -12080,15 +12077,15 @@
       <c r="G4" s="135" t="s">
         <v>451</v>
       </c>
-      <c r="H4" s="176" t="s">
+      <c r="H4" s="162" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="155" t="s">
+    <row r="5" spans="2:8">
+      <c r="B5" s="194" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="161" t="s">
         <v>457</v>
       </c>
       <c r="D5" s="144" t="s">
@@ -12105,9 +12102,9 @@
       </c>
       <c r="H5" s="136"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="156"/>
-      <c r="C6" s="175" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="195"/>
+      <c r="C6" s="161" t="s">
         <v>458</v>
       </c>
       <c r="D6" s="143" t="s">
@@ -12126,29 +12123,29 @@
         <v>463</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
+    <row r="7" spans="2:8">
+      <c r="B7" s="166"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="60"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="152" t="s">
+      <c r="E8" s="168"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="191" t="s">
         <v>443</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="191"/>
       <c r="D10" s="141" t="s">
         <v>442</v>
       </c>
@@ -12165,11 +12162,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="151" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="190" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="151"/>
+      <c r="C11" s="190"/>
       <c r="D11" s="130" t="s">
         <v>436</v>
       </c>
@@ -12186,11 +12183,11 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="B12" s="151" t="s">
+    <row r="12" spans="2:8" ht="66">
+      <c r="B12" s="190" t="s">
         <v>435</v>
       </c>
-      <c r="C12" s="151"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="130" t="s">
         <v>434</v>
       </c>
@@ -12203,15 +12200,15 @@
       <c r="G12" s="136">
         <v>8</v>
       </c>
-      <c r="H12" s="177" t="s">
+      <c r="H12" s="163" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="151" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="190" t="s">
         <v>431</v>
       </c>
-      <c r="C13" s="151"/>
+      <c r="C13" s="190"/>
       <c r="D13" s="130" t="s">
         <v>430</v>
       </c>
@@ -12224,13 +12221,13 @@
       <c r="G13" s="136">
         <v>4</v>
       </c>
-      <c r="H13" s="178"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="151" t="s">
+      <c r="H13" s="164"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="190" t="s">
         <v>429</v>
       </c>
-      <c r="C14" s="151"/>
+      <c r="C14" s="190"/>
       <c r="D14" s="130" t="s">
         <v>428</v>
       </c>
@@ -12243,15 +12240,15 @@
       <c r="G14" s="136">
         <v>6</v>
       </c>
-      <c r="H14" s="179" t="s">
+      <c r="H14" s="165" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="151" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="190" t="s">
         <v>426</v>
       </c>
-      <c r="C15" s="151"/>
+      <c r="C15" s="190"/>
       <c r="D15" s="140"/>
       <c r="E15" s="139" t="s">
         <v>425</v>
@@ -12262,13 +12259,13 @@
       <c r="G15" s="137">
         <v>3</v>
       </c>
-      <c r="H15" s="176"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="151" t="s">
+      <c r="H15" s="162"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="190" t="s">
         <v>423</v>
       </c>
-      <c r="C16" s="151"/>
+      <c r="C16" s="190"/>
       <c r="D16" s="130" t="s">
         <v>459</v>
       </c>
@@ -12283,97 +12280,97 @@
       </c>
       <c r="H16" s="134"/>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8">
       <c r="C19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8">
       <c r="C20"/>
       <c r="E20"/>
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8">
       <c r="C21"/>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8">
       <c r="C22"/>
       <c r="E22"/>
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8">
       <c r="C23"/>
       <c r="E23"/>
       <c r="G23"/>
       <c r="H23"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8">
       <c r="C24"/>
       <c r="E24"/>
       <c r="G24"/>
       <c r="H24"/>
     </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8">
       <c r="C25"/>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8">
       <c r="C26"/>
       <c r="E26"/>
       <c r="G26"/>
       <c r="H26"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8">
       <c r="C27"/>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8">
       <c r="C28"/>
       <c r="E28"/>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8">
       <c r="C29"/>
       <c r="E29"/>
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8">
       <c r="C30"/>
       <c r="E30"/>
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8">
       <c r="C31"/>
       <c r="E31"/>
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8">
       <c r="C32"/>
       <c r="E32"/>
       <c r="G32"/>
       <c r="H32"/>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8">
       <c r="C33"/>
       <c r="E33"/>
       <c r="G33"/>
       <c r="H33"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8">
       <c r="C34"/>
       <c r="E34"/>
       <c r="G34"/>
@@ -12399,7 +12396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12412,7 +12409,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="60.75" style="73" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="73" customWidth="1"/>
@@ -12423,14 +12420,14 @@
     <col min="7" max="16384" width="12.625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="188" t="s">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1">
+      <c r="A1" s="174" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="174" t="s">
         <v>290</v>
       </c>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="174" t="s">
         <v>289</v>
       </c>
       <c r="D1" s="80" t="s">
@@ -12443,57 +12440,57 @@
         <v>295</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="12.75">
       <c r="A2" s="77"/>
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="177" t="s">
         <v>286</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="177" t="s">
         <v>268</v>
       </c>
-      <c r="E2" s="191" t="s">
+      <c r="E2" s="177" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="194" t="s">
+      <c r="F2" s="180" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.75">
       <c r="A3" s="74"/>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="178" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="192" t="s">
+      <c r="C3" s="178" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="192" t="s">
+      <c r="D3" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="192" t="s">
+      <c r="E3" s="178" t="s">
         <v>78</v>
       </c>
       <c r="F3" s="74"/>
     </row>
-    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.5" thickBot="1">
       <c r="A4" s="79"/>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="193" t="s">
+      <c r="C4" s="179" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="193" t="s">
+      <c r="D4" s="179" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="193" t="s">
+      <c r="E4" s="179" t="s">
         <v>78</v>
       </c>
       <c r="F4" s="79"/>
     </row>
-    <row r="5" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="13.5" thickTop="1">
       <c r="A5" s="78" t="s">
         <v>282</v>
       </c>
@@ -12511,7 +12508,7 @@
       </c>
       <c r="F5" s="77"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="12.75">
       <c r="A6" s="76" t="s">
         <v>274</v>
       </c>
@@ -12529,7 +12526,7 @@
       </c>
       <c r="F6" s="74"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="12.75">
       <c r="A7" s="76" t="s">
         <v>278</v>
       </c>
@@ -12545,7 +12542,7 @@
       </c>
       <c r="F7" s="74"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75">
       <c r="A8" s="75"/>
       <c r="B8" s="74" t="s">
         <v>276</v>
@@ -12559,7 +12556,7 @@
       </c>
       <c r="F8" s="74"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="12.75">
       <c r="A9" s="76" t="s">
         <v>274</v>
       </c>
@@ -12577,7 +12574,7 @@
       </c>
       <c r="F9" s="74"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="12.75">
       <c r="A10" s="75" t="s">
         <v>271</v>
       </c>
@@ -12595,7 +12592,7 @@
       </c>
       <c r="F10" s="74"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="12.75">
       <c r="A11" s="74"/>
       <c r="B11" s="74" t="s">
         <v>267</v>
@@ -12607,7 +12604,7 @@
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="12.75"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기능별 분류맵(안).xlsx
+++ b/기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="3"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="557">
   <si>
     <t>경기천년 기념사업</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1228,14 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현장관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공연운영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로그램운영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2151,20 +2143,6 @@
 도민창의대회</t>
   </si>
   <si>
-    <t>현장안전관리 / 자원봉사자 / 유관기관 협력 등</t>
-  </si>
-  <si>
-    <t>Rock 1001 Festa(樂千)
-새천년 맞이 대동제
-숲속음악회
-어린이공연 선물
-edm파티</t>
-  </si>
-  <si>
-    <t>온라인 / 오프라인
-홍보물 : 포스터, 현수막, 리플렛, 영상물 제작</t>
-  </si>
-  <si>
     <t>발대식 / 기자단 운영 / 수료식 / 만족도 조사</t>
   </si>
   <si>
@@ -2192,11 +2170,6 @@
 디자인표준편람 제작 및 배포</t>
   </si>
   <si>
-    <t>윈터마켓
-체험공간
-아트웍</t>
-  </si>
-  <si>
     <t>슬로건엠블럼 홍보 도민설명회 운영</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2431,11 +2404,35 @@
     <t>워크숍.학술대회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Rock 1001 Festa(樂千)
+새천년 맞이 대동제
+숲속음악회
+어린이공연 선물
+edm파티
+윈터마켓
+체험공간
+아트웍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축제홍보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장안전관리 / 자원봉사자 / 유관기관 협력 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인 / 오프라인
+홍보물 : 포스터, 현수막, 리플렛, 영상물 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="43">
     <font>
       <sz val="11"/>
@@ -3195,7 +3192,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3679,48 +3676,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3803,6 +3758,52 @@
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3910,7 +3911,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3945,7 +3945,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4121,16 +4120,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:N1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4159,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F1" s="92" t="s">
         <v>9</v>
@@ -4224,7 +4223,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F4" s="14"/>
       <c r="L4" s="1"/>
@@ -4503,8 +4502,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
+      <c r="A20" s="185" t="s">
+        <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -4535,8 +4534,8 @@
       <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>311</v>
+      <c r="E21" s="186" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="8" customFormat="1">
@@ -4552,8 +4551,8 @@
       <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>312</v>
+      <c r="E22" s="186" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="8" customFormat="1">
@@ -4569,9 +4568,6 @@
       <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>313</v>
-      </c>
     </row>
     <row r="24" spans="1:6" s="8" customFormat="1">
       <c r="A24" s="2" t="s">
@@ -4614,8 +4610,8 @@
       <c r="D26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>470</v>
+      <c r="E26" s="187" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1">
@@ -4652,7 +4648,7 @@
         <v>31</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4665,11 +4661,11 @@
       <c r="C29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="183" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4706,7 +4702,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4737,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4826,7 +4822,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4877,7 +4873,7 @@
         <v>52</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4894,7 +4890,7 @@
         <v>53</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4911,7 +4907,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4948,7 +4944,7 @@
         <v>56</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4965,7 +4961,7 @@
         <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -4982,7 +4978,7 @@
         <v>58</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5019,7 +5015,7 @@
         <v>60</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5071,7 +5067,7 @@
         <v>63</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5088,7 +5084,7 @@
         <v>64</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -5125,7 +5121,7 @@
         <v>66</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1">
@@ -5162,7 +5158,7 @@
         <v>68</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5196,10 +5192,10 @@
         <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5213,10 +5209,10 @@
         <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -5230,10 +5226,10 @@
         <v>69</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1">
@@ -5241,13 +5237,13 @@
         <v>0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
@@ -5261,16 +5257,16 @@
         <v>0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D63" s="169" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1">
@@ -5278,16 +5274,16 @@
         <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D64" s="169" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -5295,27 +5291,27 @@
         <v>0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D65" s="87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="75" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5347,16 +5343,16 @@
         <v>277</v>
       </c>
       <c r="D1" s="168" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E1" s="168" t="s">
         <v>293</v>
       </c>
       <c r="F1" s="168" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G1" s="168" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -5368,7 +5364,7 @@
       <c r="D2" s="125"/>
       <c r="E2" s="125"/>
       <c r="F2" s="125" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G2" s="125"/>
     </row>
@@ -5377,7 +5373,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C3" s="77" t="s">
         <v>281</v>
@@ -5387,10 +5383,10 @@
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -5408,10 +5404,10 @@
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="77" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G4" s="176" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -5425,26 +5421,27 @@
         <v>287</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G5" s="77"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5492,11 +5489,11 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="193" t="s">
+      <c r="C2" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>305</v>
@@ -5505,7 +5502,7 @@
         <v>309</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -5516,16 +5513,16 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="194" t="s">
-        <v>471</v>
+      <c r="C3" s="180" t="s">
+        <v>469</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="180" t="s">
         <v>306</v>
       </c>
       <c r="G3" s="3"/>
@@ -5538,11 +5535,11 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="195" t="s">
-        <v>469</v>
+      <c r="C4" s="181" t="s">
+        <v>467</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>305</v>
@@ -5560,11 +5557,11 @@
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="195" t="s">
-        <v>472</v>
+      <c r="C5" s="181" t="s">
+        <v>470</v>
       </c>
       <c r="D5" s="85" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>305</v>
@@ -5582,11 +5579,11 @@
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="197" t="s">
-        <v>473</v>
+      <c r="C6" s="183" t="s">
+        <v>471</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>305</v>
@@ -5604,11 +5601,11 @@
       <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="90" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>305</v>
@@ -5617,7 +5614,7 @@
         <v>306</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -5632,7 +5629,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="80"/>
@@ -5650,7 +5647,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="80"/>
@@ -5668,7 +5665,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="88" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="82"/>
@@ -5682,11 +5679,11 @@
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D11" s="90" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>305</v>
@@ -5695,7 +5692,7 @@
         <v>306</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -5710,7 +5707,7 @@
         <v>296</v>
       </c>
       <c r="D12" s="85" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="80"/>
@@ -5728,7 +5725,7 @@
         <v>297</v>
       </c>
       <c r="D13" s="89" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="80"/>
@@ -5746,7 +5743,7 @@
         <v>298</v>
       </c>
       <c r="D14" s="85" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="80"/>
@@ -5754,22 +5751,22 @@
       <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8" s="91" customFormat="1" ht="41.25" thickBot="1">
-      <c r="A15" s="197" t="s">
+      <c r="A15" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="197" t="s">
+      <c r="B15" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="196" t="s">
+      <c r="C15" s="182" t="s">
         <v>300</v>
       </c>
       <c r="D15" s="88" t="s">
-        <v>492</v>
-      </c>
-      <c r="E15" s="196"/>
+        <v>490</v>
+      </c>
+      <c r="E15" s="182"/>
       <c r="F15" s="82"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
+      <c r="G15" s="182"/>
+      <c r="H15" s="182"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -5778,11 +5775,11 @@
       <c r="B16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="193" t="s">
+      <c r="C16" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>305</v>
@@ -5791,7 +5788,7 @@
         <v>306</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -5806,7 +5803,7 @@
         <v>295</v>
       </c>
       <c r="D17" s="85" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="80"/>
@@ -5824,7 +5821,7 @@
         <v>299</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="82"/>
@@ -5838,11 +5835,11 @@
       <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>305</v>
@@ -5851,7 +5848,7 @@
         <v>306</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -5862,70 +5859,76 @@
       <c r="B20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>311</v>
+      <c r="C20" s="186" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="85" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="80"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" ht="67.5">
+    <row r="21" spans="1:8" ht="108">
       <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>312</v>
+      <c r="C21" s="186" t="s">
+        <v>311</v>
       </c>
       <c r="D21" s="89" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="80"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" ht="40.5">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:8" ht="27.75" thickBot="1">
+      <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D22" s="89" t="s">
-        <v>502</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" ht="27.75" thickBot="1">
-      <c r="A23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D23" s="88" t="s">
-        <v>495</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="C22" s="187" t="s">
+        <v>554</v>
+      </c>
+      <c r="D22" s="88" t="s">
+        <v>556</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
@@ -5934,56 +5937,56 @@
       <c r="B24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>479</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D26" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F24" s="79" t="s">
+      <c r="F26" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>481</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D26" s="87"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="G26" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
@@ -5992,80 +5995,80 @@
       <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="193" t="s">
+      <c r="C27" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" s="91" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A29" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="182" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D29" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E29" s="183" t="s">
         <v>305</v>
       </c>
-      <c r="F27" s="79" t="s">
+      <c r="F29" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="G29" s="183" t="s">
+        <v>456</v>
+      </c>
+      <c r="H29" s="183"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>496</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" s="91" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A30" s="197" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="196" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="193" t="s">
+      <c r="B30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D30" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E30" s="197" t="s">
+        <v>507</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="G30" s="197" t="s">
-        <v>458</v>
-      </c>
-      <c r="H30" s="197"/>
+      <c r="G30" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
@@ -6074,84 +6077,78 @@
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="193" t="s">
+      <c r="C31" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>480</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="41.25" thickBot="1">
+      <c r="A32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D33" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F31" s="79" t="s">
+      <c r="F33" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>482</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-    </row>
-    <row r="33" spans="1:8" ht="41.25" thickBot="1">
-      <c r="A33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="D33" s="88" t="s">
-        <v>497</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="G33" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" ht="67.5">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F34" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="67.5">
+      <c r="C34" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>493</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="27">
       <c r="A35" s="2" t="s">
         <v>26</v>
       </c>
@@ -6159,51 +6156,57 @@
         <v>50</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D35" s="89" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="80"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
     </row>
-    <row r="36" spans="1:8" ht="27">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A36" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D36" s="89" t="s">
-        <v>499</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A37" s="7" t="s">
+      <c r="C36" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="177" t="s">
+        <v>495</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D37" s="191" t="s">
-        <v>500</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="B37" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
@@ -6212,24 +6215,18 @@
       <c r="B38" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="D38" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F38" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="C38" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>482</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" spans="1:8" ht="40.5">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -6237,386 +6234,368 @@
         <v>55</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>484</v>
+        <v>473</v>
+      </c>
+      <c r="D39" s="89" t="s">
+        <v>496</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="80"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
     </row>
-    <row r="40" spans="1:8" ht="40.5">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A40" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="D40" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A41" s="7" t="s">
+      <c r="C40" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>497</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="87" t="s">
-        <v>503</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" s="91" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A42" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="182" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="193" t="s">
+      <c r="C42" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="182"/>
+      <c r="H42" s="182"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D43" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F42" s="79" t="s">
+      <c r="F43" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" s="91" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A43" s="197" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="196" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="196" t="s">
-        <v>321</v>
-      </c>
-      <c r="D43" s="87"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="G43" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="67.5">
       <c r="A44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="193" t="s">
+      <c r="C44" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>498</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D45" s="87"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E44" s="2" t="s">
+      <c r="D46" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F44" s="79" t="s">
+      <c r="F46" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="41.25" thickBot="1">
+      <c r="A47" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>499</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="41.25" thickBot="1">
+      <c r="A49" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D49" s="88" t="s">
+        <v>500</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="82"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="179" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="79" t="s">
+        <v>306</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" s="178" customFormat="1">
+      <c r="A51" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="185" t="s">
+        <v>460</v>
+      </c>
+      <c r="D51" s="90" t="s">
+        <v>501</v>
+      </c>
+      <c r="E51" s="179"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="179"/>
+      <c r="H51" s="179"/>
+    </row>
+    <row r="52" spans="1:8" s="178" customFormat="1" ht="27">
+      <c r="A52" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="186" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="185" t="s">
+        <v>464</v>
+      </c>
+      <c r="D52" s="90" t="s">
+        <v>502</v>
+      </c>
+      <c r="E52" s="179"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="179"/>
+      <c r="H52" s="179"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" thickBot="1">
+      <c r="A53" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="187" t="s">
         <v>458</v>
       </c>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="67.5">
-      <c r="A45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="89" t="s">
-        <v>504</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="D46" s="87"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="193" t="s">
+      <c r="D53" s="87" t="s">
+        <v>503</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="13.5">
+      <c r="A54" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="D47" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F47" s="79" t="s">
+      <c r="D54" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="41.25" thickBot="1">
-      <c r="A48" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D48" s="88" t="s">
-        <v>505</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F49" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="41.25" thickBot="1">
-      <c r="A50" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="D50" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="82"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" s="192" customFormat="1">
-      <c r="A52" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="200" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="199" t="s">
-        <v>462</v>
-      </c>
-      <c r="D52" s="90" t="s">
-        <v>507</v>
-      </c>
-      <c r="E52" s="193"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="193"/>
-    </row>
-    <row r="53" spans="1:8" s="192" customFormat="1" ht="27">
-      <c r="A53" s="199" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="200" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="199" t="s">
-        <v>466</v>
-      </c>
-      <c r="D53" s="90" t="s">
-        <v>508</v>
-      </c>
-      <c r="E53" s="193"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="193"/>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" thickBot="1">
-      <c r="A54" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="201" t="s">
-        <v>460</v>
-      </c>
-      <c r="D54" s="87" t="s">
-        <v>509</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
+      <c r="G54" s="2" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" ht="13.5">
       <c r="A55" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="193" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" s="90" t="s">
-        <v>513</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="79" t="s">
-        <v>306</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>458</v>
+      <c r="C55" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" ht="13.5">
       <c r="A56" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>451</v>
+        <v>474</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="13.5">
-      <c r="A57" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B57" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
+      <c r="A57" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
-      <c r="A58" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>512</v>
+      <c r="C57" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6641,60 +6620,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="217" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
     </row>
     <row r="2" spans="1:14" s="58" customFormat="1" ht="20.25">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="218" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
     </row>
     <row r="3" spans="1:14" ht="17.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="179" t="s">
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="18" t="s">
@@ -7822,13 +7801,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -7854,10 +7833,10 @@
         <v>70</v>
       </c>
       <c r="D1" s="98" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E1" s="98" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F1" s="98" t="s">
         <v>9</v>
@@ -7877,7 +7856,7 @@
         <v>136</v>
       </c>
       <c r="D2" s="104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
@@ -7894,7 +7873,7 @@
         <v>136</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E3" s="101"/>
       <c r="F3" s="101"/>
@@ -7926,7 +7905,7 @@
         <v>136</v>
       </c>
       <c r="D5" s="112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E5" s="113"/>
       <c r="F5" s="113"/>
@@ -7943,7 +7922,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="107" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E6" s="101"/>
       <c r="F6" s="101"/>
@@ -7960,7 +7939,7 @@
         <v>147</v>
       </c>
       <c r="D7" s="107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E7" s="101"/>
       <c r="F7" s="101"/>
@@ -7977,7 +7956,7 @@
         <v>147</v>
       </c>
       <c r="D8" s="107" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E8" s="101"/>
       <c r="F8" s="101"/>
@@ -7994,7 +7973,7 @@
         <v>147</v>
       </c>
       <c r="D9" s="107" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E9" s="101"/>
       <c r="F9" s="101"/>
@@ -8011,7 +7990,7 @@
         <v>147</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E10" s="113"/>
       <c r="F10" s="113"/>
@@ -8028,7 +8007,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E11" s="101"/>
       <c r="F11" s="101"/>
@@ -8045,7 +8024,7 @@
         <v>150</v>
       </c>
       <c r="D12" s="104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E12" s="101"/>
       <c r="F12" s="101"/>
@@ -8062,7 +8041,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="112" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E13" s="113"/>
       <c r="F13" s="113"/>
@@ -8076,7 +8055,7 @@
         <v>276</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D14" s="110"/>
       <c r="E14" s="101"/>
@@ -8091,7 +8070,7 @@
         <v>276</v>
       </c>
       <c r="C15" s="118" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D15" s="119"/>
       <c r="E15" s="113"/>
@@ -8106,10 +8085,10 @@
         <v>276</v>
       </c>
       <c r="C16" s="100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D16" s="104" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E16" s="101"/>
       <c r="F16" s="101"/>
@@ -8123,10 +8102,10 @@
         <v>276</v>
       </c>
       <c r="C17" s="100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D17" s="104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E17" s="101"/>
       <c r="F17" s="101"/>
@@ -8140,10 +8119,10 @@
         <v>276</v>
       </c>
       <c r="C18" s="103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D18" s="112" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E18" s="113"/>
       <c r="F18" s="113"/>
@@ -8157,10 +8136,10 @@
         <v>273</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
@@ -8174,7 +8153,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D20" s="104"/>
       <c r="E20" s="101"/>
@@ -8189,10 +8168,10 @@
         <v>273</v>
       </c>
       <c r="C21" s="100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E21" s="101"/>
       <c r="F21" s="101"/>
@@ -8206,10 +8185,10 @@
         <v>273</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D22" s="104" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E22" s="101"/>
       <c r="F22" s="101"/>
@@ -8223,7 +8202,7 @@
         <v>273</v>
       </c>
       <c r="C23" s="103" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D23" s="112"/>
       <c r="E23" s="113"/>
@@ -8238,10 +8217,10 @@
         <v>273</v>
       </c>
       <c r="C24" s="100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D24" s="104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E24" s="101"/>
       <c r="F24" s="101"/>
@@ -8255,10 +8234,10 @@
         <v>273</v>
       </c>
       <c r="C25" s="100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D25" s="104" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E25" s="101"/>
       <c r="F25" s="101"/>
@@ -8272,7 +8251,7 @@
         <v>273</v>
       </c>
       <c r="C26" s="103" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D26" s="120"/>
       <c r="E26" s="113"/>
@@ -8290,7 +8269,7 @@
         <v>126</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E27" s="101"/>
       <c r="F27" s="101"/>
@@ -8307,7 +8286,7 @@
         <v>126</v>
       </c>
       <c r="D28" s="104" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E28" s="101"/>
       <c r="F28" s="101"/>
@@ -8339,7 +8318,7 @@
         <v>128</v>
       </c>
       <c r="D30" s="104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E30" s="101"/>
       <c r="F30" s="101"/>
@@ -8398,10 +8377,10 @@
         <v>273</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D34" s="104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E34" s="101"/>
       <c r="F34" s="101"/>
@@ -8415,10 +8394,10 @@
         <v>273</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E35" s="101"/>
       <c r="F35" s="101"/>
@@ -8432,7 +8411,7 @@
         <v>273</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D36" s="112"/>
       <c r="E36" s="113"/>
@@ -8447,10 +8426,10 @@
         <v>273</v>
       </c>
       <c r="C37" s="100" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D37" s="104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E37" s="101"/>
       <c r="F37" s="101"/>
@@ -8464,7 +8443,7 @@
         <v>273</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D38" s="112"/>
       <c r="E38" s="113"/>
@@ -8482,7 +8461,7 @@
         <v>110</v>
       </c>
       <c r="D39" s="104" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E39" s="101"/>
       <c r="F39" s="101"/>
@@ -8499,7 +8478,7 @@
         <v>110</v>
       </c>
       <c r="D40" s="104" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E40" s="101"/>
       <c r="F40" s="101"/>
@@ -8531,7 +8510,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E42" s="101"/>
       <c r="F42" s="101"/>
@@ -8563,7 +8542,7 @@
         <v>118</v>
       </c>
       <c r="D44" s="112" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E44" s="113"/>
       <c r="F44" s="113"/>
@@ -8580,7 +8559,7 @@
         <v>130</v>
       </c>
       <c r="D45" s="104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E45" s="101"/>
       <c r="F45" s="101"/>
@@ -8597,7 +8576,7 @@
         <v>130</v>
       </c>
       <c r="D46" s="112" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E46" s="113"/>
       <c r="F46" s="113"/>
@@ -8611,10 +8590,10 @@
         <v>273</v>
       </c>
       <c r="C47" s="100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D47" s="104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E47" s="101"/>
       <c r="F47" s="101"/>
@@ -8628,10 +8607,10 @@
         <v>273</v>
       </c>
       <c r="C48" s="100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E48" s="101"/>
       <c r="F48" s="101"/>
@@ -8645,10 +8624,10 @@
         <v>273</v>
       </c>
       <c r="C49" s="103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D49" s="112" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E49" s="113"/>
       <c r="F49" s="113"/>
@@ -8662,10 +8641,10 @@
         <v>273</v>
       </c>
       <c r="C50" s="122" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D50" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
@@ -8679,10 +8658,10 @@
         <v>273</v>
       </c>
       <c r="C51" s="122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D51" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
@@ -8693,7 +8672,7 @@
         <v>190</v>
       </c>
       <c r="B52" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C52" s="100" t="s">
         <v>160</v>
@@ -8708,7 +8687,7 @@
         <v>190</v>
       </c>
       <c r="B53" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C53" s="100" t="s">
         <v>160</v>
@@ -8723,7 +8702,7 @@
         <v>190</v>
       </c>
       <c r="B54" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C54" s="100" t="s">
         <v>160</v>
@@ -8738,7 +8717,7 @@
         <v>190</v>
       </c>
       <c r="B55" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C55" s="100" t="s">
         <v>160</v>
@@ -8753,7 +8732,7 @@
         <v>190</v>
       </c>
       <c r="B56" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C56" s="103" t="s">
         <v>160</v>
@@ -8768,10 +8747,10 @@
         <v>190</v>
       </c>
       <c r="B57" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C57" s="100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D57" s="111"/>
       <c r="E57" s="101"/>
@@ -8783,10 +8762,10 @@
         <v>190</v>
       </c>
       <c r="B58" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C58" s="100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D58" s="111"/>
       <c r="E58" s="101"/>
@@ -8798,10 +8777,10 @@
         <v>190</v>
       </c>
       <c r="B59" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C59" s="103" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D59" s="120"/>
       <c r="E59" s="113"/>
@@ -8813,13 +8792,13 @@
         <v>190</v>
       </c>
       <c r="B60" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C60" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D60" s="104" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E60" s="101"/>
       <c r="F60" s="101"/>
@@ -8830,13 +8809,13 @@
         <v>190</v>
       </c>
       <c r="B61" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C61" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D61" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E61" s="101"/>
       <c r="F61" s="101"/>
@@ -8847,13 +8826,13 @@
         <v>190</v>
       </c>
       <c r="B62" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C62" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D62" s="104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E62" s="101"/>
       <c r="F62" s="101"/>
@@ -8864,7 +8843,7 @@
         <v>190</v>
       </c>
       <c r="B63" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C63" s="100" t="s">
         <v>162</v>
@@ -8879,13 +8858,13 @@
         <v>190</v>
       </c>
       <c r="B64" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C64" s="100" t="s">
         <v>162</v>
       </c>
       <c r="D64" s="104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E64" s="101"/>
       <c r="F64" s="101"/>
@@ -8896,13 +8875,13 @@
         <v>190</v>
       </c>
       <c r="B65" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C65" s="103" t="s">
         <v>162</v>
       </c>
       <c r="D65" s="112" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E65" s="113"/>
       <c r="F65" s="113"/>
@@ -8913,13 +8892,13 @@
         <v>190</v>
       </c>
       <c r="B66" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" s="100" t="s">
         <v>158</v>
       </c>
       <c r="D66" s="104" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E66" s="101"/>
       <c r="F66" s="101"/>
@@ -8930,13 +8909,13 @@
         <v>190</v>
       </c>
       <c r="B67" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C67" s="100" t="s">
         <v>158</v>
       </c>
       <c r="D67" s="104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E67" s="101"/>
       <c r="F67" s="101"/>
@@ -8947,7 +8926,7 @@
         <v>190</v>
       </c>
       <c r="B68" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C68" s="100" t="s">
         <v>158</v>
@@ -8962,7 +8941,7 @@
         <v>190</v>
       </c>
       <c r="B69" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C69" s="103" t="s">
         <v>158</v>
@@ -8977,7 +8956,7 @@
         <v>190</v>
       </c>
       <c r="B70" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C70" s="100" t="s">
         <v>228</v>
@@ -8992,7 +8971,7 @@
         <v>190</v>
       </c>
       <c r="B71" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C71" s="100" t="s">
         <v>228</v>
@@ -9007,7 +8986,7 @@
         <v>190</v>
       </c>
       <c r="B72" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C72" s="100" t="s">
         <v>228</v>
@@ -9022,7 +9001,7 @@
         <v>190</v>
       </c>
       <c r="B73" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C73" s="100" t="s">
         <v>228</v>
@@ -9037,7 +9016,7 @@
         <v>190</v>
       </c>
       <c r="B74" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C74" s="103" t="s">
         <v>228</v>
@@ -9060,7 +9039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -9113,7 +9092,7 @@
         <v>136</v>
       </c>
       <c r="C2" s="104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D2" s="104"/>
       <c r="E2" s="104"/>
@@ -9129,7 +9108,7 @@
         <v>136</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
@@ -9159,7 +9138,7 @@
         <v>136</v>
       </c>
       <c r="C5" s="112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D5" s="112"/>
       <c r="E5" s="112"/>
@@ -9175,7 +9154,7 @@
         <v>147</v>
       </c>
       <c r="C6" s="107" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D6" s="107"/>
       <c r="E6" s="107"/>
@@ -9191,7 +9170,7 @@
         <v>147</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D7" s="107"/>
       <c r="E7" s="107"/>
@@ -9207,7 +9186,7 @@
         <v>147</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D8" s="107"/>
       <c r="E8" s="107"/>
@@ -9223,7 +9202,7 @@
         <v>147</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D9" s="107"/>
       <c r="E9" s="107"/>
@@ -9239,7 +9218,7 @@
         <v>147</v>
       </c>
       <c r="C10" s="116" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="116"/>
@@ -9255,7 +9234,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D11" s="104"/>
       <c r="E11" s="104"/>
@@ -9271,7 +9250,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D12" s="104"/>
       <c r="E12" s="104"/>
@@ -9287,7 +9266,7 @@
         <v>150</v>
       </c>
       <c r="C13" s="112" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D13" s="112"/>
       <c r="E13" s="112"/>
@@ -9300,7 +9279,7 @@
         <v>276</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="110"/>
@@ -9314,7 +9293,7 @@
         <v>276</v>
       </c>
       <c r="B15" s="109" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C15" s="110"/>
       <c r="D15" s="110"/>
@@ -9340,10 +9319,10 @@
         <v>276</v>
       </c>
       <c r="B17" s="100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C17" s="104" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D17" s="104"/>
       <c r="E17" s="104"/>
@@ -9356,10 +9335,10 @@
         <v>276</v>
       </c>
       <c r="B18" s="100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C18" s="104" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D18" s="104"/>
       <c r="E18" s="104"/>
@@ -9372,10 +9351,10 @@
         <v>276</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C19" s="112" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D19" s="112"/>
       <c r="E19" s="112"/>
@@ -9388,7 +9367,7 @@
         <v>276</v>
       </c>
       <c r="B20" s="100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C20" s="111"/>
       <c r="D20" s="111"/>
@@ -9402,7 +9381,7 @@
         <v>276</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C21" s="111"/>
       <c r="D21" s="111"/>
@@ -9416,7 +9395,7 @@
         <v>276</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C22" s="111"/>
       <c r="D22" s="111"/>
@@ -9430,7 +9409,7 @@
         <v>276</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C23" s="111"/>
       <c r="D23" s="111"/>
@@ -9444,7 +9423,7 @@
         <v>276</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C24" s="111"/>
       <c r="D24" s="111"/>
@@ -9458,7 +9437,7 @@
         <v>276</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C25" s="120"/>
       <c r="D25" s="120"/>
@@ -9486,7 +9465,7 @@
         <v>276</v>
       </c>
       <c r="B27" s="100" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C27" s="111"/>
       <c r="D27" s="111"/>
@@ -9500,7 +9479,7 @@
         <v>276</v>
       </c>
       <c r="B28" s="103" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C28" s="120"/>
       <c r="D28" s="120"/>
@@ -9514,10 +9493,10 @@
         <v>273</v>
       </c>
       <c r="B29" s="100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C29" s="104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D29" s="104"/>
       <c r="E29" s="104"/>
@@ -9530,7 +9509,7 @@
         <v>273</v>
       </c>
       <c r="B30" s="100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C30" s="104"/>
       <c r="D30" s="104"/>
@@ -9544,10 +9523,10 @@
         <v>273</v>
       </c>
       <c r="B31" s="100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C31" s="104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D31" s="104"/>
       <c r="E31" s="104"/>
@@ -9560,10 +9539,10 @@
         <v>273</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C32" s="104" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D32" s="104"/>
       <c r="E32" s="104"/>
@@ -9576,7 +9555,7 @@
         <v>273</v>
       </c>
       <c r="B33" s="103" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C33" s="112"/>
       <c r="D33" s="112"/>
@@ -9590,10 +9569,10 @@
         <v>273</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C34" s="104" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D34" s="104"/>
       <c r="E34" s="104"/>
@@ -9606,10 +9585,10 @@
         <v>273</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D35" s="104"/>
       <c r="E35" s="104"/>
@@ -9622,7 +9601,7 @@
         <v>273</v>
       </c>
       <c r="B36" s="103" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C36" s="120"/>
       <c r="D36" s="120"/>
@@ -9639,7 +9618,7 @@
         <v>126</v>
       </c>
       <c r="C37" s="104" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D37" s="104"/>
       <c r="E37" s="104"/>
@@ -9655,7 +9634,7 @@
         <v>126</v>
       </c>
       <c r="C38" s="104" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D38" s="104"/>
       <c r="E38" s="104"/>
@@ -9685,7 +9664,7 @@
         <v>128</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="104"/>
@@ -9740,10 +9719,10 @@
         <v>273</v>
       </c>
       <c r="B44" s="100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C44" s="104" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D44" s="104"/>
       <c r="E44" s="104"/>
@@ -9756,10 +9735,10 @@
         <v>273</v>
       </c>
       <c r="B45" s="100" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C45" s="104" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D45" s="104"/>
       <c r="E45" s="104"/>
@@ -9772,7 +9751,7 @@
         <v>273</v>
       </c>
       <c r="B46" s="103" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C46" s="112"/>
       <c r="D46" s="112"/>
@@ -9786,10 +9765,10 @@
         <v>273</v>
       </c>
       <c r="B47" s="100" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D47" s="104"/>
       <c r="E47" s="104"/>
@@ -9802,7 +9781,7 @@
         <v>273</v>
       </c>
       <c r="B48" s="103" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48" s="112"/>
       <c r="D48" s="112"/>
@@ -9819,7 +9798,7 @@
         <v>110</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D49" s="104"/>
       <c r="E49" s="104"/>
@@ -9835,7 +9814,7 @@
         <v>110</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="104"/>
@@ -9865,7 +9844,7 @@
         <v>118</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D52" s="104"/>
       <c r="E52" s="104"/>
@@ -9895,7 +9874,7 @@
         <v>118</v>
       </c>
       <c r="C54" s="112" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D54" s="112"/>
       <c r="E54" s="112"/>
@@ -9911,7 +9890,7 @@
         <v>130</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D55" s="104"/>
       <c r="E55" s="104"/>
@@ -9927,7 +9906,7 @@
         <v>130</v>
       </c>
       <c r="C56" s="112" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D56" s="112"/>
       <c r="E56" s="112"/>
@@ -9940,10 +9919,10 @@
         <v>273</v>
       </c>
       <c r="B57" s="100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D57" s="104"/>
       <c r="E57" s="104"/>
@@ -9956,10 +9935,10 @@
         <v>273</v>
       </c>
       <c r="B58" s="100" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C58" s="104" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D58" s="104"/>
       <c r="E58" s="104"/>
@@ -9972,10 +9951,10 @@
         <v>273</v>
       </c>
       <c r="B59" s="103" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C59" s="112" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D59" s="112"/>
       <c r="E59" s="112"/>
@@ -9988,10 +9967,10 @@
         <v>273</v>
       </c>
       <c r="B60" s="122" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C60" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D60" s="123"/>
       <c r="E60" s="123"/>
@@ -10004,10 +9983,10 @@
         <v>273</v>
       </c>
       <c r="B61" s="122" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C61" s="123" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D61" s="123"/>
       <c r="E61" s="123"/>
@@ -10017,7 +9996,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B62" s="100" t="s">
         <v>160</v>
@@ -10031,7 +10010,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B63" s="100" t="s">
         <v>160</v>
@@ -10045,7 +10024,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B64" s="100" t="s">
         <v>160</v>
@@ -10059,7 +10038,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B65" s="100" t="s">
         <v>160</v>
@@ -10073,7 +10052,7 @@
     </row>
     <row r="66" spans="1:8" ht="17.25" thickBot="1">
       <c r="A66" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B66" s="103" t="s">
         <v>160</v>
@@ -10087,10 +10066,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B67" s="100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C67" s="111"/>
       <c r="D67" s="111"/>
@@ -10101,10 +10080,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B68" s="100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C68" s="111"/>
       <c r="D68" s="111"/>
@@ -10115,10 +10094,10 @@
     </row>
     <row r="69" spans="1:8" ht="17.25" thickBot="1">
       <c r="A69" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B69" s="103" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C69" s="120"/>
       <c r="D69" s="120"/>
@@ -10129,13 +10108,13 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B70" s="100" t="s">
         <v>162</v>
       </c>
       <c r="C70" s="104" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D70" s="104"/>
       <c r="E70" s="104"/>
@@ -10145,13 +10124,13 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B71" s="100" t="s">
         <v>162</v>
       </c>
       <c r="C71" s="104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D71" s="104"/>
       <c r="E71" s="104"/>
@@ -10161,13 +10140,13 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B72" s="100" t="s">
         <v>162</v>
       </c>
       <c r="C72" s="104" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D72" s="104"/>
       <c r="E72" s="104"/>
@@ -10177,7 +10156,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B73" s="100" t="s">
         <v>162</v>
@@ -10191,13 +10170,13 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B74" s="100" t="s">
         <v>162</v>
       </c>
       <c r="C74" s="104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D74" s="104"/>
       <c r="E74" s="104"/>
@@ -10207,13 +10186,13 @@
     </row>
     <row r="75" spans="1:8" ht="17.25" thickBot="1">
       <c r="A75" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B75" s="103" t="s">
         <v>162</v>
       </c>
       <c r="C75" s="112" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D75" s="112"/>
       <c r="E75" s="112"/>
@@ -10223,13 +10202,13 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B76" s="100" t="s">
         <v>158</v>
       </c>
       <c r="C76" s="104" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D76" s="104"/>
       <c r="E76" s="104"/>
@@ -10239,13 +10218,13 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B77" s="100" t="s">
         <v>158</v>
       </c>
       <c r="C77" s="104" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D77" s="104"/>
       <c r="E77" s="104"/>
@@ -10255,7 +10234,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B78" s="100" t="s">
         <v>158</v>
@@ -10269,7 +10248,7 @@
     </row>
     <row r="79" spans="1:8" ht="17.25" thickBot="1">
       <c r="A79" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B79" s="103" t="s">
         <v>158</v>
@@ -10283,7 +10262,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B80" s="100" t="s">
         <v>228</v>
@@ -10297,7 +10276,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B81" s="100" t="s">
         <v>228</v>
@@ -10311,7 +10290,7 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B82" s="100" t="s">
         <v>228</v>
@@ -10325,7 +10304,7 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="99" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B83" s="100" t="s">
         <v>228</v>
@@ -10339,7 +10318,7 @@
     </row>
     <row r="84" spans="1:8" ht="17.25" thickBot="1">
       <c r="A84" s="102" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B84" s="103" t="s">
         <v>228</v>
@@ -10358,7 +10337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -10386,60 +10365,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
-      <c r="E1" s="177"/>
-      <c r="F1" s="177"/>
-      <c r="G1" s="177"/>
-      <c r="H1" s="177"/>
-      <c r="I1" s="177"/>
-      <c r="J1" s="177"/>
-      <c r="K1" s="177"/>
-      <c r="L1" s="177"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="177"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
     </row>
     <row r="2" spans="1:14" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="218" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
+      <c r="L2" s="218"/>
+      <c r="M2" s="218"/>
+      <c r="N2" s="218"/>
     </row>
     <row r="3" spans="1:14" ht="17.25" customHeight="1">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="219" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="179" t="s">
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="221"/>
+      <c r="H3" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
-      <c r="K3" s="180"/>
-      <c r="L3" s="180"/>
-      <c r="M3" s="180"/>
-      <c r="N3" s="181"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="221"/>
     </row>
     <row r="4" spans="1:14" ht="17.25" thickBot="1">
       <c r="A4" s="18" t="s">
@@ -12043,7 +12022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -12065,34 +12044,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="222" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="222" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="182" t="s">
+      <c r="C1" s="222" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="184" t="s">
+      <c r="D1" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="E1" s="184"/>
-      <c r="F1" s="182" t="s">
+      <c r="E1" s="224"/>
+      <c r="F1" s="222" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="183"/>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
+      <c r="A2" s="223"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
       <c r="D2" s="142" t="s">
         <v>234</v>
       </c>
       <c r="E2" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="183"/>
+      <c r="F2" s="223"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="143" t="s">
@@ -12107,21 +12086,21 @@
       <c r="D3" s="144"/>
       <c r="E3" s="144"/>
       <c r="F3" s="145" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="126"/>
       <c r="B4" s="126" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C4" s="126" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D4" s="146"/>
       <c r="E4" s="146"/>
       <c r="F4" s="139" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12129,15 +12108,15 @@
         <v>263</v>
       </c>
       <c r="B5" s="148" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" s="148" t="s">
         <v>391</v>
-      </c>
-      <c r="C5" s="148" t="s">
-        <v>393</v>
       </c>
       <c r="D5" s="149"/>
       <c r="E5" s="149"/>
       <c r="F5" s="150" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" thickBot="1">
@@ -12153,7 +12132,7 @@
       <c r="D6" s="152"/>
       <c r="E6" s="152"/>
       <c r="F6" s="153" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12173,15 +12152,15 @@
     <row r="8" spans="1:6" ht="79.5" customHeight="1">
       <c r="A8" s="143"/>
       <c r="B8" s="143" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C8" s="143"/>
       <c r="D8" s="144"/>
       <c r="E8" s="144" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F8" s="154" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -12197,7 +12176,7 @@
         <v>247</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -12207,13 +12186,13 @@
       </c>
       <c r="C10" s="126"/>
       <c r="D10" s="146" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="146" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="139" t="s">
         <v>386</v>
-      </c>
-      <c r="E10" s="146" t="s">
-        <v>387</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12235,14 +12214,14 @@
     <row r="12" spans="1:6">
       <c r="A12" s="124"/>
       <c r="B12" s="124" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C12" s="124"/>
       <c r="D12" s="155" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E12" s="155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F12" s="156" t="s">
         <v>255</v>
@@ -12328,7 +12307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -12351,87 +12330,87 @@
       <c r="D2" s="141"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="226" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="226"/>
+      <c r="D3" s="137" t="s">
+        <v>430</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>417</v>
+      </c>
+      <c r="F3" s="137" t="s">
+        <v>416</v>
+      </c>
+      <c r="G3" s="137" t="s">
+        <v>415</v>
+      </c>
+      <c r="H3" s="137" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="227" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="228"/>
+      <c r="D4" s="140" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="F4" s="131" t="s">
+        <v>420</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>427</v>
+      </c>
+      <c r="H4" s="158" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="229" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="157" t="s">
+        <v>432</v>
+      </c>
+      <c r="D5" s="140" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="131" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" s="131" t="s">
+        <v>423</v>
+      </c>
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="230"/>
+      <c r="C6" s="157" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="137" t="s">
-        <v>432</v>
-      </c>
-      <c r="E3" s="138" t="s">
-        <v>419</v>
-      </c>
-      <c r="F3" s="137" t="s">
-        <v>418</v>
-      </c>
-      <c r="G3" s="137" t="s">
-        <v>417</v>
-      </c>
-      <c r="H3" s="137" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" s="187" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="188"/>
-      <c r="D4" s="140" t="s">
-        <v>431</v>
-      </c>
-      <c r="E4" s="131" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="131" t="s">
+      <c r="D6" s="139" t="s">
         <v>422</v>
       </c>
-      <c r="G4" s="131" t="s">
-        <v>429</v>
-      </c>
-      <c r="H4" s="158" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8">
-      <c r="B5" s="189" t="s">
-        <v>428</v>
-      </c>
-      <c r="C5" s="157" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="140" t="s">
-        <v>427</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>426</v>
-      </c>
-      <c r="F5" s="131" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" s="131" t="s">
-        <v>425</v>
-      </c>
-      <c r="H5" s="132"/>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="190"/>
-      <c r="C6" s="157" t="s">
-        <v>435</v>
-      </c>
-      <c r="D6" s="139" t="s">
-        <v>424</v>
-      </c>
       <c r="E6" s="135" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F6" s="131" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G6" s="132">
         <v>7</v>
       </c>
       <c r="H6" s="132" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -12453,81 +12432,81 @@
       <c r="H8" s="166"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="186" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="186"/>
+      <c r="B10" s="226" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="226"/>
       <c r="D10" s="137" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E10" s="138" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F10" s="137" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G10" s="137" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H10" s="137" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="185" t="s">
-        <v>415</v>
-      </c>
-      <c r="C11" s="185"/>
+      <c r="B11" s="225" t="s">
+        <v>413</v>
+      </c>
+      <c r="C11" s="225"/>
       <c r="D11" s="126" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E11" s="134">
         <v>1431052</v>
       </c>
       <c r="F11" s="134" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G11" s="135" t="s">
         <v>250</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="185" t="s">
-        <v>413</v>
-      </c>
-      <c r="C12" s="185"/>
+      <c r="B12" s="225" t="s">
+        <v>411</v>
+      </c>
+      <c r="C12" s="225"/>
       <c r="D12" s="126" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F12" s="134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G12" s="132">
         <v>8</v>
       </c>
       <c r="H12" s="159" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="185" t="s">
-        <v>409</v>
-      </c>
-      <c r="C13" s="185"/>
+      <c r="B13" s="225" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13" s="225"/>
       <c r="D13" s="126" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E13" s="135">
         <v>2018</v>
       </c>
       <c r="F13" s="134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G13" s="132">
         <v>4</v>
@@ -12535,37 +12514,37 @@
       <c r="H13" s="160"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="185" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="185"/>
+      <c r="B14" s="225" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="225"/>
       <c r="D14" s="126" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F14" s="134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G14" s="132">
         <v>6</v>
       </c>
       <c r="H14" s="161" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="185" t="s">
-        <v>404</v>
-      </c>
-      <c r="C15" s="185"/>
+      <c r="B15" s="225" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="225"/>
       <c r="D15" s="136"/>
       <c r="E15" s="135" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F15" s="134" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G15" s="133">
         <v>3</v>
@@ -12573,21 +12552,21 @@
       <c r="H15" s="158"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="185" t="s">
-        <v>401</v>
-      </c>
-      <c r="C16" s="185"/>
+      <c r="B16" s="225" t="s">
+        <v>399</v>
+      </c>
+      <c r="C16" s="225"/>
       <c r="D16" s="126" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E16" s="131" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F16" s="131" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G16" s="131" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H16" s="130"/>
     </row>
@@ -12701,13 +12680,13 @@
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="80" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12717,7 +12696,7 @@
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I32" sqref="I32"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1"/>
@@ -12726,13 +12705,13 @@
     <col min="2" max="2" width="30.375" style="73" customWidth="1"/>
     <col min="3" max="4" width="32" style="73" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="73"/>
-    <col min="6" max="6" width="40.125" style="203" customWidth="1"/>
+    <col min="6" max="6" width="40.125" style="189" customWidth="1"/>
     <col min="7" max="7" width="23.25" style="73" customWidth="1"/>
     <col min="8" max="16384" width="12.625" style="73"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" thickBot="1">
-      <c r="A1" s="202"/>
+      <c r="A1" s="188"/>
       <c r="B1" s="170" t="s">
         <v>279</v>
       </c>
@@ -12743,7 +12722,7 @@
       <c r="E1" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="210" t="s">
+      <c r="F1" s="196" t="s">
         <v>285</v>
       </c>
       <c r="G1" s="76" t="s">
@@ -12762,11 +12741,11 @@
       <c r="E2" s="173" t="s">
         <v>266</v>
       </c>
-      <c r="F2" s="211" t="s">
+      <c r="F2" s="197" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="175" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
@@ -12781,439 +12760,439 @@
       <c r="E3" s="174" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="212" t="s">
+      <c r="F3" s="198" t="s">
         <v>77</v>
       </c>
       <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="204"/>
-      <c r="B4" s="207" t="s">
+      <c r="A4" s="190"/>
+      <c r="B4" s="193" t="s">
         <v>273</v>
       </c>
-      <c r="C4" s="207" t="s">
+      <c r="C4" s="193" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207" t="s">
+      <c r="D4" s="193"/>
+      <c r="E4" s="193" t="s">
         <v>266</v>
       </c>
-      <c r="F4" s="213" t="s">
+      <c r="F4" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="204"/>
+      <c r="G4" s="190"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="198"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="208"/>
-      <c r="D5" s="208"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="214"/>
-      <c r="G5" s="198"/>
+      <c r="A5" s="184"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="200"/>
+      <c r="G5" s="184"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="198"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="214"/>
-      <c r="G6" s="198"/>
-    </row>
-    <row r="7" spans="1:7" s="209" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="215" t="s">
+      <c r="A6" s="184"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="184"/>
+    </row>
+    <row r="7" spans="1:7" s="195" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="201" t="s">
+        <v>539</v>
+      </c>
+      <c r="B7" s="202" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="202" t="s">
+        <v>541</v>
+      </c>
+      <c r="D7" s="202" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="203"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="191"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.75">
+      <c r="A8" s="205" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="206" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8" s="207" t="s">
+        <v>530</v>
+      </c>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="209" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.75">
+      <c r="A9" s="210" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="206" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="207" t="s">
+        <v>532</v>
+      </c>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.75">
+      <c r="A10" s="210" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="206" t="s">
+        <v>533</v>
+      </c>
+      <c r="C10" s="207"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.75">
+      <c r="A11" s="213"/>
+      <c r="B11" s="206" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" s="207"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.75">
+      <c r="A12" s="210" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="206" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" s="207" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="74"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.75">
+      <c r="A13" s="213" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="206" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="207" t="s">
+        <v>537</v>
+      </c>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.75">
+      <c r="A14" s="214"/>
+      <c r="B14" s="206" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" s="207"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214" t="s">
+        <v>265</v>
+      </c>
+      <c r="F14" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="190"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.75">
+      <c r="A15" s="207"/>
+      <c r="B15" s="206" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="207" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="207"/>
+      <c r="E15" s="207" t="s">
+        <v>544</v>
+      </c>
+      <c r="F15" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="191"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.75">
+      <c r="A16" s="206"/>
+      <c r="B16" s="206" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="206" t="s">
+        <v>511</v>
+      </c>
+      <c r="D16" s="206"/>
+      <c r="E16" s="206" t="s">
         <v>545</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="F16" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="192"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A17" s="206"/>
+      <c r="B17" s="206" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="206" t="s">
+        <v>514</v>
+      </c>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206" t="s">
+        <v>515</v>
+      </c>
+      <c r="F17" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="192"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A18" s="206"/>
+      <c r="B18" s="206" t="s">
+        <v>512</v>
+      </c>
+      <c r="C18" s="206" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" s="206"/>
+      <c r="E18" s="206" t="s">
         <v>546</v>
       </c>
-      <c r="C7" s="216" t="s">
+      <c r="F18" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="192"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A19" s="206"/>
+      <c r="B19" s="206" t="s">
+        <v>516</v>
+      </c>
+      <c r="C19" s="206" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" s="206" t="s">
         <v>547</v>
       </c>
-      <c r="D7" s="216" t="s">
+      <c r="E19" s="206" t="s">
+        <v>546</v>
+      </c>
+      <c r="F19" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="192"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A20" s="206"/>
+      <c r="B20" s="231" t="s">
+        <v>517</v>
+      </c>
+      <c r="C20" s="231" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" s="231" t="s">
         <v>548</v>
       </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="205"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.75">
-      <c r="A8" s="219" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="220" t="s">
-        <v>535</v>
-      </c>
-      <c r="C8" s="221" t="s">
-        <v>536</v>
-      </c>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="223" t="s">
+      <c r="E20" s="231" t="s">
+        <v>544</v>
+      </c>
+      <c r="F20" s="232" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="75"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.75">
-      <c r="A9" s="224" t="s">
-        <v>268</v>
-      </c>
-      <c r="B9" s="220" t="s">
-        <v>537</v>
-      </c>
-      <c r="C9" s="221" t="s">
-        <v>538</v>
-      </c>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="226" t="s">
+      <c r="G20" s="192"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.75">
+      <c r="A21" s="206"/>
+      <c r="B21" s="206" t="s">
+        <v>516</v>
+      </c>
+      <c r="C21" s="206" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" s="215" t="s">
+        <v>519</v>
+      </c>
+      <c r="E21" s="206" t="s">
+        <v>545</v>
+      </c>
+      <c r="F21" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="74"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.75">
-      <c r="A10" s="224" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="220" t="s">
-        <v>539</v>
-      </c>
-      <c r="C10" s="221"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="225" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="226" t="s">
+      <c r="G21" s="192"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="206"/>
+      <c r="B22" s="206" t="s">
+        <v>520</v>
+      </c>
+      <c r="C22" s="206" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206" t="s">
+        <v>544</v>
+      </c>
+      <c r="F22" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="74"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.75">
-      <c r="A11" s="227"/>
-      <c r="B11" s="220" t="s">
-        <v>540</v>
-      </c>
-      <c r="C11" s="221"/>
-      <c r="D11" s="225"/>
-      <c r="E11" s="225" t="s">
-        <v>269</v>
-      </c>
-      <c r="F11" s="226" t="s">
+      <c r="G22" s="192"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="206"/>
+      <c r="B23" s="206" t="s">
+        <v>520</v>
+      </c>
+      <c r="C23" s="206" t="s">
+        <v>522</v>
+      </c>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206" t="s">
+        <v>544</v>
+      </c>
+      <c r="F23" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="74"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.75">
-      <c r="A12" s="224" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="220" t="s">
-        <v>541</v>
-      </c>
-      <c r="C12" s="221" t="s">
-        <v>542</v>
-      </c>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="226" t="s">
+      <c r="G23" s="192"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="206"/>
+      <c r="B24" s="206" t="s">
+        <v>523</v>
+      </c>
+      <c r="C24" s="206" t="s">
+        <v>549</v>
+      </c>
+      <c r="D24" s="206" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="206" t="s">
+        <v>546</v>
+      </c>
+      <c r="F24" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="74"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.75">
-      <c r="A13" s="227" t="s">
-        <v>267</v>
-      </c>
-      <c r="B13" s="220" t="s">
+      <c r="G24" s="192"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.75">
+      <c r="A25" s="206"/>
+      <c r="B25" s="206" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="206" t="s">
+        <v>549</v>
+      </c>
+      <c r="D25" s="206" t="s">
+        <v>550</v>
+      </c>
+      <c r="E25" s="206" t="s">
+        <v>544</v>
+      </c>
+      <c r="F25" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="192"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.75">
+      <c r="A26" s="206"/>
+      <c r="B26" s="206" t="s">
+        <v>523</v>
+      </c>
+      <c r="C26" s="206" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="216" t="s">
+        <v>551</v>
+      </c>
+      <c r="E26" s="206" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="192"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="206"/>
+      <c r="B27" s="206" t="s">
+        <v>525</v>
+      </c>
+      <c r="C27" s="206" t="s">
         <v>526</v>
       </c>
-      <c r="C13" s="221" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" s="225"/>
-      <c r="E13" s="225" t="s">
-        <v>266</v>
-      </c>
-      <c r="F13" s="226" t="s">
+      <c r="D27" s="206" t="s">
+        <v>527</v>
+      </c>
+      <c r="E27" s="206" t="s">
+        <v>544</v>
+      </c>
+      <c r="F27" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="74"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.75">
-      <c r="A14" s="228"/>
-      <c r="B14" s="220" t="s">
+      <c r="G27" s="192"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="206"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="206" t="s">
+        <v>552</v>
+      </c>
+      <c r="D28" s="206"/>
+      <c r="E28" s="206" t="s">
         <v>544</v>
       </c>
-      <c r="C14" s="221"/>
-      <c r="D14" s="228"/>
-      <c r="E14" s="228" t="s">
-        <v>265</v>
-      </c>
-      <c r="F14" s="226" t="s">
+      <c r="F28" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="204"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.75">
-      <c r="A15" s="221"/>
-      <c r="B15" s="220" t="s">
-        <v>516</v>
-      </c>
-      <c r="C15" s="221" t="s">
-        <v>549</v>
-      </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221" t="s">
-        <v>550</v>
-      </c>
-      <c r="F15" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="205"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.75">
-      <c r="A16" s="220"/>
-      <c r="B16" s="220" t="s">
-        <v>516</v>
-      </c>
-      <c r="C16" s="220" t="s">
-        <v>517</v>
-      </c>
-      <c r="D16" s="220"/>
-      <c r="E16" s="220" t="s">
-        <v>551</v>
-      </c>
-      <c r="F16" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="206"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="220"/>
-      <c r="B17" s="220" t="s">
-        <v>518</v>
-      </c>
-      <c r="C17" s="220" t="s">
-        <v>520</v>
-      </c>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220" t="s">
-        <v>521</v>
-      </c>
-      <c r="F17" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="206"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="220"/>
-      <c r="B18" s="220" t="s">
-        <v>518</v>
-      </c>
-      <c r="C18" s="220" t="s">
-        <v>519</v>
-      </c>
-      <c r="D18" s="220"/>
-      <c r="E18" s="220" t="s">
-        <v>552</v>
-      </c>
-      <c r="F18" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="206"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A19" s="220"/>
-      <c r="B19" s="220" t="s">
-        <v>522</v>
-      </c>
-      <c r="C19" s="220" t="s">
-        <v>534</v>
-      </c>
-      <c r="D19" s="220" t="s">
-        <v>553</v>
-      </c>
-      <c r="E19" s="220" t="s">
-        <v>552</v>
-      </c>
-      <c r="F19" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="206"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="220"/>
-      <c r="B20" s="220" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="220" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" s="220" t="s">
-        <v>554</v>
-      </c>
-      <c r="E20" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="F20" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="206"/>
-    </row>
-    <row r="21" spans="1:7" ht="24.75">
-      <c r="A21" s="220"/>
-      <c r="B21" s="220" t="s">
-        <v>522</v>
-      </c>
-      <c r="C21" s="220" t="s">
-        <v>524</v>
-      </c>
-      <c r="D21" s="229" t="s">
-        <v>525</v>
-      </c>
-      <c r="E21" s="220" t="s">
-        <v>551</v>
-      </c>
-      <c r="F21" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="206"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="220"/>
-      <c r="B22" s="220" t="s">
-        <v>526</v>
-      </c>
-      <c r="C22" s="220" t="s">
-        <v>527</v>
-      </c>
-      <c r="D22" s="220"/>
-      <c r="E22" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="F22" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="206"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="220"/>
-      <c r="B23" s="220" t="s">
-        <v>526</v>
-      </c>
-      <c r="C23" s="220" t="s">
-        <v>528</v>
-      </c>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="F23" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="206"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="220"/>
-      <c r="B24" s="220" t="s">
-        <v>529</v>
-      </c>
-      <c r="C24" s="220" t="s">
-        <v>555</v>
-      </c>
-      <c r="D24" s="220" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="220" t="s">
-        <v>552</v>
-      </c>
-      <c r="F24" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="206"/>
-    </row>
-    <row r="25" spans="1:7" ht="24.75">
-      <c r="A25" s="220"/>
-      <c r="B25" s="220" t="s">
-        <v>529</v>
-      </c>
-      <c r="C25" s="220" t="s">
-        <v>555</v>
-      </c>
-      <c r="D25" s="220" t="s">
-        <v>556</v>
-      </c>
-      <c r="E25" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="F25" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="206"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.75">
-      <c r="A26" s="220"/>
-      <c r="B26" s="220" t="s">
-        <v>529</v>
-      </c>
-      <c r="C26" s="220" t="s">
-        <v>555</v>
-      </c>
-      <c r="D26" s="230" t="s">
-        <v>557</v>
-      </c>
-      <c r="E26" s="220" t="s">
-        <v>551</v>
-      </c>
-      <c r="F26" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="206"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="220"/>
-      <c r="B27" s="220" t="s">
-        <v>531</v>
-      </c>
-      <c r="C27" s="220" t="s">
-        <v>532</v>
-      </c>
-      <c r="D27" s="220" t="s">
-        <v>533</v>
-      </c>
-      <c r="E27" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="F27" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="206"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="220"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="220" t="s">
-        <v>558</v>
-      </c>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220" t="s">
-        <v>550</v>
-      </c>
-      <c r="F28" s="226" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="206"/>
+      <c r="G28" s="192"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="75" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/기능별 분류맵(안).xlsx
+++ b/기능별 분류맵(안).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="2"/>
+    <workbookView xWindow="540" yWindow="315" windowWidth="23250" windowHeight="10815" tabRatio="846" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="분류맵2017" sheetId="1" r:id="rId1"/>
@@ -1711,10 +1711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>권호수 표기 적용 고려*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1431052=문화사업팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2569,11 +2565,15 @@
     <t>17.10.~18.02.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>권호수=소기능별 단위과제 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="59">
     <font>
       <sz val="11"/>
@@ -4412,6 +4412,18 @@
     <xf numFmtId="0" fontId="42" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4453,18 +4465,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -4529,6 +4529,11 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4607,6 +4612,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4641,6 +4647,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4816,7 +4823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4919,7 +4926,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F4" s="14"/>
       <c r="L4" s="1"/>
@@ -5344,7 +5351,7 @@
         <v>31</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5518,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -5657,7 +5664,7 @@
         <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="7" customFormat="1" ht="14.25" thickBot="1">
@@ -5674,7 +5681,7 @@
         <v>58</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -5854,7 +5861,7 @@
         <v>68</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5888,10 +5895,10 @@
         <v>69</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5905,10 +5912,10 @@
         <v>69</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -5922,10 +5929,10 @@
         <v>69</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="1" customFormat="1">
@@ -5939,7 +5946,7 @@
         <v>225</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>81</v>
@@ -5959,10 +5966,10 @@
         <v>225</v>
       </c>
       <c r="D63" s="165" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="1" customFormat="1">
@@ -5976,10 +5983,10 @@
         <v>225</v>
       </c>
       <c r="D64" s="165" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -5993,10 +6000,10 @@
         <v>225</v>
       </c>
       <c r="D65" s="83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -6007,7 +6014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6039,16 +6046,16 @@
         <v>276</v>
       </c>
       <c r="D1" s="164" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E1" s="164" t="s">
         <v>292</v>
       </c>
       <c r="F1" s="164" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G1" s="164" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
@@ -6060,7 +6067,7 @@
       <c r="D2" s="121"/>
       <c r="E2" s="121"/>
       <c r="F2" s="121" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G2" s="121"/>
     </row>
@@ -6069,7 +6076,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C3" s="73" t="s">
         <v>280</v>
@@ -6079,10 +6086,10 @@
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
@@ -6100,10 +6107,10 @@
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G4" s="172" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
@@ -6117,7 +6124,7 @@
         <v>286</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G5" s="73"/>
     </row>
@@ -6129,7 +6136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -6189,7 +6196,7 @@
         <v>80</v>
       </c>
       <c r="D2" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>304</v>
@@ -6198,7 +6205,7 @@
         <v>308</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H2" s="2"/>
     </row>
@@ -6210,10 +6217,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="176" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>304</v>
@@ -6232,10 +6239,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="177" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D4" s="85" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>304</v>
@@ -6254,10 +6261,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="177" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>304</v>
@@ -6276,10 +6283,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="179" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>304</v>
@@ -6301,7 +6308,7 @@
         <v>80</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>304</v>
@@ -6310,7 +6317,7 @@
         <v>305</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -6325,7 +6332,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="76"/>
@@ -6343,7 +6350,7 @@
         <v>74</v>
       </c>
       <c r="D9" s="81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="76"/>
@@ -6361,7 +6368,7 @@
         <v>75</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="78"/>
@@ -6379,7 +6386,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>304</v>
@@ -6388,7 +6395,7 @@
         <v>305</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -6403,7 +6410,7 @@
         <v>295</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="76"/>
@@ -6421,7 +6428,7 @@
         <v>296</v>
       </c>
       <c r="D13" s="85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="76"/>
@@ -6439,7 +6446,7 @@
         <v>297</v>
       </c>
       <c r="D14" s="81" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="76"/>
@@ -6457,7 +6464,7 @@
         <v>299</v>
       </c>
       <c r="D15" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E15" s="178"/>
       <c r="F15" s="78"/>
@@ -6475,7 +6482,7 @@
         <v>80</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>304</v>
@@ -6484,7 +6491,7 @@
         <v>305</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -6499,7 +6506,7 @@
         <v>294</v>
       </c>
       <c r="D17" s="81" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="76"/>
@@ -6517,7 +6524,7 @@
         <v>298</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="78"/>
@@ -6535,7 +6542,7 @@
         <v>80</v>
       </c>
       <c r="D19" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>304</v>
@@ -6544,7 +6551,7 @@
         <v>305</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -6559,7 +6566,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="76"/>
@@ -6577,7 +6584,7 @@
         <v>310</v>
       </c>
       <c r="D21" s="85" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="76"/>
@@ -6592,10 +6599,10 @@
         <v>33</v>
       </c>
       <c r="C22" s="183" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D22" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="78"/>
@@ -6613,7 +6620,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>304</v>
@@ -6622,7 +6629,7 @@
         <v>305</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -6634,10 +6641,10 @@
         <v>27</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D24" s="81" t="s">
         <v>477</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>478</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="76"/>
@@ -6671,7 +6678,7 @@
         <v>80</v>
       </c>
       <c r="D26" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>304</v>
@@ -6680,7 +6687,7 @@
         <v>305</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -6695,7 +6702,7 @@
         <v>312</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="76"/>
@@ -6729,7 +6736,7 @@
         <v>80</v>
       </c>
       <c r="D29" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E29" s="179" t="s">
         <v>304</v>
@@ -6738,7 +6745,7 @@
         <v>305</v>
       </c>
       <c r="G29" s="179" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H29" s="179"/>
     </row>
@@ -6753,7 +6760,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>304</v>
@@ -6762,7 +6769,7 @@
         <v>305</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -6777,7 +6784,7 @@
         <v>309</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="76"/>
@@ -6792,10 +6799,10 @@
         <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D32" s="84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="78"/>
@@ -6813,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="D33" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>304</v>
@@ -6822,7 +6829,7 @@
         <v>305</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -6837,7 +6844,7 @@
         <v>314</v>
       </c>
       <c r="D34" s="85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="76"/>
@@ -6855,7 +6862,7 @@
         <v>315</v>
       </c>
       <c r="D35" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E35" s="14"/>
       <c r="F35" s="76"/>
@@ -6873,7 +6880,7 @@
         <v>316</v>
       </c>
       <c r="D36" s="173" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="78"/>
@@ -6891,7 +6898,7 @@
         <v>80</v>
       </c>
       <c r="D37" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>304</v>
@@ -6900,7 +6907,7 @@
         <v>305</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -6915,7 +6922,7 @@
         <v>316</v>
       </c>
       <c r="D38" s="81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E38" s="14"/>
       <c r="F38" s="76"/>
@@ -6930,10 +6937,10 @@
         <v>55</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="76"/>
@@ -6951,7 +6958,7 @@
         <v>317</v>
       </c>
       <c r="D40" s="83" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="78"/>
@@ -6969,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>304</v>
@@ -6978,7 +6985,7 @@
         <v>305</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -7009,7 +7016,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>304</v>
@@ -7018,7 +7025,7 @@
         <v>305</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -7033,7 +7040,7 @@
         <v>319</v>
       </c>
       <c r="D44" s="85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="76"/>
@@ -7067,7 +7074,7 @@
         <v>80</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>304</v>
@@ -7076,7 +7083,7 @@
         <v>305</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -7091,7 +7098,7 @@
         <v>321</v>
       </c>
       <c r="D47" s="84" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="78"/>
@@ -7109,7 +7116,7 @@
         <v>80</v>
       </c>
       <c r="D48" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>304</v>
@@ -7118,7 +7125,7 @@
         <v>305</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -7130,10 +7137,10 @@
         <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D49" s="84" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="78"/>
@@ -7151,7 +7158,7 @@
         <v>80</v>
       </c>
       <c r="D50" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>304</v>
@@ -7160,7 +7167,7 @@
         <v>305</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H50" s="2"/>
     </row>
@@ -7172,10 +7179,10 @@
         <v>69</v>
       </c>
       <c r="C51" s="181" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D51" s="86" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E51" s="175"/>
       <c r="F51" s="75"/>
@@ -7190,10 +7197,10 @@
         <v>69</v>
       </c>
       <c r="C52" s="181" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D52" s="86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E52" s="175"/>
       <c r="F52" s="75"/>
@@ -7208,10 +7215,10 @@
         <v>69</v>
       </c>
       <c r="C53" s="183" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D53" s="83" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="78"/>
@@ -7229,7 +7236,7 @@
         <v>80</v>
       </c>
       <c r="D54" s="86" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>78</v>
@@ -7238,7 +7245,7 @@
         <v>305</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" ht="13.5">
@@ -7249,10 +7256,10 @@
         <v>225</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" ht="13.5">
@@ -7263,10 +7270,10 @@
         <v>225</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:8" s="6" customFormat="1" ht="14.25" thickBot="1">
@@ -7277,10 +7284,10 @@
         <v>225</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7291,13 +7298,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -7318,62 +7325,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="219" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
     </row>
     <row r="2" spans="1:15" s="54" customFormat="1" ht="20.25">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="220" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="1:15" ht="17.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="217" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="221" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="230" t="s">
-        <v>579</v>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="216" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
@@ -7419,8 +7426,8 @@
       <c r="N4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="232" t="s">
-        <v>556</v>
+      <c r="O4" s="218" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1">
@@ -7460,8 +7467,8 @@
       <c r="N5" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="O5" s="231" t="s">
-        <v>580</v>
+      <c r="O5" s="217" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -7501,8 +7508,8 @@
       <c r="N6" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="O6" s="231" t="s">
-        <v>581</v>
+      <c r="O6" s="217" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -7542,8 +7549,8 @@
       <c r="N7" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="O7" s="231" t="s">
-        <v>581</v>
+      <c r="O7" s="217" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -7583,8 +7590,8 @@
       <c r="N8" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="O8" s="231" t="s">
-        <v>582</v>
+      <c r="O8" s="217" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -7624,8 +7631,8 @@
       <c r="N9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="231" t="s">
-        <v>581</v>
+      <c r="O9" s="217" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -7665,8 +7672,8 @@
       <c r="N10" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O10" s="231" t="s">
-        <v>583</v>
+      <c r="O10" s="217" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -7706,8 +7713,8 @@
       <c r="N11" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O11" s="231" t="s">
-        <v>585</v>
+      <c r="O11" s="217" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -7747,8 +7754,8 @@
       <c r="N12" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O12" s="231" t="s">
-        <v>584</v>
+      <c r="O12" s="217" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -7788,8 +7795,8 @@
       <c r="N13" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O13" s="231" t="s">
-        <v>586</v>
+      <c r="O13" s="217" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -7829,8 +7836,8 @@
       <c r="N14" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O14" s="231" t="s">
-        <v>580</v>
+      <c r="O14" s="217" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -7870,8 +7877,8 @@
       <c r="N15" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O15" s="231" t="s">
-        <v>584</v>
+      <c r="O15" s="217" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -7911,8 +7918,8 @@
       <c r="N16" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O16" s="231" t="s">
-        <v>587</v>
+      <c r="O16" s="217" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -7929,7 +7936,7 @@
         <v>168</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
@@ -7952,8 +7959,8 @@
       <c r="N17" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O17" s="231" t="s">
-        <v>589</v>
+      <c r="O17" s="217" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -7993,8 +8000,8 @@
       <c r="N18" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O18" s="231" t="s">
-        <v>590</v>
+      <c r="O18" s="217" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -8034,8 +8041,8 @@
       <c r="N19" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="O19" s="231" t="s">
-        <v>574</v>
+      <c r="O19" s="217" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -8075,8 +8082,8 @@
       <c r="N20" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="O20" s="231" t="s">
-        <v>581</v>
+      <c r="O20" s="217" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="56" customFormat="1" ht="17.25" thickBot="1">
@@ -8113,11 +8120,11 @@
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
-      <c r="N21" s="229" t="s">
+      <c r="N21" s="215" t="s">
         <v>220</v>
       </c>
-      <c r="O21" s="231" t="s">
-        <v>591</v>
+      <c r="O21" s="217" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -8556,7 +8563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -9794,7 +9801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -11092,7 +11099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0000FF"/>
   </sheetPr>
@@ -11122,62 +11129,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="15" customFormat="1" ht="20.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="219" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="215"/>
-      <c r="D1" s="215"/>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="215"/>
-      <c r="M1" s="215"/>
-      <c r="N1" s="215"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="219"/>
     </row>
     <row r="2" spans="1:15" s="16" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="220" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="216"/>
-      <c r="E2" s="216"/>
-      <c r="F2" s="216"/>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="216"/>
-      <c r="L2" s="216"/>
-      <c r="M2" s="216"/>
-      <c r="N2" s="216"/>
+      <c r="B2" s="220"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="217" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="221" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
-      <c r="M3" s="218"/>
-      <c r="N3" s="218"/>
-      <c r="O3" s="230" t="s">
-        <v>579</v>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+      <c r="O3" s="216" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1">
@@ -11223,8 +11230,8 @@
       <c r="N4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="O4" s="232" t="s">
-        <v>571</v>
+      <c r="O4" s="218" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="17.25" thickTop="1">
@@ -11264,8 +11271,8 @@
       <c r="N5" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="231" t="s">
-        <v>570</v>
+      <c r="O5" s="217" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -11305,8 +11312,8 @@
       <c r="N6" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="O6" s="231" t="s">
-        <v>569</v>
+      <c r="O6" s="217" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -11346,8 +11353,8 @@
       <c r="N7" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="231" t="s">
-        <v>568</v>
+      <c r="O7" s="217" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -11387,8 +11394,8 @@
       <c r="N8" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="231" t="s">
-        <v>567</v>
+      <c r="O8" s="217" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -11428,8 +11435,8 @@
       <c r="N9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="231" t="s">
-        <v>566</v>
+      <c r="O9" s="217" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -11469,8 +11476,8 @@
       <c r="N10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="O10" s="231" t="s">
-        <v>557</v>
+      <c r="O10" s="217" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -11510,8 +11517,8 @@
       <c r="N11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O11" s="231" t="s">
-        <v>560</v>
+      <c r="O11" s="217" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -11551,8 +11558,8 @@
       <c r="N12" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="O12" s="231" t="s">
-        <v>558</v>
+      <c r="O12" s="217" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -11592,8 +11599,8 @@
       <c r="N13" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O13" s="231" t="s">
-        <v>559</v>
+      <c r="O13" s="217" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -11633,8 +11640,8 @@
       <c r="N14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="231" t="s">
-        <v>559</v>
+      <c r="O14" s="217" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -11674,8 +11681,8 @@
       <c r="N15" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="231" t="s">
-        <v>565</v>
+      <c r="O15" s="217" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="17.25" thickBot="1">
@@ -11715,8 +11722,8 @@
       <c r="N16" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="231" t="s">
-        <v>564</v>
+      <c r="O16" s="217" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -11756,8 +11763,8 @@
       <c r="N17" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="O17" s="231" t="s">
-        <v>561</v>
+      <c r="O17" s="217" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -11797,8 +11804,8 @@
       <c r="N18" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="O18" s="231" t="s">
-        <v>560</v>
+      <c r="O18" s="217" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -11838,8 +11845,8 @@
       <c r="N19" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="O19" s="231" t="s">
-        <v>562</v>
+      <c r="O19" s="217" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -11879,8 +11886,8 @@
       <c r="N20" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="O20" s="231" t="s">
-        <v>563</v>
+      <c r="O20" s="217" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -11922,8 +11929,8 @@
       <c r="N21" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="O21" s="231" t="s">
-        <v>572</v>
+      <c r="O21" s="217" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="17.25" thickBot="1">
@@ -11965,8 +11972,8 @@
       <c r="N22" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="O22" s="231" t="s">
-        <v>573</v>
+      <c r="O22" s="217" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -12006,8 +12013,8 @@
       <c r="N23" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="231" t="s">
-        <v>574</v>
+      <c r="O23" s="217" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -12047,8 +12054,8 @@
       <c r="N24" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="O24" s="231" t="s">
-        <v>575</v>
+      <c r="O24" s="217" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -12088,8 +12095,8 @@
       <c r="N25" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="O25" s="231" t="s">
-        <v>576</v>
+      <c r="O25" s="217" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -12131,8 +12138,8 @@
       <c r="N26" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="O26" s="231" t="s">
-        <v>577</v>
+      <c r="O26" s="217" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -12174,8 +12181,8 @@
       <c r="N27" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="O27" s="231" t="s">
-        <v>578</v>
+      <c r="O27" s="217" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="17.25" thickBot="1">
@@ -12214,11 +12221,11 @@
       <c r="M28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="229" t="s">
+      <c r="N28" s="215" t="s">
         <v>111</v>
       </c>
-      <c r="O28" s="231" t="s">
-        <v>577</v>
+      <c r="O28" s="217" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -12857,7 +12864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -12879,34 +12886,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="224" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="220" t="s">
+      <c r="B1" s="224" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="220" t="s">
+      <c r="C1" s="224" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="222" t="s">
+      <c r="D1" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="222"/>
-      <c r="F1" s="220" t="s">
+      <c r="E1" s="226"/>
+      <c r="F1" s="224" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" thickBot="1">
-      <c r="A2" s="221"/>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
+      <c r="A2" s="225"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
       <c r="D2" s="138" t="s">
         <v>233</v>
       </c>
       <c r="E2" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="221"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1">
       <c r="A3" s="139" t="s">
@@ -13142,14 +13149,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13167,10 +13174,10 @@
       <c r="D2" s="137"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="228" t="s">
         <v>430</v>
       </c>
-      <c r="C3" s="224"/>
+      <c r="C3" s="228"/>
       <c r="D3" s="133" t="s">
         <v>429</v>
       </c>
@@ -13188,10 +13195,10 @@
       </c>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="229" t="s">
         <v>238</v>
       </c>
-      <c r="C4" s="226"/>
+      <c r="C4" s="230"/>
       <c r="D4" s="136" t="s">
         <v>428</v>
       </c>
@@ -13205,11 +13212,11 @@
         <v>426</v>
       </c>
       <c r="H4" s="154" t="s">
-        <v>434</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="227" t="s">
+      <c r="B5" s="231" t="s">
         <v>425</v>
       </c>
       <c r="C5" s="153" t="s">
@@ -13230,7 +13237,7 @@
       <c r="H5" s="128"/>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="228"/>
+      <c r="B6" s="232"/>
       <c r="C6" s="153" t="s">
         <v>432</v>
       </c>
@@ -13247,7 +13254,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="128" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -13269,10 +13276,10 @@
       <c r="H8" s="162"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="224" t="s">
+      <c r="B10" s="228" t="s">
         <v>418</v>
       </c>
-      <c r="C10" s="224"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="133" t="s">
         <v>417</v>
       </c>
@@ -13290,10 +13297,10 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="223" t="s">
+      <c r="B11" s="227" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="223"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="122" t="s">
         <v>411</v>
       </c>
@@ -13307,14 +13314,14 @@
         <v>249</v>
       </c>
       <c r="H11" s="128" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="66">
-      <c r="B12" s="223" t="s">
+      <c r="B12" s="227" t="s">
         <v>410</v>
       </c>
-      <c r="C12" s="223"/>
+      <c r="C12" s="227"/>
       <c r="D12" s="122" t="s">
         <v>409</v>
       </c>
@@ -13332,10 +13339,10 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="223" t="s">
+      <c r="B13" s="227" t="s">
         <v>406</v>
       </c>
-      <c r="C13" s="223"/>
+      <c r="C13" s="227"/>
       <c r="D13" s="122" t="s">
         <v>405</v>
       </c>
@@ -13351,10 +13358,10 @@
       <c r="H13" s="156"/>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="227" t="s">
         <v>404</v>
       </c>
-      <c r="C14" s="223"/>
+      <c r="C14" s="227"/>
       <c r="D14" s="122" t="s">
         <v>403</v>
       </c>
@@ -13368,14 +13375,14 @@
         <v>6</v>
       </c>
       <c r="H14" s="157" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="223" t="s">
+      <c r="B15" s="227" t="s">
         <v>401</v>
       </c>
-      <c r="C15" s="223"/>
+      <c r="C15" s="227"/>
       <c r="D15" s="132"/>
       <c r="E15" s="131" t="s">
         <v>400</v>
@@ -13389,10 +13396,10 @@
       <c r="H15" s="154"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="227" t="s">
         <v>398</v>
       </c>
-      <c r="C16" s="223"/>
+      <c r="C16" s="227"/>
       <c r="D16" s="122" t="s">
         <v>433</v>
       </c>
@@ -13523,7 +13530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13582,7 +13589,7 @@
         <v>77</v>
       </c>
       <c r="G2" s="171" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5">
@@ -13639,16 +13646,16 @@
     </row>
     <row r="7" spans="1:7" s="191" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="197" t="s">
+        <v>537</v>
+      </c>
+      <c r="B7" s="198" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="198" t="s">
+      <c r="C7" s="198" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="198" t="s">
+      <c r="D7" s="198" t="s">
         <v>540</v>
-      </c>
-      <c r="D7" s="198" t="s">
-        <v>541</v>
       </c>
       <c r="E7" s="199"/>
       <c r="F7" s="200"/>
@@ -13659,10 +13666,10 @@
         <v>270</v>
       </c>
       <c r="B8" s="202" t="s">
+        <v>527</v>
+      </c>
+      <c r="C8" s="203" t="s">
         <v>528</v>
-      </c>
-      <c r="C8" s="203" t="s">
-        <v>529</v>
       </c>
       <c r="D8" s="204"/>
       <c r="E8" s="204" t="s">
@@ -13678,10 +13685,10 @@
         <v>267</v>
       </c>
       <c r="B9" s="202" t="s">
+        <v>529</v>
+      </c>
+      <c r="C9" s="203" t="s">
         <v>530</v>
-      </c>
-      <c r="C9" s="203" t="s">
-        <v>531</v>
       </c>
       <c r="D9" s="207"/>
       <c r="E9" s="207" t="s">
@@ -13697,7 +13704,7 @@
         <v>269</v>
       </c>
       <c r="B10" s="202" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C10" s="203"/>
       <c r="D10" s="207"/>
@@ -13712,7 +13719,7 @@
     <row r="11" spans="1:7" ht="24.75">
       <c r="A11" s="209"/>
       <c r="B11" s="202" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C11" s="203"/>
       <c r="D11" s="207"/>
@@ -13729,10 +13736,10 @@
         <v>267</v>
       </c>
       <c r="B12" s="202" t="s">
+        <v>533</v>
+      </c>
+      <c r="C12" s="203" t="s">
         <v>534</v>
-      </c>
-      <c r="C12" s="203" t="s">
-        <v>535</v>
       </c>
       <c r="D12" s="207"/>
       <c r="E12" s="207" t="s">
@@ -13748,10 +13755,10 @@
         <v>266</v>
       </c>
       <c r="B13" s="202" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C13" s="203" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D13" s="207"/>
       <c r="E13" s="207" t="s">
@@ -13765,7 +13772,7 @@
     <row r="14" spans="1:7" ht="24.75">
       <c r="A14" s="210"/>
       <c r="B14" s="202" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C14" s="203"/>
       <c r="D14" s="210"/>
@@ -13780,14 +13787,14 @@
     <row r="15" spans="1:7" ht="24.75">
       <c r="A15" s="203"/>
       <c r="B15" s="202" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C15" s="203" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D15" s="203"/>
       <c r="E15" s="203" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F15" s="208" t="s">
         <v>77</v>
@@ -13797,14 +13804,14 @@
     <row r="16" spans="1:7" ht="24.75">
       <c r="A16" s="202"/>
       <c r="B16" s="202" t="s">
+        <v>508</v>
+      </c>
+      <c r="C16" s="202" t="s">
         <v>509</v>
-      </c>
-      <c r="C16" s="202" t="s">
-        <v>510</v>
       </c>
       <c r="D16" s="202"/>
       <c r="E16" s="202" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F16" s="208" t="s">
         <v>77</v>
@@ -13814,14 +13821,14 @@
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="202"/>
       <c r="B17" s="202" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C17" s="202" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D17" s="202"/>
       <c r="E17" s="202" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F17" s="208" t="s">
         <v>77</v>
@@ -13831,14 +13838,14 @@
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="202"/>
       <c r="B18" s="202" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="202" t="s">
         <v>511</v>
-      </c>
-      <c r="C18" s="202" t="s">
-        <v>512</v>
       </c>
       <c r="D18" s="202"/>
       <c r="E18" s="202" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F18" s="208" t="s">
         <v>77</v>
@@ -13848,16 +13855,16 @@
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="202"/>
       <c r="B19" s="202" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C19" s="202" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D19" s="202" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E19" s="202" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F19" s="208" t="s">
         <v>77</v>
@@ -13867,16 +13874,16 @@
     <row r="20" spans="1:7" ht="31.5" customHeight="1">
       <c r="A20" s="202"/>
       <c r="B20" s="213" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C20" s="213" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D20" s="213" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E20" s="213" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F20" s="214" t="s">
         <v>77</v>
@@ -13886,16 +13893,16 @@
     <row r="21" spans="1:7" ht="24.75">
       <c r="A21" s="202"/>
       <c r="B21" s="202" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C21" s="202" t="s">
+        <v>516</v>
+      </c>
+      <c r="D21" s="211" t="s">
         <v>517</v>
       </c>
-      <c r="D21" s="211" t="s">
-        <v>518</v>
-      </c>
       <c r="E21" s="202" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F21" s="208" t="s">
         <v>77</v>
@@ -13905,14 +13912,14 @@
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="202"/>
       <c r="B22" s="202" t="s">
+        <v>518</v>
+      </c>
+      <c r="C22" s="202" t="s">
         <v>519</v>
-      </c>
-      <c r="C22" s="202" t="s">
-        <v>520</v>
       </c>
       <c r="D22" s="202"/>
       <c r="E22" s="202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F22" s="208" t="s">
         <v>77</v>
@@ -13922,14 +13929,14 @@
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="202"/>
       <c r="B23" s="202" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C23" s="202" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D23" s="202"/>
       <c r="E23" s="202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F23" s="208" t="s">
         <v>77</v>
@@ -13939,16 +13946,16 @@
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="202"/>
       <c r="B24" s="202" t="s">
+        <v>521</v>
+      </c>
+      <c r="C24" s="202" t="s">
+        <v>547</v>
+      </c>
+      <c r="D24" s="202" t="s">
         <v>522</v>
       </c>
-      <c r="C24" s="202" t="s">
-        <v>548</v>
-      </c>
-      <c r="D24" s="202" t="s">
-        <v>523</v>
-      </c>
       <c r="E24" s="202" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F24" s="208" t="s">
         <v>77</v>
@@ -13958,16 +13965,16 @@
     <row r="25" spans="1:7" ht="24.75">
       <c r="A25" s="202"/>
       <c r="B25" s="202" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C25" s="202" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="202" t="s">
         <v>548</v>
       </c>
-      <c r="D25" s="202" t="s">
-        <v>549</v>
-      </c>
       <c r="E25" s="202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F25" s="208" t="s">
         <v>77</v>
@@ -13977,16 +13984,16 @@
     <row r="26" spans="1:7" ht="24.75">
       <c r="A26" s="202"/>
       <c r="B26" s="202" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C26" s="202" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D26" s="212" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E26" s="202" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F26" s="208" t="s">
         <v>77</v>
@@ -13996,16 +14003,16 @@
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="202"/>
       <c r="B27" s="202" t="s">
+        <v>523</v>
+      </c>
+      <c r="C27" s="202" t="s">
         <v>524</v>
       </c>
-      <c r="C27" s="202" t="s">
+      <c r="D27" s="202" t="s">
         <v>525</v>
       </c>
-      <c r="D27" s="202" t="s">
-        <v>526</v>
-      </c>
       <c r="E27" s="202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F27" s="208" t="s">
         <v>77</v>
@@ -14016,11 +14023,11 @@
       <c r="A28" s="202"/>
       <c r="B28" s="202"/>
       <c r="C28" s="202" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D28" s="202"/>
       <c r="E28" s="202" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F28" s="208" t="s">
         <v>77</v>
